--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32655-d84224-Reviews-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>99</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Extended-Stay-America-Los-Angeles-LAX-Airport.h282265.Hotel-Information?chkin=6%2F21%2F2018&amp;chkout=6%2F22%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1528309803197&amp;cancellable=false&amp;regionId=2011&amp;vip=false&amp;c=aab512ca-03c2-497d-b150-d2bde5bb9f60&amp;mctc=9&amp;exp_dp=157.38&amp;exp_ts=1528309803816&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1336 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>07/01/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r579090208-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>84224</t>
+  </si>
+  <si>
+    <t>579090208</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Took our money, kicked us out.</t>
+  </si>
+  <si>
+    <t>Showed up at 1pm after making a booking weeks in advance, told there was no room for us, not given any real explanation. We'd been moved to a hotel without our consent in a completely different location even though we'd requested this hotel for a specific purpose. The girl behind the counter was completely indifferent. What a kick in the guts, I hope you guys go out of business for acting so unethically.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 9, 2018</t>
+  </si>
+  <si>
+    <t>Showed up at 1pm after making a booking weeks in advance, told there was no room for us, not given any real explanation. We'd been moved to a hotel without our consent in a completely different location even though we'd requested this hotel for a specific purpose. The girl behind the counter was completely indifferent. What a kick in the guts, I hope you guys go out of business for acting so unethically.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r551399701-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>551399701</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Decent Stay for Cheap</t>
+  </si>
+  <si>
+    <t>The room and bathroom were clean and the employees were friendly. The kitchenette can be supplied with dishes at an extra cost. I do love that they had a full refrigerator and microwave. Breakfast was mostly Grab-and-Go of coffee or instant oatmeal. I was only disappointed with the comfort of the beds (mostly thin), the slow free Internet, and my special request couldn't be fulfilled by a 5pm check-in. You also have to pay for parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded January 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 4, 2018</t>
+  </si>
+  <si>
+    <t>The room and bathroom were clean and the employees were friendly. The kitchenette can be supplied with dishes at an extra cost. I do love that they had a full refrigerator and microwave. Breakfast was mostly Grab-and-Go of coffee or instant oatmeal. I was only disappointed with the comfort of the beds (mostly thin), the slow free Internet, and my special request couldn't be fulfilled by a 5pm check-in. You also have to pay for parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r550533044-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>550533044</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>Basketball trip</t>
+  </si>
+  <si>
+    <t>The facility looks fairly new. The lobby smell like new carpet which was encouraging. The hotel was clean and neat. The decor was nice and modern. The beds were comfortable. The kitchenette was useful. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded January 1, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 1, 2018</t>
+  </si>
+  <si>
+    <t>The facility looks fairly new. The lobby smell like new carpet which was encouraging. The hotel was clean and neat. The decor was nice and modern. The beds were comfortable. The kitchenette was useful. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r536152903-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>536152903</t>
+  </si>
+  <si>
+    <t>10/26/2017</t>
+  </si>
+  <si>
+    <t>Not a happy customer</t>
+  </si>
+  <si>
+    <t>Would not recommend..... Some of staff very unprofessional....and rude. cleanliness not the best....  more like a motel feel than a hotel. Needs a lot of upgrades. There's other hotels in the area I would definitely recommend. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 26, 2017</t>
+  </si>
+  <si>
+    <t>Would not recommend..... Some of staff very unprofessional....and rude. cleanliness not the best....  more like a motel feel than a hotel. Needs a lot of upgrades. There's other hotels in the area I would definitely recommend. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r535253312-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>535253312</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you don't want a clean room this is the place </t>
+  </si>
+  <si>
+    <t>Stay saw something red on the comforter pulled the sheets back to see urine stains all in the bed follows by globs of hair moved rooms to find another room not up to standards pillows also had yellow stains Filthy, disgusting, nasty rooms MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Stay saw something red on the comforter pulled the sheets back to see urine stains all in the bed follows by globs of hair moved rooms to find another room not up to standards pillows also had yellow stains Filthy, disgusting, nasty rooms More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r529249153-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>529249153</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Good value for price...</t>
+  </si>
+  <si>
+    <t>Staff very friendly, courteous, and helpful. Full size fridge, stove, and microwave. We requested toaster and coffee pot and were given them free of charge. Location ok as it was close to the 405. Room was good.... clean, bed comfortable.. and it was quiet. I got exactly what I expected... was pleased.. and will stay there again. Only disappointment: TV smaller than I would expect and just the 'usual suspect' channels.  Was hoping for 'on demand' options but know next time to take laptop and watch Netflix:)MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>00esa, Owner at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 3, 2017</t>
+  </si>
+  <si>
+    <t>Staff very friendly, courteous, and helpful. Full size fridge, stove, and microwave. We requested toaster and coffee pot and were given them free of charge. Location ok as it was close to the 405. Room was good.... clean, bed comfortable.. and it was quiet. I got exactly what I expected... was pleased.. and will stay there again. Only disappointment: TV smaller than I would expect and just the 'usual suspect' channels.  Was hoping for 'on demand' options but know next time to take laptop and watch Netflix:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r507507187-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>507507187</t>
+  </si>
+  <si>
+    <t>07/31/2017</t>
+  </si>
+  <si>
+    <t>I love Extended Stay Airport in LA</t>
+  </si>
+  <si>
+    <t>I love the staff and the way they treat their guest...It's clean and quiet. I could stay forever! The Manager Rick was nice and the Housekeeping staff were very good. The front desk was always there to help.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2017</t>
+  </si>
+  <si>
+    <t>I love the staff and the way they treat their guest...It's clean and quiet. I could stay forever! The Manager Rick was nice and the Housekeeping staff were very good. The front desk was always there to help.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r499825175-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>499825175</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>You feel at home. The front desk people are awesome.</t>
+  </si>
+  <si>
+    <t>I really liked the front desk people. They make your life easier and you feel comfortable.  I stayed for about 44 days. I slept very comfortable. The beds could be bigger but it was nice anyway.  I liked the kitchen. Very convenient and I could set up my home style in there.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2017</t>
+  </si>
+  <si>
+    <t>I really liked the front desk people. They make your life easier and you feel comfortable.  I stayed for about 44 days. I slept very comfortable. The beds could be bigger but it was nice anyway.  I liked the kitchen. Very convenient and I could set up my home style in there.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r496732534-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>496732534</t>
+  </si>
+  <si>
+    <t>06/27/2017</t>
+  </si>
+  <si>
+    <t>A wonderful stay/vacation</t>
+  </si>
+  <si>
+    <t>This location was fantastic!!! The staff were all very friendly &amp; very accommodating. The GM did an excellent job in training all his team members. The rooms were very clean. A very safe place to spend vacation or long stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded June 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 28, 2017</t>
+  </si>
+  <si>
+    <t>This location was fantastic!!! The staff were all very friendly &amp; very accommodating. The GM did an excellent job in training all his team members. The rooms were very clean. A very safe place to spend vacation or long stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r484155971-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>484155971</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel good location</t>
+  </si>
+  <si>
+    <t>Nice hotel. The location was good. A westfield mall is nearby. You can even walk to it. Fot the evenings you can go to a nearby movie theater. Hotel was clean. Kitchen was ok.Only the parking fee is strange at this location.Rooms are noisy.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Nice hotel. The location was good. A westfield mall is nearby. You can even walk to it. Fot the evenings you can go to a nearby movie theater. Hotel was clean. Kitchen was ok.Only the parking fee is strange at this location.Rooms are noisy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r473711069-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>473711069</t>
+  </si>
+  <si>
+    <t>04/08/2017</t>
+  </si>
+  <si>
+    <t>Disappointed, noisy, poorly run and lacking supplies</t>
+  </si>
+  <si>
+    <t>For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There...For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There are two very heavy and awkward doors that do not have any automatic features and there isn't any bellhop assistant available. Now the pluses. The staff were pleasant and the continental breakfast was acceptable. The breakfast included coffee, tea, hot chocolate, muffins, and oatmeal. Often the coffee ran out but the staff were fairly good about making more when they were asked.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2017</t>
+  </si>
+  <si>
+    <t>For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There...For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There are two very heavy and awkward doors that do not have any automatic features and there isn't any bellhop assistant available. Now the pluses. The staff were pleasant and the continental breakfast was acceptable. The breakfast included coffee, tea, hot chocolate, muffins, and oatmeal. Often the coffee ran out but the staff were fairly good about making more when they were asked.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r468897906-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>468897906</t>
+  </si>
+  <si>
+    <t>03/20/2017</t>
+  </si>
+  <si>
+    <t>Very disappointing, look elsewhere</t>
+  </si>
+  <si>
+    <t>Maybe this place is worth it for long stays if you bring your own everything but pretty much anything is better if you just need a decent place to stay for a night.Uncomfortable bed-- cheap linens, hard mattress, flat pillows. Exactly what you don't want in a hotel.Shoddily put together. You can tell they don't care... the bathroom mirror wasn't even over the sink which made shaving very inconvenient. There wasn't even a soap dish.No comforts at all... no shampoo or conditioner. Rough towels. Only even got one disposable plastic water cup. "Breakfast" was granola bars and bad coffee. Literally nothing else.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r435203579-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>435203579</t>
+  </si>
+  <si>
+    <t>11/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A comedy of errors </t>
+  </si>
+  <si>
+    <t>First of all, thank goodness we verified our reservation by phone before arriving. Our booking.com reservation was not in their system.Upon arriving there were other guests who also did not have their reservations in the system but they have not called ahead. The front desk seemed to be having difficulty getting them their rooms.Meanwhile, we were assigned to a room that had not yet been cleaned. We went back to the front desk and requested a different room and were sent to one that had been a smoking room previously. They assured us it was not a smoking room but I beg to differ. Kitchens are not stocked as a rule but dishes must be requested. We have not found this to be the case in other extended stay America hotels.Overall room condition is average at best. Nothing spectacular but a comfortable firm bed and a quiet environment. Location is excellent, walking distance to food and entertainment.Check around, there may be better choices in this area.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>First of all, thank goodness we verified our reservation by phone before arriving. Our booking.com reservation was not in their system.Upon arriving there were other guests who also did not have their reservations in the system but they have not called ahead. The front desk seemed to be having difficulty getting them their rooms.Meanwhile, we were assigned to a room that had not yet been cleaned. We went back to the front desk and requested a different room and were sent to one that had been a smoking room previously. They assured us it was not a smoking room but I beg to differ. Kitchens are not stocked as a rule but dishes must be requested. We have not found this to be the case in other extended stay America hotels.Overall room condition is average at best. Nothing spectacular but a comfortable firm bed and a quiet environment. Location is excellent, walking distance to food and entertainment.Check around, there may be better choices in this area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r431278376-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>431278376</t>
+  </si>
+  <si>
+    <t>10/24/2016</t>
+  </si>
+  <si>
+    <t>not bad....</t>
+  </si>
+  <si>
+    <t>had to book a last minute reservation and I can't say I was disappointed I used it for sleeping and showering as I was out most of the day!  it was a centralized location to most of my travel, nearest the airport and it was within walking distance of a movie theater and mini mall with eateries.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded November 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 1, 2016</t>
+  </si>
+  <si>
+    <t>had to book a last minute reservation and I can't say I was disappointed I used it for sleeping and showering as I was out most of the day!  it was a centralized location to most of my travel, nearest the airport and it was within walking distance of a movie theater and mini mall with eateries.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r429563806-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>429563806</t>
+  </si>
+  <si>
+    <t>10/18/2016</t>
+  </si>
+  <si>
+    <t>Needs a lil tlc</t>
+  </si>
+  <si>
+    <t>The staff was super friendly - however the room just totally turned me off... the fridge was so disgusting &amp; a total eye sore. It really brought the value of the room down. It should either be replaced or thoroughly bleached &amp; cleaned (:</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r413255306-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>413255306</t>
+  </si>
+  <si>
+    <t>08/31/2016</t>
+  </si>
+  <si>
+    <t>Its been a while since I've stayed here but........</t>
+  </si>
+  <si>
+    <t>It's been a while since I've stayed here, long before the parking fees (which I can't believe they have the nerve to charge) but definitely a stay I will NEVER forget. The room was filthy! There were bitten finger nails on the night stand (yeah I know, gross huh?), extremely nosy like someone was partying above. The staff had complete attitudes because we demanded a new room. That was like pulling teeth ugh. I have never been back and never will. You are better off staying at the El Segundo location if you must. That was just a tad bit better and I mean a wee tad bit.</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r405168984-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>405168984</t>
+  </si>
+  <si>
+    <t>08/14/2016</t>
+  </si>
+  <si>
+    <t>Acceptable...but expensive (and note parking fee!)</t>
+  </si>
+  <si>
+    <t>Given LA traffic we decided to stay at an airport hotel to facilitate check-in. Others likely had similar ideas and lots of nearby hotels we checked were fully booked. Nothing exceptional about this place: "functional - and expensive" for what is provided best describes this experience. Breakfast consists of (just a) coffee and a muffin. The parking fee is ($15 a night we were told) is outrageous.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r391741955-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>391741955</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Parking Fee, What the Heck for.</t>
+  </si>
+  <si>
+    <t>I just can't believe this Extended Stay America wanted a $50 a night parking fee.  Parking should come with your stay.  This outraged me.  Don't pay the fee, get upset and let them know about it.  They finally did waive the fee for us.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 26, 2016</t>
+  </si>
+  <si>
+    <t>I just can't believe this Extended Stay America wanted a $50 a night parking fee.  Parking should come with your stay.  This outraged me.  Don't pay the fee, get upset and let them know about it.  They finally did waive the fee for us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r364848586-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>364848586</t>
+  </si>
+  <si>
+    <t>04/17/2016</t>
+  </si>
+  <si>
+    <t>Great value for the money</t>
+  </si>
+  <si>
+    <t>Great hotel with a Ralph's, restaurants and shopping within a minute of the easy to find location. Parking was plentiful and the room was as expected. Julie was a very friendly clerk on check in. The only negative was the "grab and go breakfast" which was really just packaged muffins and granola bars plus a couple of oranges.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 27, 2016</t>
+  </si>
+  <si>
+    <t>Great hotel with a Ralph's, restaurants and shopping within a minute of the easy to find location. Parking was plentiful and the room was as expected. Julie was a very friendly clerk on check in. The only negative was the "grab and go breakfast" which was really just packaged muffins and granola bars plus a couple of oranges.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r352160004-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>352160004</t>
+  </si>
+  <si>
+    <t>03/01/2016</t>
+  </si>
+  <si>
+    <t>Great !!!</t>
+  </si>
+  <si>
+    <t>Had a weekend recharge here. Very  clean,  friendly staff , and comfortable. Excellent value for the price, accommodations , wonderful all - around.A nice view in Culver city. I provided most of my own things, as I was well prepared for my weekend getaway.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 8, 2016</t>
+  </si>
+  <si>
+    <t>Had a weekend recharge here. Very  clean,  friendly staff , and comfortable. Excellent value for the price, accommodations , wonderful all - around.A nice view in Culver city. I provided most of my own things, as I was well prepared for my weekend getaway.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r350626979-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>350626979</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>No complaints</t>
+  </si>
+  <si>
+    <t>I was on a budget and booked through Priceline for 3 nights (Sept. 25 till Sept 28). I am still here at the hotel while writing this review.  I must say that I am very happy with my room wth a small kitchen, and its cleanliness.  It is surprisingly quiet too.The staff provides excellent customer service.  Very polite, prompt, and always there to provide me with anything I need for my room. The location is tops. Access to bus lines and surrounded by malls and restaurants. The only thing they can improve on is the quality of the pillows. Wish they were larger and fluffier.  Breakfast just consists of snacks but I have no complains.  Orherwise this well managed hotel is a good deal.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>I was on a budget and booked through Priceline for 3 nights (Sept. 25 till Sept 28). I am still here at the hotel while writing this review.  I must say that I am very happy with my room wth a small kitchen, and its cleanliness.  It is surprisingly quiet too.The staff provides excellent customer service.  Very polite, prompt, and always there to provide me with anything I need for my room. The location is tops. Access to bus lines and surrounded by malls and restaurants. The only thing they can improve on is the quality of the pillows. Wish they were larger and fluffier.  Breakfast just consists of snacks but I have no complains.  Orherwise this well managed hotel is a good deal.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r337299665-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>337299665</t>
+  </si>
+  <si>
+    <t>01/04/2016</t>
+  </si>
+  <si>
+    <t>Good, clean and near dining/simple entertainment options.</t>
+  </si>
+  <si>
+    <t>The room was clean and in decent working order. The bathroom door did not close or lock, but it was not a major problem for us. The bed was ok, but not something to complain too much about. most importantly i felt safe and our automobile was secure. Other than that I would stay there again if needed. Would like a better breakfast with coffee.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded January 11, 2016</t>
+  </si>
+  <si>
+    <t>Responded January 11, 2016</t>
+  </si>
+  <si>
+    <t>The room was clean and in decent working order. The bathroom door did not close or lock, but it was not a major problem for us. The bed was ok, but not something to complain too much about. most importantly i felt safe and our automobile was secure. Other than that I would stay there again if needed. Would like a better breakfast with coffee.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r315186585-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>315186585</t>
+  </si>
+  <si>
+    <t>09/30/2015</t>
+  </si>
+  <si>
+    <t>Economy and Convenience</t>
+  </si>
+  <si>
+    <t>If you take a look at my last few reviews you will see that I have recently stayed at a few ESA in the Los Angeles area. The two reasons I continue to stay at ESA's is listed in the title: Economy and Convenience.
+This was not unlike the others we stayed at, except for the poor maintenance of the facility when compared to the other ESA we have stayed at.
+I like to start positive so as far as location is concerned this ESA is very easy to get to from the 405 freeway and relatively close to LAX and Westside LA as well as Santa Monica. If you are visiting and have a car, all that is on the westside of Los Angeles is close by.
+Dinah's diner is literally next to this ESA. This is a great spot to get home style comfort food in Los Angeles along with their specialty: Fried Chicken:)
+The staff that greeted us and checked us in and out were very helpful and accommodated our much needed coffee request. Thank you Reyna for your positive attitude and helpfulness!
+After the good must come the bad :(
+We stayed on the third floor: room 336 which is on the far east end of the third floor, closest to Sepulveda Blvd and the stairway.
+Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were...If you take a look at my last few reviews you will see that I have recently stayed at a few ESA in the Los Angeles area. The two reasons I continue to stay at ESA's is listed in the title: Economy and Convenience.This was not unlike the others we stayed at, except for the poor maintenance of the facility when compared to the other ESA we have stayed at.I like to start positive so as far as location is concerned this ESA is very easy to get to from the 405 freeway and relatively close to LAX and Westside LA as well as Santa Monica. If you are visiting and have a car, all that is on the westside of Los Angeles is close by.Dinah's diner is literally next to this ESA. This is a great spot to get home style comfort food in Los Angeles along with their specialty: Fried Chicken:)The staff that greeted us and checked us in and out were very helpful and accommodated our much needed coffee request. Thank you Reyna for your positive attitude and helpfulness!After the good must come the bad :(We stayed on the third floor: room 336 which is on the far east end of the third floor, closest to Sepulveda Blvd and the stairway.Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were broken. Not a good feeling if an emergency were to occur.In the room (336) the following items caught my eye as maintenance issues with the room:1. the tub constantly dripped: terrible, considering the CA drought that has been going on for 4 years now2. the sink stopper in the bathroom sink was missing: do not drop anything in the sink, you might not get it back3. one of the windows does not close: for perspective I am 6-1 240 pounds and consider myself stronger than the average guy. I struggled to close the window I was able to close and was unable to close the second one. I may not be doing something right but if so the cleaning people were also unable to close the window since it was open when we got in the room and I doubt they would knowingly leave the window open with the A/C running full blast.4. the fridge doors are on backwards: extremely inconvenient considering the tight space in the room, and a relative quick fix.5. the bed is extremely hard and uncomfortable: compared to our other recent stays at ESA brand this room had a bed that made it difficult for me to sleep.I would hope that others do not have the similar misfortune of getting a room with as many issues as we had. Compared to other ESA's this one was very disappointing but still the most economic choice given the location. However, for the poor experience I do believe it was overpriced even with the 20% discount.MoreShow less</t>
+  </si>
+  <si>
+    <t>If you take a look at my last few reviews you will see that I have recently stayed at a few ESA in the Los Angeles area. The two reasons I continue to stay at ESA's is listed in the title: Economy and Convenience.
+This was not unlike the others we stayed at, except for the poor maintenance of the facility when compared to the other ESA we have stayed at.
+I like to start positive so as far as location is concerned this ESA is very easy to get to from the 405 freeway and relatively close to LAX and Westside LA as well as Santa Monica. If you are visiting and have a car, all that is on the westside of Los Angeles is close by.
+Dinah's diner is literally next to this ESA. This is a great spot to get home style comfort food in Los Angeles along with their specialty: Fried Chicken:)
+The staff that greeted us and checked us in and out were very helpful and accommodated our much needed coffee request. Thank you Reyna for your positive attitude and helpfulness!
+After the good must come the bad :(
+We stayed on the third floor: room 336 which is on the far east end of the third floor, closest to Sepulveda Blvd and the stairway.
+Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were...If you take a look at my last few reviews you will see that I have recently stayed at a few ESA in the Los Angeles area. The two reasons I continue to stay at ESA's is listed in the title: Economy and Convenience.This was not unlike the others we stayed at, except for the poor maintenance of the facility when compared to the other ESA we have stayed at.I like to start positive so as far as location is concerned this ESA is very easy to get to from the 405 freeway and relatively close to LAX and Westside LA as well as Santa Monica. If you are visiting and have a car, all that is on the westside of Los Angeles is close by.Dinah's diner is literally next to this ESA. This is a great spot to get home style comfort food in Los Angeles along with their specialty: Fried Chicken:)The staff that greeted us and checked us in and out were very helpful and accommodated our much needed coffee request. Thank you Reyna for your positive attitude and helpfulness!After the good must come the bad :(We stayed on the third floor: room 336 which is on the far east end of the third floor, closest to Sepulveda Blvd and the stairway.Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were broken. Not a good feeling if an emergency were to occur.In the room (336) the following items caught my eye as maintenance issues with the room:1. the tub constantly dripped: terrible, considering the CA drought that has been going on for 4 years now2. the sink stopper in the bathroom sink was missing: do not drop anything in the sink, you might not get it back3. one of the windows does not close: for perspective I am 6-1 240 pounds and consider myself stronger than the average guy. I struggled to close the window I was able to close and was unable to close the second one. I may not be doing something right but if so the cleaning people were also unable to close the window since it was open when we got in the room and I doubt they would knowingly leave the window open with the A/C running full blast.4. the fridge doors are on backwards: extremely inconvenient considering the tight space in the room, and a relative quick fix.5. the bed is extremely hard and uncomfortable: compared to our other recent stays at ESA brand this room had a bed that made it difficult for me to sleep.I would hope that others do not have the similar misfortune of getting a room with as many issues as we had. Compared to other ESA's this one was very disappointing but still the most economic choice given the location. However, for the poor experience I do believe it was overpriced even with the 20% discount.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r300932316-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>300932316</t>
+  </si>
+  <si>
+    <t>08/18/2015</t>
+  </si>
+  <si>
+    <t>Wasn't my first choice</t>
+  </si>
+  <si>
+    <t>I stayed here for a business conference. The conference hotel sold out if rooms and this was the closet available hotel. The staff that I interacted with was friendly, however there were long periods of time where there was no one at the front desk. This required several trips to the front desk for towels. The room needed a bit of maintenance...graffiti scratched into the brass lamp plate, broken shelf in the closet. It seemed fairly clean. The "grab &amp; go" breakfast was frequently cleaned out by 0745 and there was one morning the coffee wasn't out by 0730. There is no gym or pool in this hotel, if you are wanting that. I did use the laundry facilities, which were fine.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 3, 2015</t>
+  </si>
+  <si>
+    <t>I stayed here for a business conference. The conference hotel sold out if rooms and this was the closet available hotel. The staff that I interacted with was friendly, however there were long periods of time where there was no one at the front desk. This required several trips to the front desk for towels. The room needed a bit of maintenance...graffiti scratched into the brass lamp plate, broken shelf in the closet. It seemed fairly clean. The "grab &amp; go" breakfast was frequently cleaned out by 0745 and there was one morning the coffee wasn't out by 0730. There is no gym or pool in this hotel, if you are wanting that. I did use the laundry facilities, which were fine.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r273959424-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>273959424</t>
+  </si>
+  <si>
+    <t>05/23/2015</t>
+  </si>
+  <si>
+    <t>BED BUGS</t>
+  </si>
+  <si>
+    <t>This is filthy hotel I had bed bugs sleeping with me.Never stay in this place again...The manager was nice about it of course. I was given a free night stay to return to bed bug hotelNo thanks.THE 1st room I had smelled like smoke and had a stich really bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2015</t>
+  </si>
+  <si>
+    <t>This is filthy hotel I had bed bugs sleeping with me.Never stay in this place again...The manager was nice about it of course. I was given a free night stay to return to bed bug hotelNo thanks.THE 1st room I had smelled like smoke and had a stich really bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r273378333-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>273378333</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Business Trip for Doggie Central</t>
+  </si>
+  <si>
+    <t>Very disappointed in this Extended Stay.  The rooms looked and smelled like an institution such as a hospital. Upon entering, I thought someone had been smoking in the room only to learn that it was coming from outside.  They keep a bench for smokers right outside the back door with an ashtray filled with stale, stinking butts. Not sure about front of the building rooms but don't stay in the back if you like clean smelling air. The staff were very helpful and friendly. The value for what you got was very bad.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2015</t>
+  </si>
+  <si>
+    <t>Very disappointed in this Extended Stay.  The rooms looked and smelled like an institution such as a hospital. Upon entering, I thought someone had been smoking in the room only to learn that it was coming from outside.  They keep a bench for smokers right outside the back door with an ashtray filled with stale, stinking butts. Not sure about front of the building rooms but don't stay in the back if you like clean smelling air. The staff were very helpful and friendly. The value for what you got was very bad.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r255890762-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>255890762</t>
+  </si>
+  <si>
+    <t>02/22/2015</t>
+  </si>
+  <si>
+    <t>Free Parking...</t>
+  </si>
+  <si>
+    <t>Check-in was easy and the people were friendly. I personally don't care for Extended Stays because of people hanging out and living there long term. I was only there because I had a free voucher for 1 night and was traveling with my children. It did appear to be in a safe area near shopping and higher education schools; I had no problems. The room was clean but wouldn't have wanted to stay longer than I did. It's a good spot if you don't have other choices.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 16, 2015</t>
+  </si>
+  <si>
+    <t>Check-in was easy and the people were friendly. I personally don't care for Extended Stays because of people hanging out and living there long term. I was only there because I had a free voucher for 1 night and was traveling with my children. It did appear to be in a safe area near shopping and higher education schools; I had no problems. The room was clean but wouldn't have wanted to stay longer than I did. It's a good spot if you don't have other choices.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r231853617-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>231853617</t>
+  </si>
+  <si>
+    <t>09/30/2014</t>
+  </si>
+  <si>
+    <t>Good Deal</t>
+  </si>
+  <si>
+    <t>Got a good rate thru Priceline. Stayed for 3 nights.  Room was comfortable and surprisingly quiet.  Has a small kitchen.  Staff was polite and always able to provide items that I needed.  And the best thing about this place is its location.  Near bus lines, malls, and restaurants.</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r226638272-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>226638272</t>
+  </si>
+  <si>
+    <t>09/03/2014</t>
+  </si>
+  <si>
+    <t>Near to office</t>
+  </si>
+  <si>
+    <t>The hotel is peaceful and properly is located in almost a isolated area. The only saving point is that office is nearer and also, the westfield mall is at walking distance.The breakfast was not up to mark. Room was neat and clean. Internet and TV services were good.Kitchen was good but fire alarm did not allow me to cook anything Indian. :)Staff was helpful. It is not advisable to walk alone outside.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2014</t>
+  </si>
+  <si>
+    <t>The hotel is peaceful and properly is located in almost a isolated area. The only saving point is that office is nearer and also, the westfield mall is at walking distance.The breakfast was not up to mark. Room was neat and clean. Internet and TV services were good.Kitchen was good but fire alarm did not allow me to cook anything Indian. :)Staff was helpful. It is not advisable to walk alone outside.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r220504205-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>220504205</t>
+  </si>
+  <si>
+    <t>08/08/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The quality is what we pay for!! Room is okay, bathroom is clean. The table and chairs are for two even though the room is for four!!!Coffee, cereals, muffins and fruits are provided freely for a simple breakfast and that is fine. Important mall close to the hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r208747321-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>208747321</t>
+  </si>
+  <si>
+    <t>06/03/2014</t>
+  </si>
+  <si>
+    <t>Thanks to Michelle</t>
+  </si>
+  <si>
+    <t>My overall stay was good, but the nice young lady at the front desk made it even better. She was so accommodating and always willing to help with what i needed. Thanks Michelle! Would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r185193917-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>185193917</t>
+  </si>
+  <si>
+    <t>11/19/2013</t>
+  </si>
+  <si>
+    <t>If only they could get rid of the smell...</t>
+  </si>
+  <si>
+    <t>First, let me say that this property appears to be very clean..no dust or dirt visible.  That being said, since guests can cook in their rooms the management must clean the curtains on the windows and the closet as the grease smell in the room is overpowering despite many attempts even with febreeze to rid my room of old cooking smell. Also, the trash rooms are overflowing with guest's trash (why add any additional smell to the rooms??) and not very welcoming as one has to toss trash onto mounds already there and waiting for pick up. The hallways also carry an old cooking odor and need carpet cleaning perhaps.  If these issues were addressed it would be a top notch extended stay. Staff are helpful and friendly. I am not looking forward to another three nights in my room as I feel like I am in a dirty short order kitchen.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded November 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded November 21, 2013</t>
+  </si>
+  <si>
+    <t>First, let me say that this property appears to be very clean..no dust or dirt visible.  That being said, since guests can cook in their rooms the management must clean the curtains on the windows and the closet as the grease smell in the room is overpowering despite many attempts even with febreeze to rid my room of old cooking smell. Also, the trash rooms are overflowing with guest's trash (why add any additional smell to the rooms??) and not very welcoming as one has to toss trash onto mounds already there and waiting for pick up. The hallways also carry an old cooking odor and need carpet cleaning perhaps.  If these issues were addressed it would be a top notch extended stay. Staff are helpful and friendly. I am not looking forward to another three nights in my room as I feel like I am in a dirty short order kitchen.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r184438510-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>184438510</t>
+  </si>
+  <si>
+    <t>11/11/2013</t>
+  </si>
+  <si>
+    <t>OK for 1 night</t>
+  </si>
+  <si>
+    <t>I booked this hotel via Hotwire for my father so I only knew after the booking what it was. The location is good, easy access to the freeway, nice mall close by. The "free" breakfast is a grab and go style breakfast, which was a total joke. That is not breakfast. We ended up going to a diner close by for breakfast. The room was OK, had a strange smell to it, and the nextdoor neighbors were really noisy so we asked to move to a different room. The staff was very nice!Generally, it is a very sketchy hotel. I was actually scared of leaving my dad there alone, do to the "interesting" by-passers that were hanging around the hotel. Something is very off there. I would not recommend this hotel for more than 1 night really.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel via Hotwire for my father so I only knew after the booking what it was. The location is good, easy access to the freeway, nice mall close by. The "free" breakfast is a grab and go style breakfast, which was a total joke. That is not breakfast. We ended up going to a diner close by for breakfast. The room was OK, had a strange smell to it, and the nextdoor neighbors were really noisy so we asked to move to a different room. The staff was very nice!Generally, it is a very sketchy hotel. I was actually scared of leaving my dad there alone, do to the "interesting" by-passers that were hanging around the hotel. Something is very off there. I would not recommend this hotel for more than 1 night really.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r176183162-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>176183162</t>
+  </si>
+  <si>
+    <t>09/07/2013</t>
+  </si>
+  <si>
+    <t>Thumbs down.</t>
+  </si>
+  <si>
+    <t>I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of...I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of the factors in my search for hotels. Now I will have to go out to eat another meal. Oh, and for being "booked" the only other people I saw downstairs were the 2 women who checked in before me. They too were complaining about the stinky room and wheres the coffee?MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 10, 2013</t>
+  </si>
+  <si>
+    <t>I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of...I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of the factors in my search for hotels. Now I will have to go out to eat another meal. Oh, and for being "booked" the only other people I saw downstairs were the 2 women who checked in before me. They too were complaining about the stinky room and wheres the coffee?More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r174827232-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174827232</t>
+  </si>
+  <si>
+    <t>08/30/2013</t>
+  </si>
+  <si>
+    <t>PLEASANT STAY NEAR LAX</t>
+  </si>
+  <si>
+    <t>Last winter during the end-of-year holiday week between 12/26 and 1/1, my wife and I stayed at the Extended Stay America near LAX.  Initially we were put off by the strongly scented cleaning supplies used in the lobby, as we use unscented products at home due to allergies.  However, the aromas were not detectable in the room.  The staff were very helpful.  The room was adequate, though basic.  Soundproofing was good.  A few times we saw cars that seemed to be inhabited by homeless people in the parking lot and reported the situation to the hotel staff.  On one occasion, we saw a police car parked directly at the entrance.  When we inquired why the car was there, it was explained that sometimes the police had to stop by to investigate and used that space.  There were some cooking aromas in the hallways.  We found a Trader Joe's nearby, where we were able to get provisions that we enjoyed at home from the same source.  As we were in LA primarily to visit family, we found the location to be very convenient--about 5 minutes from one relative and 10 to 15 minutes from another.  On our last night, we saw Lincoln in the Howard Hughes Shopping center after a pleasant dinner if Thai food.  We were delighted to be 5 to 10 minutes from LAX, making our departure very easy.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Last winter during the end-of-year holiday week between 12/26 and 1/1, my wife and I stayed at the Extended Stay America near LAX.  Initially we were put off by the strongly scented cleaning supplies used in the lobby, as we use unscented products at home due to allergies.  However, the aromas were not detectable in the room.  The staff were very helpful.  The room was adequate, though basic.  Soundproofing was good.  A few times we saw cars that seemed to be inhabited by homeless people in the parking lot and reported the situation to the hotel staff.  On one occasion, we saw a police car parked directly at the entrance.  When we inquired why the car was there, it was explained that sometimes the police had to stop by to investigate and used that space.  There were some cooking aromas in the hallways.  We found a Trader Joe's nearby, where we were able to get provisions that we enjoyed at home from the same source.  As we were in LA primarily to visit family, we found the location to be very convenient--about 5 minutes from one relative and 10 to 15 minutes from another.  On our last night, we saw Lincoln in the Howard Hughes Shopping center after a pleasant dinner if Thai food.  We were delighted to be 5 to 10 minutes from LAX, making our departure very easy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r174240282-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>174240282</t>
+  </si>
+  <si>
+    <t>08/26/2013</t>
+  </si>
+  <si>
+    <t>Reasonably clean - and it has a "kitchen"</t>
+  </si>
+  <si>
+    <t>Hotels with kitchens in the rooms tend to be a little stinky. (WHAT are they cooking in there?!) Don't expect amenities like shampoo and maid service is only once a week for stays over a few days. This particular Extended Stay is in the middle of no where, but 10 minutes from the airport. I think people on housing subsidies live here.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>Hotels with kitchens in the rooms tend to be a little stinky. (WHAT are they cooking in there?!) Don't expect amenities like shampoo and maid service is only once a week for stays over a few days. This particular Extended Stay is in the middle of no where, but 10 minutes from the airport. I think people on housing subsidies live here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r165571982-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>165571982</t>
+  </si>
+  <si>
+    <t>06/28/2013</t>
+  </si>
+  <si>
+    <t>Nice stay at LAX</t>
+  </si>
+  <si>
+    <t>This is a very good hotel to stay at if you're in town for more than a few days. The rooms have a full kitchen that includes a large refrigerator. I was able to save money by cooking breakfast in my room every morning. Exchanging dirty towels was a very easy process. If I return to the LA area I would definitely stay here again. A tip: if you need to turn left out of the parking lot, it is easier to go right and make a U-Turn at the light.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>This is a very good hotel to stay at if you're in town for more than a few days. The rooms have a full kitchen that includes a large refrigerator. I was able to save money by cooking breakfast in my room every morning. Exchanging dirty towels was a very easy process. If I return to the LA area I would definitely stay here again. A tip: if you need to turn left out of the parking lot, it is easier to go right and make a U-Turn at the light.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r162982768-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>162982768</t>
+  </si>
+  <si>
+    <t>06/04/2013</t>
+  </si>
+  <si>
+    <t>Good value for price with friendly staff</t>
+  </si>
+  <si>
+    <t>Very nice, helpful, friendly staff.  Stayed on top floor of hotel.  Top floor was a newly renovated studio with kitchenette and full refrigerator, and very nice.  Room a new leather reclining arm chair with foot rest, 2 desks with mesh back chairs, and a 32 inch LG flat screen TV.  I requested the top floor away from traffic -which increased the room price by $5 per night, but was well worth it.  I never heard the people in the rooms next to and adjacent to my room, which was a big plus, nor did I really hear any noise from the parking lot.  I ate almost all my meals at the hotel, and the Take &amp; Go breakfast of an orange (or apple), cinnamon granola bar, muffin, oatemal and coffee was a pretty good deal.  Staying a 7th day gave me the weekly rate which made it cheaper than staying 6 days at the regular rate.  The quality of the room, halls, lobby, and building was a great value.  There was even a rolling pull cart which you can use to load up your things from your car or room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2013</t>
+  </si>
+  <si>
+    <t>Very nice, helpful, friendly staff.  Stayed on top floor of hotel.  Top floor was a newly renovated studio with kitchenette and full refrigerator, and very nice.  Room a new leather reclining arm chair with foot rest, 2 desks with mesh back chairs, and a 32 inch LG flat screen TV.  I requested the top floor away from traffic -which increased the room price by $5 per night, but was well worth it.  I never heard the people in the rooms next to and adjacent to my room, which was a big plus, nor did I really hear any noise from the parking lot.  I ate almost all my meals at the hotel, and the Take &amp; Go breakfast of an orange (or apple), cinnamon granola bar, muffin, oatemal and coffee was a pretty good deal.  Staying a 7th day gave me the weekly rate which made it cheaper than staying 6 days at the regular rate.  The quality of the room, halls, lobby, and building was a great value.  There was even a rolling pull cart which you can use to load up your things from your car or room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r157370809-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157370809</t>
+  </si>
+  <si>
+    <t>04/10/2013</t>
+  </si>
+  <si>
+    <t>Great location and great service</t>
+  </si>
+  <si>
+    <t>I have stayed here twice because i have a conference in the area twice a year for work.  The hotel is clean and the rooms are comfortable.  The staff is friendly and helpful.  They always try to go the extra mile for me and my co workers, so i have no complaints in that department.  Its an inexpensive place to stay and we were near the airport, the beaches, some malls and many places to eat.  The rooms do need to be updated a little but they were clean and neat and spacious and we just needed a place to sleep because most of the time we were in our conference or out sightseeing.  Overall it was a very pleasant experience. I would come back. Now if they had a pool that would be even better but the beach isnt too far.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 12, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2013</t>
+  </si>
+  <si>
+    <t>I have stayed here twice because i have a conference in the area twice a year for work.  The hotel is clean and the rooms are comfortable.  The staff is friendly and helpful.  They always try to go the extra mile for me and my co workers, so i have no complaints in that department.  Its an inexpensive place to stay and we were near the airport, the beaches, some malls and many places to eat.  The rooms do need to be updated a little but they were clean and neat and spacious and we just needed a place to sleep because most of the time we were in our conference or out sightseeing.  Overall it was a very pleasant experience. I would come back. Now if they had a pool that would be even better but the beach isnt too far.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r156881929-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156881929</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>worst lighting of any hotel room</t>
+  </si>
+  <si>
+    <t>Daytime not bad window lighting, but awful out-dated cheap knock-off of knock-off lamps with harsh fluorescent bulbs with a green-yellow tinge. No shampoo or lotion, just bar soaps. A faint urine odor persisted near the bed, but couldn't locate it exactly. Windows were very tight and stiff and required a Herculean effort to open. Staff were all nice and friendly. At night, I had to arrange the blackout curtains perfectly so that the screechy self-storage security street lights next door didn't wake me up all night. Even then, there were at least 3 or 4 gadgets like smoke detectors and such that had little bright indicator lights that glowed through the night - they could have been placed better. Bathtub faucet dripped. Water filter on the kitchen tap was a nice touch though. Utensil drawer was scary and unevenly stocked. No closet, just a corner area with the cheapest possible wire rack with 3 (three) hangers on it! Also, many hotels should stop using the magnetic cards with the Pizza Hut ad on them, because I always think that the pointy red hat indicates the direction of the card placement on the door lock!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2013</t>
+  </si>
+  <si>
+    <t>Daytime not bad window lighting, but awful out-dated cheap knock-off of knock-off lamps with harsh fluorescent bulbs with a green-yellow tinge. No shampoo or lotion, just bar soaps. A faint urine odor persisted near the bed, but couldn't locate it exactly. Windows were very tight and stiff and required a Herculean effort to open. Staff were all nice and friendly. At night, I had to arrange the blackout curtains perfectly so that the screechy self-storage security street lights next door didn't wake me up all night. Even then, there were at least 3 or 4 gadgets like smoke detectors and such that had little bright indicator lights that glowed through the night - they could have been placed better. Bathtub faucet dripped. Water filter on the kitchen tap was a nice touch though. Utensil drawer was scary and unevenly stocked. No closet, just a corner area with the cheapest possible wire rack with 3 (three) hangers on it! Also, many hotels should stop using the magnetic cards with the Pizza Hut ad on them, because I always think that the pointy red hat indicates the direction of the card placement on the door lock!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r156159290-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>156159290</t>
+  </si>
+  <si>
+    <t>03/31/2013</t>
+  </si>
+  <si>
+    <t>Great for the Price</t>
+  </si>
+  <si>
+    <t>I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not...I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not go over $90 per night.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 3, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 3, 2013</t>
+  </si>
+  <si>
+    <t>I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not...I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not go over $90 per night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r155111104-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>155111104</t>
+  </si>
+  <si>
+    <t>03/19/2013</t>
+  </si>
+  <si>
+    <t>No frills? Give me a break.</t>
+  </si>
+  <si>
+    <t>As one very unhelpful lady at the front desk said, " Uh, sorry, this is a no-frills Extended Stay." She wasn't kidding. This place is not only no frills amenities-wise. The staff has quite the no-frills, hands-off attitude as well. 
+Upon arrival, the lobby smelled due to the adjacent trash room. The staff was very rude too. I wasn't greeted or even acknowledged when I walked up to the front desk. I arrived at 4:00, one hour after check-in begins, yet I had to wait 40 minutes while my room was being cleaned up. It's true this hotel is inexpensive compared to some other hotels in the area, but it's still costly enough where customers shouldn't be made to waste the time they are paying for.
+At one point, I asked the same unhelpful lady if there was any herbal tea available. She said she might have one in her purse but otherwise no--a strange and unprofessional response. The next morning, guess what, there was tea downstairs. 
+Customer service is in the details and the staff here obviously doesn't understand that. If you are looking for a reasonably priced room with a full-sized kitchen, this is an adequate option. Be prepared when you get here though. You might start to miss those "frills" pretty quick, like, oh I don't know, eye contact from the staff. If you want good service, you'll have to pay for it elsewhere.
+One more thing:...As one very unhelpful lady at the front desk said, " Uh, sorry, this is a no-frills Extended Stay." She wasn't kidding. This place is not only no frills amenities-wise. The staff has quite the no-frills, hands-off attitude as well. Upon arrival, the lobby smelled due to the adjacent trash room. The staff was very rude too. I wasn't greeted or even acknowledged when I walked up to the front desk. I arrived at 4:00, one hour after check-in begins, yet I had to wait 40 minutes while my room was being cleaned up. It's true this hotel is inexpensive compared to some other hotels in the area, but it's still costly enough where customers shouldn't be made to waste the time they are paying for.At one point, I asked the same unhelpful lady if there was any herbal tea available. She said she might have one in her purse but otherwise no--a strange and unprofessional response. The next morning, guess what, there was tea downstairs. Customer service is in the details and the staff here obviously doesn't understand that. If you are looking for a reasonably priced room with a full-sized kitchen, this is an adequate option. Be prepared when you get here though. You might start to miss those "frills" pretty quick, like, oh I don't know, eye contact from the staff. If you want good service, you'll have to pay for it elsewhere.One more thing: the facility is a bit old and I found an odd stain beneath my coffee maker.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded March 21, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2013</t>
+  </si>
+  <si>
+    <t>As one very unhelpful lady at the front desk said, " Uh, sorry, this is a no-frills Extended Stay." She wasn't kidding. This place is not only no frills amenities-wise. The staff has quite the no-frills, hands-off attitude as well. 
+Upon arrival, the lobby smelled due to the adjacent trash room. The staff was very rude too. I wasn't greeted or even acknowledged when I walked up to the front desk. I arrived at 4:00, one hour after check-in begins, yet I had to wait 40 minutes while my room was being cleaned up. It's true this hotel is inexpensive compared to some other hotels in the area, but it's still costly enough where customers shouldn't be made to waste the time they are paying for.
+At one point, I asked the same unhelpful lady if there was any herbal tea available. She said she might have one in her purse but otherwise no--a strange and unprofessional response. The next morning, guess what, there was tea downstairs. 
+Customer service is in the details and the staff here obviously doesn't understand that. If you are looking for a reasonably priced room with a full-sized kitchen, this is an adequate option. Be prepared when you get here though. You might start to miss those "frills" pretty quick, like, oh I don't know, eye contact from the staff. If you want good service, you'll have to pay for it elsewhere.
+One more thing:...As one very unhelpful lady at the front desk said, " Uh, sorry, this is a no-frills Extended Stay." She wasn't kidding. This place is not only no frills amenities-wise. The staff has quite the no-frills, hands-off attitude as well. Upon arrival, the lobby smelled due to the adjacent trash room. The staff was very rude too. I wasn't greeted or even acknowledged when I walked up to the front desk. I arrived at 4:00, one hour after check-in begins, yet I had to wait 40 minutes while my room was being cleaned up. It's true this hotel is inexpensive compared to some other hotels in the area, but it's still costly enough where customers shouldn't be made to waste the time they are paying for.At one point, I asked the same unhelpful lady if there was any herbal tea available. She said she might have one in her purse but otherwise no--a strange and unprofessional response. The next morning, guess what, there was tea downstairs. Customer service is in the details and the staff here obviously doesn't understand that. If you are looking for a reasonably priced room with a full-sized kitchen, this is an adequate option. Be prepared when you get here though. You might start to miss those "frills" pretty quick, like, oh I don't know, eye contact from the staff. If you want good service, you'll have to pay for it elsewhere.One more thing: the facility is a bit old and I found an odd stain beneath my coffee maker.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r149846163-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>149846163</t>
+  </si>
+  <si>
+    <t>01/16/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay</t>
+  </si>
+  <si>
+    <t>hotel was clean, newly remolded and a great staff.  Only about 10 minutes from the air port and close to two shopping malls Westfield Culver City and Howard Hughes. Both malls have  great restaurant 5 minutes away.   They have a grab n go breakfast with coffee, oat meal, granola bars, muffins and fruit. They have a diner next door, we had a good meal and just walked next door. Free parking  I will definitely make this my regular hotel for business or vacation when in the LA area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded January 18, 2013</t>
+  </si>
+  <si>
+    <t>Responded January 18, 2013</t>
+  </si>
+  <si>
+    <t>hotel was clean, newly remolded and a great staff.  Only about 10 minutes from the air port and close to two shopping malls Westfield Culver City and Howard Hughes. Both malls have  great restaurant 5 minutes away.   They have a grab n go breakfast with coffee, oat meal, granola bars, muffins and fruit. They have a diner next door, we had a good meal and just walked next door. Free parking  I will definitely make this my regular hotel for business or vacation when in the LA area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r147168956-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>147168956</t>
+  </si>
+  <si>
+    <t>12/10/2012</t>
+  </si>
+  <si>
+    <t>back for more, will be back when in L.A.</t>
+  </si>
+  <si>
+    <t>I have reviewed this hotel already once before. It was a good stay then, and a good stay this past time.
+I recently did a large project in Beverly Hills, and the hotel was far enough from work, yet close enough to work, that it was a great location. Easy freeway access, close to the marina and water, also close enough to a lot of places to eat.
+As in my previous review, I really want to commend Michelle and her staff on such excellent service. This can be a very busy hotel, and the degree of personal service is just great.
+I have read other reviews of the place and yes, the car park can get rather full, but there is always room on the rear of the property and rather easy entry there. I do agree, the 'trash' rooms can get out of hand and perhaps some type of air freshner, and a good cleaning once a week would help.
+Finally, I know the grab and go breakfast is a comp, but if someone could insure that it is out by 6am as advertised that would be great.  It does help that 7-11 is close and you can get coffee there in a rush in the morning.
+Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it...I have reviewed this hotel already once before. It was a good stay then, and a good stay this past time.I recently did a large project in Beverly Hills, and the hotel was far enough from work, yet close enough to work, that it was a great location. Easy freeway access, close to the marina and water, also close enough to a lot of places to eat.As in my previous review, I really want to commend Michelle and her staff on such excellent service. This can be a very busy hotel, and the degree of personal service is just great.I have read other reviews of the place and yes, the car park can get rather full, but there is always room on the rear of the property and rather easy entry there. I do agree, the 'trash' rooms can get out of hand and perhaps some type of air freshner, and a good cleaning once a week would help.Finally, I know the grab and go breakfast is a comp, but if someone could insure that it is out by 6am as advertised that would be great.  It does help that 7-11 is close and you can get coffee there in a rush in the morning.Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it when you come out in the morning, as well as in one piece. To have a staff that greats you warmly when you come in the lobby, as well as when you leave.With all that in mind, this is not a Hilton Resort, nor does it cost like one, and you get to park for free.  However, don't expect the same perks you would get in a 5 star resort.  If you want that, go pay for it.This is a nice property, great for a long term stay.  Between my two visits I spent almost 4 months here.  One last thing, Friday night at Dinah's next door is prime rib special for under 20.00.  Good deal if you want to fill up.MoreShow less</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded December 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded December 13, 2012</t>
+  </si>
+  <si>
+    <t>I have reviewed this hotel already once before. It was a good stay then, and a good stay this past time.
+I recently did a large project in Beverly Hills, and the hotel was far enough from work, yet close enough to work, that it was a great location. Easy freeway access, close to the marina and water, also close enough to a lot of places to eat.
+As in my previous review, I really want to commend Michelle and her staff on such excellent service. This can be a very busy hotel, and the degree of personal service is just great.
+I have read other reviews of the place and yes, the car park can get rather full, but there is always room on the rear of the property and rather easy entry there. I do agree, the 'trash' rooms can get out of hand and perhaps some type of air freshner, and a good cleaning once a week would help.
+Finally, I know the grab and go breakfast is a comp, but if someone could insure that it is out by 6am as advertised that would be great.  It does help that 7-11 is close and you can get coffee there in a rush in the morning.
+Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it...I have reviewed this hotel already once before. It was a good stay then, and a good stay this past time.I recently did a large project in Beverly Hills, and the hotel was far enough from work, yet close enough to work, that it was a great location. Easy freeway access, close to the marina and water, also close enough to a lot of places to eat.As in my previous review, I really want to commend Michelle and her staff on such excellent service. This can be a very busy hotel, and the degree of personal service is just great.I have read other reviews of the place and yes, the car park can get rather full, but there is always room on the rear of the property and rather easy entry there. I do agree, the 'trash' rooms can get out of hand and perhaps some type of air freshner, and a good cleaning once a week would help.Finally, I know the grab and go breakfast is a comp, but if someone could insure that it is out by 6am as advertised that would be great.  It does help that 7-11 is close and you can get coffee there in a rush in the morning.Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it when you come out in the morning, as well as in one piece. To have a staff that greats you warmly when you come in the lobby, as well as when you leave.With all that in mind, this is not a Hilton Resort, nor does it cost like one, and you get to park for free.  However, don't expect the same perks you would get in a 5 star resort.  If you want that, go pay for it.This is a nice property, great for a long term stay.  Between my two visits I spent almost 4 months here.  One last thing, Friday night at Dinah's next door is prime rib special for under 20.00.  Good deal if you want to fill up.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r143416503-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>143416503</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Good location, the rest is average</t>
+  </si>
+  <si>
+    <t>The best thing about this place is its location. It's very close to Westfield Culver City and Howard Hughes. It's also next to a diner. However, it's 10 minutes ride to LAX, so that does not actually make it an airport hotel.Rooms are a bit outdated, Kitchenette is a plus but I didn't use it at all. My room had a full size refrigerator which is very useful during long stays. It also has ironing facilities. Air conditioning is very loud. They clean the rooms once a week on the day you agreed upon.Parking is free and there is enough parking space, never had a problem finding one. Staff is very helpful and friendly.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 25, 2012</t>
+  </si>
+  <si>
+    <t>The best thing about this place is its location. It's very close to Westfield Culver City and Howard Hughes. It's also next to a diner. However, it's 10 minutes ride to LAX, so that does not actually make it an airport hotel.Rooms are a bit outdated, Kitchenette is a plus but I didn't use it at all. My room had a full size refrigerator which is very useful during long stays. It also has ironing facilities. Air conditioning is very loud. They clean the rooms once a week on the day you agreed upon.Parking is free and there is enough parking space, never had a problem finding one. Staff is very helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r140881680-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>140881680</t>
+  </si>
+  <si>
+    <t>09/21/2012</t>
+  </si>
+  <si>
+    <t>Satisfied Customer</t>
+  </si>
+  <si>
+    <t>My husband and I are local LA residents who stayed here a few days while we had to be out of our own house. It was a good home away from home. Clean and quiet. The extra space and the kitchen are big pluses. I brought a blender and made morning smoothies. I also brought a down comforter to replace the typical hotel bedspread, and hair products since they do not provide them. For this reasonable price, one cannot expect a five-star hotel!  The desk staff was very friendly and helpful. I recommend this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>General Manager L, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 24, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 24, 2012</t>
+  </si>
+  <si>
+    <t>My husband and I are local LA residents who stayed here a few days while we had to be out of our own house. It was a good home away from home. Clean and quiet. The extra space and the kitchen are big pluses. I brought a blender and made morning smoothies. I also brought a down comforter to replace the typical hotel bedspread, and hair products since they do not provide them. For this reasonable price, one cannot expect a five-star hotel!  The desk staff was very friendly and helpful. I recommend this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r138370440-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>138370440</t>
+  </si>
+  <si>
+    <t>08/25/2012</t>
+  </si>
+  <si>
+    <t>Best one yet</t>
+  </si>
+  <si>
+    <t>I stay at a lot of hotels in the Extended Stay brand, they are all changing their name to Extended Stay now, which I think is a good idea.  With that in mind, here we go.
+The Extended Stay America - LAX, is by far the nicest ESA I have stayed in to date.
+The staff, excellent, they understand hospitality and that is good. Housekeeping, stellar.
+Room condition, very nice and comfortable. Not the Hilton, but they don't claim to be. Great beds, bedding, linens, and bath towels.
+The room was very clean upon arrival, no problems with my reservation and very helpful. The front desk even called me within an hour of check in to see if everything was ok with my room. I have not had that happen in a hotel in over a year, not since the Sheraton San Juan and that hotel is far more expensive.
+The grab and go breakfast, a nice touch, don't expect much - but it is better than nothing.
+Had a couple of issues with my room, microwave was not working properly and the commode ran all night, both were fixed the next day. Prompt attentative service, what a concept.
+Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and...I stay at a lot of hotels in the Extended Stay brand, they are all changing their name to Extended Stay now, which I think is a good idea.  With that in mind, here we go.The Extended Stay America - LAX, is by far the nicest ESA I have stayed in to date.The staff, excellent, they understand hospitality and that is good. Housekeeping, stellar.Room condition, very nice and comfortable. Not the Hilton, but they don't claim to be. Great beds, bedding, linens, and bath towels.The room was very clean upon arrival, no problems with my reservation and very helpful. The front desk even called me within an hour of check in to see if everything was ok with my room. I have not had that happen in a hotel in over a year, not since the Sheraton San Juan and that hotel is far more expensive.The grab and go breakfast, a nice touch, don't expect much - but it is better than nothing.Had a couple of issues with my room, microwave was not working properly and the commode ran all night, both were fixed the next day. Prompt attentative service, what a concept.Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and brand attractiveness. If all of the hotels in this brand came close to this, it would be hard to find a vacancy in the chain.  Just my opinion.So as the title says, this ESA is the best one yet.I commend the staff and management for a great product. The only thing I would change here is that I could have this staff at any ESA I stay at.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded August 28, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 28, 2012</t>
+  </si>
+  <si>
+    <t>I stay at a lot of hotels in the Extended Stay brand, they are all changing their name to Extended Stay now, which I think is a good idea.  With that in mind, here we go.
+The Extended Stay America - LAX, is by far the nicest ESA I have stayed in to date.
+The staff, excellent, they understand hospitality and that is good. Housekeeping, stellar.
+Room condition, very nice and comfortable. Not the Hilton, but they don't claim to be. Great beds, bedding, linens, and bath towels.
+The room was very clean upon arrival, no problems with my reservation and very helpful. The front desk even called me within an hour of check in to see if everything was ok with my room. I have not had that happen in a hotel in over a year, not since the Sheraton San Juan and that hotel is far more expensive.
+The grab and go breakfast, a nice touch, don't expect much - but it is better than nothing.
+Had a couple of issues with my room, microwave was not working properly and the commode ran all night, both were fixed the next day. Prompt attentative service, what a concept.
+Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and...I stay at a lot of hotels in the Extended Stay brand, they are all changing their name to Extended Stay now, which I think is a good idea.  With that in mind, here we go.The Extended Stay America - LAX, is by far the nicest ESA I have stayed in to date.The staff, excellent, they understand hospitality and that is good. Housekeeping, stellar.Room condition, very nice and comfortable. Not the Hilton, but they don't claim to be. Great beds, bedding, linens, and bath towels.The room was very clean upon arrival, no problems with my reservation and very helpful. The front desk even called me within an hour of check in to see if everything was ok with my room. I have not had that happen in a hotel in over a year, not since the Sheraton San Juan and that hotel is far more expensive.The grab and go breakfast, a nice touch, don't expect much - but it is better than nothing.Had a couple of issues with my room, microwave was not working properly and the commode ran all night, both were fixed the next day. Prompt attentative service, what a concept.Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and brand attractiveness. If all of the hotels in this brand came close to this, it would be hard to find a vacancy in the chain.  Just my opinion.So as the title says, this ESA is the best one yet.I commend the staff and management for a great product. The only thing I would change here is that I could have this staff at any ESA I stay at.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r135571146-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>135571146</t>
+  </si>
+  <si>
+    <t>07/27/2012</t>
+  </si>
+  <si>
+    <t>Too busy....</t>
+  </si>
+  <si>
+    <t>I guess if we would get a better room, it would not be such a bad experience. Besides the fact that in the middle at the night a fire-alarm went on, we got the room at the end of the hallway (towards the main street) and the traffic is so loud that it is hard to fall asleep. I am not sure if it was because we got a discounted rate through www.PetsCanStay.com that we got such loud room. To sum things up, it is a good place but make sure you select your room before you get there. M.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 31, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 31, 2012</t>
+  </si>
+  <si>
+    <t>I guess if we would get a better room, it would not be such a bad experience. Besides the fact that in the middle at the night a fire-alarm went on, we got the room at the end of the hallway (towards the main street) and the traffic is so loud that it is hard to fall asleep. I am not sure if it was because we got a discounted rate through www.PetsCanStay.com that we got such loud room. To sum things up, it is a good place but make sure you select your room before you get there. M.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r131931786-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>131931786</t>
+  </si>
+  <si>
+    <t>06/13/2012</t>
+  </si>
+  <si>
+    <t>Beyond clean, great service and wonderful staff</t>
+  </si>
+  <si>
+    <t>I have stayed at some of the finest luxury hotels in the world and in fact had just spent 7 days at a Four Seasons before checking into this hotel for four days. I was impressed with the friendliness and can-do attitude of the staff as well as how spotless and fresh-smelling everything down to the trash room was at this hotel. Some guests had their pets and there was never dog poop around, unlike some other pet-friendly hotels where I've stayed. Not a speck of trash anywhere in the parking lot! As long as you read what you're getting at this hotel then you won't be disappointed. Yes, you have to make your own beds, wash your own dishes and do your own laundry but it adds to the homey feeling this hotel exudes. Comfy beds and quiet guests made for an enjoyable stay as well. I was on my computer and iPad constantly and never had a problem with the free Internet. (I didn't upgrade.) I recommend it for anyone needing a place for one night or long-term.  For the price, you can't do better in an area convenient to everything.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>General Manager L, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded August 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 1, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at some of the finest luxury hotels in the world and in fact had just spent 7 days at a Four Seasons before checking into this hotel for four days. I was impressed with the friendliness and can-do attitude of the staff as well as how spotless and fresh-smelling everything down to the trash room was at this hotel. Some guests had their pets and there was never dog poop around, unlike some other pet-friendly hotels where I've stayed. Not a speck of trash anywhere in the parking lot! As long as you read what you're getting at this hotel then you won't be disappointed. Yes, you have to make your own beds, wash your own dishes and do your own laundry but it adds to the homey feeling this hotel exudes. Comfy beds and quiet guests made for an enjoyable stay as well. I was on my computer and iPad constantly and never had a problem with the free Internet. (I didn't upgrade.) I recommend it for anyone needing a place for one night or long-term.  For the price, you can't do better in an area convenient to everything.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r130245473-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130245473</t>
+  </si>
+  <si>
+    <t>05/19/2012</t>
+  </si>
+  <si>
+    <t>Convenient Location!</t>
+  </si>
+  <si>
+    <t>I found this location very convenient to a specific shopping area I wanted to visit (Fairfax Ave) it was about 20 minutes away without having to get on the freeway. I also wanted to visit the beach (Santa Monica) which was also just 20 minutes away from the hotel. My flight back home at LAX was definately convenient also! The room itself was worth the value. At check in, I was informed that if I needed more towels, shampoo, pillows, etc that they'd be happy to get those to me. Later on in my room I requested for two extra pillows and they were delivered in about 15 minutes, which to me wasn't that bad. I had easy access in and out of the hotel and the staff was very friendly. I'd definately stay here again on my next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I found this location very convenient to a specific shopping area I wanted to visit (Fairfax Ave) it was about 20 minutes away without having to get on the freeway. I also wanted to visit the beach (Santa Monica) which was also just 20 minutes away from the hotel. My flight back home at LAX was definately convenient also! The room itself was worth the value. At check in, I was informed that if I needed more towels, shampoo, pillows, etc that they'd be happy to get those to me. Later on in my room I requested for two extra pillows and they were delivered in about 15 minutes, which to me wasn't that bad. I had easy access in and out of the hotel and the staff was very friendly. I'd definately stay here again on my next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r130107024-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>130107024</t>
+  </si>
+  <si>
+    <t>05/17/2012</t>
+  </si>
+  <si>
+    <t>"Accessible to shops, freeway</t>
+  </si>
+  <si>
+    <t>Close to airport, freeway, shops, restaurants. Staff is friendly and courteous and attentive to my needs. I would recommend it to friends and family for future stays.MoreShow less</t>
+  </si>
+  <si>
+    <t>Close to airport, freeway, shops, restaurants. Staff is friendly and courteous and attentive to my needs. I would recommend it to friends and family for future stays.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r124928959-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>124928959</t>
+  </si>
+  <si>
+    <t>02/20/2012</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>This hotel is near the Westfield shopping mall,it is clean,affordable, wifi and near the airport. Ana has great customer service skills and very pleasant. I would stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>This hotel is near the Westfield shopping mall,it is clean,affordable, wifi and near the airport. Ana has great customer service skills and very pleasant. I would stay here again!!More</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1978,3450 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>4</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
+        <v>90</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>91</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>92</v>
+      </c>
+      <c r="X6" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>96</v>
+      </c>
+      <c r="J7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" t="s">
+        <v>99</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
+        <v>100</v>
+      </c>
+      <c r="O7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>101</v>
+      </c>
+      <c r="X7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="J8" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" t="s">
+        <v>108</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
+        <v>111</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>114</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>116</v>
+      </c>
+      <c r="L9" t="s">
+        <v>117</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>118</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>119</v>
+      </c>
+      <c r="X9" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>124</v>
+      </c>
+      <c r="K10" t="s">
+        <v>125</v>
+      </c>
+      <c r="L10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>109</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>127</v>
+      </c>
+      <c r="X10" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>130</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>131</v>
+      </c>
+      <c r="J11" t="s">
+        <v>132</v>
+      </c>
+      <c r="K11" t="s">
+        <v>133</v>
+      </c>
+      <c r="L11" t="s">
+        <v>134</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>135</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>3</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>136</v>
+      </c>
+      <c r="X11" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>139</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" t="s">
+        <v>142</v>
+      </c>
+      <c r="L12" t="s">
+        <v>143</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="s">
+        <v>144</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>2</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>145</v>
+      </c>
+      <c r="X12" t="s">
+        <v>146</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>149</v>
+      </c>
+      <c r="J13" t="s">
+        <v>150</v>
+      </c>
+      <c r="K13" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" t="s">
+        <v>152</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="s">
+        <v>144</v>
+      </c>
+      <c r="O13" t="s">
+        <v>63</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="s"/>
+      <c r="S13" t="n">
+        <v>3</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>154</v>
+      </c>
+      <c r="J14" t="s">
+        <v>155</v>
+      </c>
+      <c r="K14" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>161</v>
+      </c>
+      <c r="J15" t="s">
+        <v>162</v>
+      </c>
+      <c r="K15" t="s">
+        <v>163</v>
+      </c>
+      <c r="L15" t="s">
+        <v>164</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>165</v>
+      </c>
+      <c r="O15" t="s">
+        <v>166</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>167</v>
+      </c>
+      <c r="X15" t="s">
+        <v>168</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>170</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>171</v>
+      </c>
+      <c r="J16" t="s">
+        <v>172</v>
+      </c>
+      <c r="K16" t="s">
+        <v>173</v>
+      </c>
+      <c r="L16" t="s">
+        <v>174</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>165</v>
+      </c>
+      <c r="O16" t="s">
+        <v>82</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>175</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>176</v>
+      </c>
+      <c r="J17" t="s">
+        <v>177</v>
+      </c>
+      <c r="K17" t="s">
+        <v>178</v>
+      </c>
+      <c r="L17" t="s">
+        <v>179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>1</v>
+      </c>
+      <c r="N17" t="s">
+        <v>180</v>
+      </c>
+      <c r="O17" t="s">
+        <v>91</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>1</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>182</v>
+      </c>
+      <c r="J18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" t="s">
+        <v>184</v>
+      </c>
+      <c r="L18" t="s">
+        <v>185</v>
+      </c>
+      <c r="M18" t="n">
+        <v>3</v>
+      </c>
+      <c r="N18" t="s">
+        <v>186</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="n">
+        <v>3</v>
+      </c>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>3</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>187</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>188</v>
+      </c>
+      <c r="J19" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" t="s">
+        <v>190</v>
+      </c>
+      <c r="L19" t="s">
+        <v>191</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>192</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>193</v>
+      </c>
+      <c r="X19" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>196</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>197</v>
+      </c>
+      <c r="J20" t="s">
+        <v>198</v>
+      </c>
+      <c r="K20" t="s">
+        <v>199</v>
+      </c>
+      <c r="L20" t="s">
+        <v>200</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>201</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>202</v>
+      </c>
+      <c r="X20" t="s">
+        <v>203</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>205</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>206</v>
+      </c>
+      <c r="J21" t="s">
+        <v>207</v>
+      </c>
+      <c r="K21" t="s">
+        <v>208</v>
+      </c>
+      <c r="L21" t="s">
+        <v>209</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>210</v>
+      </c>
+      <c r="O21" t="s">
+        <v>91</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="n">
+        <v>5</v>
+      </c>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>211</v>
+      </c>
+      <c r="X21" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>214</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>215</v>
+      </c>
+      <c r="J22" t="s">
+        <v>216</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+      <c r="L22" t="s">
+        <v>218</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>219</v>
+      </c>
+      <c r="O22" t="s">
+        <v>82</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s">
+        <v>220</v>
+      </c>
+      <c r="X22" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>223</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>224</v>
+      </c>
+      <c r="J23" t="s">
+        <v>225</v>
+      </c>
+      <c r="K23" t="s">
+        <v>226</v>
+      </c>
+      <c r="L23" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>228</v>
+      </c>
+      <c r="O23" t="s">
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>3</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>229</v>
+      </c>
+      <c r="X23" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s">
+        <v>234</v>
+      </c>
+      <c r="K24" t="s">
+        <v>235</v>
+      </c>
+      <c r="L24" t="s">
+        <v>236</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>166</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>238</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>239</v>
+      </c>
+      <c r="J25" t="s">
+        <v>240</v>
+      </c>
+      <c r="K25" t="s">
+        <v>241</v>
+      </c>
+      <c r="L25" t="s">
+        <v>242</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>219</v>
+      </c>
+      <c r="O25" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>243</v>
+      </c>
+      <c r="X25" t="s">
+        <v>244</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>246</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>247</v>
+      </c>
+      <c r="J26" t="s">
+        <v>248</v>
+      </c>
+      <c r="K26" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" t="s">
+        <v>250</v>
+      </c>
+      <c r="M26" t="n">
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>251</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>252</v>
+      </c>
+      <c r="X26" t="s">
+        <v>253</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>255</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>256</v>
+      </c>
+      <c r="J27" t="s">
+        <v>257</v>
+      </c>
+      <c r="K27" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" t="s">
+        <v>259</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s">
+        <v>251</v>
+      </c>
+      <c r="O27" t="s">
+        <v>82</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>3</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>260</v>
+      </c>
+      <c r="X27" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>263</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>264</v>
+      </c>
+      <c r="J28" t="s">
+        <v>265</v>
+      </c>
+      <c r="K28" t="s">
+        <v>266</v>
+      </c>
+      <c r="L28" t="s">
+        <v>267</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>268</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>269</v>
+      </c>
+      <c r="X28" t="s">
+        <v>270</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>272</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>273</v>
+      </c>
+      <c r="J29" t="s">
+        <v>274</v>
+      </c>
+      <c r="K29" t="s">
+        <v>275</v>
+      </c>
+      <c r="L29" t="s">
+        <v>276</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>277</v>
+      </c>
+      <c r="O29" t="s">
+        <v>91</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" t="s">
+        <v>280</v>
+      </c>
+      <c r="K30" t="s">
+        <v>281</v>
+      </c>
+      <c r="L30" t="s">
+        <v>282</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>283</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>3</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>284</v>
+      </c>
+      <c r="X30" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>287</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>288</v>
+      </c>
+      <c r="J31" t="s">
+        <v>289</v>
+      </c>
+      <c r="K31" t="s">
+        <v>290</v>
+      </c>
+      <c r="L31" t="s">
+        <v>291</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>292</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>293</v>
+      </c>
+      <c r="J32" t="s">
+        <v>294</v>
+      </c>
+      <c r="K32" t="s">
+        <v>295</v>
+      </c>
+      <c r="L32" t="s">
+        <v>296</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>297</v>
+      </c>
+      <c r="O32" t="s">
+        <v>82</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>298</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>299</v>
+      </c>
+      <c r="J33" t="s">
+        <v>300</v>
+      </c>
+      <c r="K33" t="s">
+        <v>301</v>
+      </c>
+      <c r="L33" t="s">
+        <v>302</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>303</v>
+      </c>
+      <c r="O33" t="s">
+        <v>82</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>2</v>
+      </c>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="n">
+        <v>2</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>304</v>
+      </c>
+      <c r="X33" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>307</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>308</v>
+      </c>
+      <c r="J34" t="s">
+        <v>309</v>
+      </c>
+      <c r="K34" t="s">
+        <v>310</v>
+      </c>
+      <c r="L34" t="s">
+        <v>311</v>
+      </c>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>91</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>313</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>314</v>
+      </c>
+      <c r="J35" t="s">
+        <v>315</v>
+      </c>
+      <c r="K35" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>318</v>
+      </c>
+      <c r="X35" t="s">
+        <v>319</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>321</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>322</v>
+      </c>
+      <c r="J36" t="s">
+        <v>323</v>
+      </c>
+      <c r="K36" t="s">
+        <v>324</v>
+      </c>
+      <c r="L36" t="s">
+        <v>325</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>326</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>3</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>4</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>327</v>
+      </c>
+      <c r="X36" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>330</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>331</v>
+      </c>
+      <c r="J37" t="s">
+        <v>332</v>
+      </c>
+      <c r="K37" t="s">
+        <v>333</v>
+      </c>
+      <c r="L37" t="s">
+        <v>334</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>335</v>
+      </c>
+      <c r="O37" t="s">
+        <v>82</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>2</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>327</v>
+      </c>
+      <c r="X37" t="s">
+        <v>328</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>338</v>
+      </c>
+      <c r="J38" t="s">
+        <v>339</v>
+      </c>
+      <c r="K38" t="s">
+        <v>340</v>
+      </c>
+      <c r="L38" t="s">
+        <v>341</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>342</v>
+      </c>
+      <c r="O38" t="s">
+        <v>91</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>343</v>
+      </c>
+      <c r="X38" t="s">
+        <v>344</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>346</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>347</v>
+      </c>
+      <c r="J39" t="s">
+        <v>348</v>
+      </c>
+      <c r="K39" t="s">
+        <v>349</v>
+      </c>
+      <c r="L39" t="s">
+        <v>350</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>342</v>
+      </c>
+      <c r="O39" t="s">
+        <v>82</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>351</v>
+      </c>
+      <c r="X39" t="s">
+        <v>352</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>354</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>355</v>
+      </c>
+      <c r="J40" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" t="s">
+        <v>357</v>
+      </c>
+      <c r="L40" t="s">
+        <v>358</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>359</v>
+      </c>
+      <c r="O40" t="s">
+        <v>82</v>
+      </c>
+      <c r="P40" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>360</v>
+      </c>
+      <c r="X40" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>363</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>364</v>
+      </c>
+      <c r="J41" t="s">
+        <v>365</v>
+      </c>
+      <c r="K41" t="s">
+        <v>366</v>
+      </c>
+      <c r="L41" t="s">
+        <v>367</v>
+      </c>
+      <c r="M41" t="n">
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>368</v>
+      </c>
+      <c r="O41" t="s">
+        <v>82</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s">
+        <v>369</v>
+      </c>
+      <c r="X41" t="s">
+        <v>370</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>372</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>373</v>
+      </c>
+      <c r="J42" t="s">
+        <v>374</v>
+      </c>
+      <c r="K42" t="s">
+        <v>375</v>
+      </c>
+      <c r="L42" t="s">
+        <v>376</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>359</v>
+      </c>
+      <c r="O42" t="s">
+        <v>63</v>
+      </c>
+      <c r="P42" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>4</v>
+      </c>
+      <c r="R42" t="n">
+        <v>4</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>377</v>
+      </c>
+      <c r="X42" t="s">
+        <v>378</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>380</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>381</v>
+      </c>
+      <c r="J43" t="s">
+        <v>382</v>
+      </c>
+      <c r="K43" t="s">
+        <v>383</v>
+      </c>
+      <c r="L43" t="s">
+        <v>384</v>
+      </c>
+      <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="s">
+        <v>359</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>2</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>1</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s">
+        <v>385</v>
+      </c>
+      <c r="X43" t="s">
+        <v>386</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>388</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>389</v>
+      </c>
+      <c r="J44" t="s">
+        <v>390</v>
+      </c>
+      <c r="K44" t="s">
+        <v>391</v>
+      </c>
+      <c r="L44" t="s">
+        <v>392</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>393</v>
+      </c>
+      <c r="O44" t="s">
+        <v>82</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>394</v>
+      </c>
+      <c r="X44" t="s">
+        <v>395</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>397</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>398</v>
+      </c>
+      <c r="J45" t="s">
+        <v>399</v>
+      </c>
+      <c r="K45" t="s">
+        <v>400</v>
+      </c>
+      <c r="L45" t="s">
+        <v>401</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>326</v>
+      </c>
+      <c r="O45" t="s">
+        <v>82</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>402</v>
+      </c>
+      <c r="X45" t="s">
+        <v>403</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>405</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>406</v>
+      </c>
+      <c r="J46" t="s">
+        <v>407</v>
+      </c>
+      <c r="K46" t="s">
+        <v>408</v>
+      </c>
+      <c r="L46" t="s">
+        <v>409</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>410</v>
+      </c>
+      <c r="O46" t="s">
+        <v>82</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>3</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>3</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>411</v>
+      </c>
+      <c r="X46" t="s">
+        <v>412</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>414</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>415</v>
+      </c>
+      <c r="J47" t="s">
+        <v>416</v>
+      </c>
+      <c r="K47" t="s">
+        <v>417</v>
+      </c>
+      <c r="L47" t="s">
+        <v>418</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>419</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="s"/>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>420</v>
+      </c>
+      <c r="X47" t="s">
+        <v>421</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>423</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>424</v>
+      </c>
+      <c r="J48" t="s">
+        <v>425</v>
+      </c>
+      <c r="K48" t="s">
+        <v>426</v>
+      </c>
+      <c r="L48" t="s">
+        <v>427</v>
+      </c>
+      <c r="M48" t="n">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>428</v>
+      </c>
+      <c r="O48" t="s">
+        <v>82</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>429</v>
+      </c>
+      <c r="X48" t="s">
+        <v>430</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>432</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>433</v>
+      </c>
+      <c r="J49" t="s">
+        <v>434</v>
+      </c>
+      <c r="K49" t="s">
+        <v>435</v>
+      </c>
+      <c r="L49" t="s">
+        <v>436</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>437</v>
+      </c>
+      <c r="O49" t="s">
+        <v>82</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>3</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>438</v>
+      </c>
+      <c r="X49" t="s">
+        <v>439</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>441</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>442</v>
+      </c>
+      <c r="J50" t="s">
+        <v>443</v>
+      </c>
+      <c r="K50" t="s">
+        <v>444</v>
+      </c>
+      <c r="L50" t="s">
+        <v>445</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>446</v>
+      </c>
+      <c r="O50" t="s">
+        <v>91</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>4</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>447</v>
+      </c>
+      <c r="X50" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>450</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>451</v>
+      </c>
+      <c r="J51" t="s">
+        <v>452</v>
+      </c>
+      <c r="K51" t="s">
+        <v>453</v>
+      </c>
+      <c r="L51" t="s">
+        <v>454</v>
+      </c>
+      <c r="M51" t="n">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>455</v>
+      </c>
+      <c r="O51" t="s">
+        <v>53</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>456</v>
+      </c>
+      <c r="X51" t="s">
+        <v>457</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>460</v>
+      </c>
+      <c r="J52" t="s">
+        <v>461</v>
+      </c>
+      <c r="K52" t="s">
+        <v>462</v>
+      </c>
+      <c r="L52" t="s">
+        <v>463</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>455</v>
+      </c>
+      <c r="O52" t="s">
+        <v>63</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>447</v>
+      </c>
+      <c r="X52" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>465</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>466</v>
+      </c>
+      <c r="J53" t="s">
+        <v>467</v>
+      </c>
+      <c r="K53" t="s">
+        <v>468</v>
+      </c>
+      <c r="L53" t="s">
+        <v>469</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>470</v>
+      </c>
+      <c r="O53" t="s">
+        <v>63</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>447</v>
+      </c>
+      <c r="X53" t="s">
+        <v>448</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>471</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Howd11111</t>
+  </si>
+  <si>
     <t>07/01/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>Showed up at 1pm after making a booking weeks in advance, told there was no room for us, not given any real explanation. We'd been moved to a hotel without our consent in a completely different location even though we'd requested this hotel for a specific purpose. The girl behind the counter was completely indifferent. What a kick in the guts, I hope you guys go out of business for acting so unethically.More</t>
   </si>
   <si>
+    <t>Breanna H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r551399701-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>The room and bathroom were clean and the employees were friendly. The kitchenette can be supplied with dishes at an extra cost. I do love that they had a full refrigerator and microwave. Breakfast was mostly Grab-and-Go of coffee or instant oatmeal. I was only disappointed with the comfort of the beds (mostly thin), the slow free Internet, and my special request couldn't be fulfilled by a 5pm check-in. You also have to pay for parking.More</t>
   </si>
   <si>
+    <t>Rocky M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r550533044-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>The facility looks fairly new. The lobby smell like new carpet which was encouraging. The hotel was clean and neat. The decor was nice and modern. The beds were comfortable. The kitchenette was useful. More</t>
   </si>
   <si>
+    <t>H9225GMdanam</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r536152903-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -276,6 +288,9 @@
     <t>Would not recommend..... Some of staff very unprofessional....and rude. cleanliness not the best....  more like a motel feel than a hotel. Needs a lot of upgrades. There's other hotels in the area I would definitely recommend. More</t>
   </si>
   <si>
+    <t>Javari M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r535253312-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -303,6 +318,9 @@
     <t>Stay saw something red on the comforter pulled the sheets back to see urine stains all in the bed follows by globs of hair moved rooms to find another room not up to standards pillows also had yellow stains Filthy, disgusting, nasty rooms More</t>
   </si>
   <si>
+    <t>pattyc903</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r529249153-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -330,6 +348,9 @@
     <t>Staff very friendly, courteous, and helpful. Full size fridge, stove, and microwave. We requested toaster and coffee pot and were given them free of charge. Location ok as it was close to the 405. Room was good.... clean, bed comfortable.. and it was quiet. I got exactly what I expected... was pleased.. and will stay there again. Only disappointment: TV smaller than I would expect and just the 'usual suspect' channels.  Was hoping for 'on demand' options but know next time to take laptop and watch Netflix:)More</t>
   </si>
   <si>
+    <t>Guy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r507507187-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -357,6 +378,9 @@
     <t>I love the staff and the way they treat their guest...It's clean and quiet. I could stay forever! The Manager Rick was nice and the Housekeeping staff were very good. The front desk was always there to help.More</t>
   </si>
   <si>
+    <t>P8052TNcarlosc</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r499825175-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -384,6 +408,9 @@
     <t>I really liked the front desk people. They make your life easier and you feel comfortable.  I stayed for about 44 days. I slept very comfortable. The beds could be bigger but it was nice anyway.  I liked the kitchen. Very convenient and I could set up my home style in there.More</t>
   </si>
   <si>
+    <t>668percivalv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r496732534-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -408,6 +435,9 @@
     <t>This location was fantastic!!! The staff were all very friendly &amp; very accommodating. The GM did an excellent job in training all his team members. The rooms were very clean. A very safe place to spend vacation or long stay.More</t>
   </si>
   <si>
+    <t>Corn15</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r484155971-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -435,6 +465,9 @@
     <t>Nice hotel. The location was good. A westfield mall is nearby. You can even walk to it. Fot the evenings you can go to a nearby movie theater. Hotel was clean. Kitchen was ok.Only the parking fee is strange at this location.Rooms are noisy.More</t>
   </si>
   <si>
+    <t>Kizgr8</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r473711069-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -462,6 +495,9 @@
     <t>For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There...For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There are two very heavy and awkward doors that do not have any automatic features and there isn't any bellhop assistant available. Now the pluses. The staff were pleasant and the continental breakfast was acceptable. The breakfast included coffee, tea, hot chocolate, muffins, and oatmeal. Often the coffee ran out but the staff were fairly good about making more when they were asked.More</t>
   </si>
   <si>
+    <t>Wine_Venture</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r468897906-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -477,6 +513,9 @@
     <t>Maybe this place is worth it for long stays if you bring your own everything but pretty much anything is better if you just need a decent place to stay for a night.Uncomfortable bed-- cheap linens, hard mattress, flat pillows. Exactly what you don't want in a hotel.Shoddily put together. You can tell they don't care... the bathroom mirror wasn't even over the sink which made shaving very inconvenient. There wasn't even a soap dish.No comforts at all... no shampoo or conditioner. Rough towels. Only even got one disposable plastic water cup. "Breakfast" was granola bars and bad coffee. Literally nothing else.</t>
   </si>
   <si>
+    <t>Gretchen M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r435203579-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -498,6 +537,9 @@
     <t>First of all, thank goodness we verified our reservation by phone before arriving. Our booking.com reservation was not in their system.Upon arriving there were other guests who also did not have their reservations in the system but they have not called ahead. The front desk seemed to be having difficulty getting them their rooms.Meanwhile, we were assigned to a room that had not yet been cleaned. We went back to the front desk and requested a different room and were sent to one that had been a smoking room previously. They assured us it was not a smoking room but I beg to differ. Kitchens are not stocked as a rule but dishes must be requested. We have not found this to be the case in other extended stay America hotels.Overall room condition is average at best. Nothing spectacular but a comfortable firm bed and a quiet environment. Location is excellent, walking distance to food and entertainment.Check around, there may be better choices in this area.More</t>
   </si>
   <si>
+    <t>ladyofdestiny</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r431278376-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -528,6 +570,9 @@
     <t>had to book a last minute reservation and I can't say I was disappointed I used it for sleeping and showering as I was out most of the day!  it was a centralized location to most of my travel, nearest the airport and it was within walking distance of a movie theater and mini mall with eateries.More</t>
   </si>
   <si>
+    <t>Stephanie W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r429563806-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -543,6 +588,9 @@
     <t>The staff was super friendly - however the room just totally turned me off... the fridge was so disgusting &amp; a total eye sore. It really brought the value of the room down. It should either be replaced or thoroughly bleached &amp; cleaned (:</t>
   </si>
   <si>
+    <t>SoLady_13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r413255306-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -561,6 +609,9 @@
     <t>September 2015</t>
   </si>
   <si>
+    <t>Eric B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r405168984-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -579,6 +630,9 @@
     <t>August 2016</t>
   </si>
   <si>
+    <t>640faym</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r391741955-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -606,6 +660,9 @@
     <t>I just can't believe this Extended Stay America wanted a $50 a night parking fee.  Parking should come with your stay.  This outraged me.  Don't pay the fee, get upset and let them know about it.  They finally did waive the fee for us.More</t>
   </si>
   <si>
+    <t>puremega</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r364848586-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -633,6 +690,9 @@
     <t>Great hotel with a Ralph's, restaurants and shopping within a minute of the easy to find location. Parking was plentiful and the room was as expected. Julie was a very friendly clerk on check in. The only negative was the "grab and go breakfast" which was really just packaged muffins and granola bars plus a couple of oranges.More</t>
   </si>
   <si>
+    <t>babydolle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r352160004-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -660,6 +720,9 @@
     <t>Had a weekend recharge here. Very  clean,  friendly staff , and comfortable. Excellent value for the price, accommodations , wonderful all - around.A nice view in Culver city. I provided most of my own things, as I was well prepared for my weekend getaway.More</t>
   </si>
   <si>
+    <t>Shane G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r350626979-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -687,6 +750,9 @@
     <t>I was on a budget and booked through Priceline for 3 nights (Sept. 25 till Sept 28). I am still here at the hotel while writing this review.  I must say that I am very happy with my room wth a small kitchen, and its cleanliness.  It is surprisingly quiet too.The staff provides excellent customer service.  Very polite, prompt, and always there to provide me with anything I need for my room. The location is tops. Access to bus lines and surrounded by malls and restaurants. The only thing they can improve on is the quality of the pillows. Wish they were larger and fluffier.  Breakfast just consists of snacks but I have no complains.  Orherwise this well managed hotel is a good deal.More</t>
   </si>
   <si>
+    <t>Richard P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r337299665-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -712,6 +778,9 @@
   </si>
   <si>
     <t>The room was clean and in decent working order. The bathroom door did not close or lock, but it was not a major problem for us. The bed was ok, but not something to complain too much about. most importantly i felt safe and our automobile was secure. Other than that I would stay there again if needed. Would like a better breakfast with coffee.More</t>
+  </si>
+  <si>
+    <t>mannygoesplaces</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r315186585-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -746,6 +815,9 @@
 Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were...If you take a look at my last few reviews you will see that I have recently stayed at a few ESA in the Los Angeles area. The two reasons I continue to stay at ESA's is listed in the title: Economy and Convenience.This was not unlike the others we stayed at, except for the poor maintenance of the facility when compared to the other ESA we have stayed at.I like to start positive so as far as location is concerned this ESA is very easy to get to from the 405 freeway and relatively close to LAX and Westside LA as well as Santa Monica. If you are visiting and have a car, all that is on the westside of Los Angeles is close by.Dinah's diner is literally next to this ESA. This is a great spot to get home style comfort food in Los Angeles along with their specialty: Fried Chicken:)The staff that greeted us and checked us in and out were very helpful and accommodated our much needed coffee request. Thank you Reyna for your positive attitude and helpfulness!After the good must come the bad :(We stayed on the third floor: room 336 which is on the far east end of the third floor, closest to Sepulveda Blvd and the stairway.Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were broken. Not a good feeling if an emergency were to occur.In the room (336) the following items caught my eye as maintenance issues with the room:1. the tub constantly dripped: terrible, considering the CA drought that has been going on for 4 years now2. the sink stopper in the bathroom sink was missing: do not drop anything in the sink, you might not get it back3. one of the windows does not close: for perspective I am 6-1 240 pounds and consider myself stronger than the average guy. I struggled to close the window I was able to close and was unable to close the second one. I may not be doing something right but if so the cleaning people were also unable to close the window since it was open when we got in the room and I doubt they would knowingly leave the window open with the A/C running full blast.4. the fridge doors are on backwards: extremely inconvenient considering the tight space in the room, and a relative quick fix.5. the bed is extremely hard and uncomfortable: compared to our other recent stays at ESA brand this room had a bed that made it difficult for me to sleep.I would hope that others do not have the similar misfortune of getting a room with as many issues as we had. Compared to other ESA's this one was very disappointing but still the most economic choice given the location. However, for the poor experience I do believe it was overpriced even with the 20% discount.More</t>
   </si>
   <si>
+    <t>TonyaOnATrip</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r300932316-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -770,6 +842,9 @@
     <t>I stayed here for a business conference. The conference hotel sold out if rooms and this was the closet available hotel. The staff that I interacted with was friendly, however there were long periods of time where there was no one at the front desk. This required several trips to the front desk for towels. The room needed a bit of maintenance...graffiti scratched into the brass lamp plate, broken shelf in the closet. It seemed fairly clean. The "grab &amp; go" breakfast was frequently cleaned out by 0745 and there was one morning the coffee wasn't out by 0730. There is no gym or pool in this hotel, if you are wanting that. I did use the laundry facilities, which were fine.More</t>
   </si>
   <si>
+    <t>Litta22</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r273959424-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -797,6 +872,9 @@
     <t>This is filthy hotel I had bed bugs sleeping with me.Never stay in this place again...The manager was nice about it of course. I was given a free night stay to return to bed bug hotelNo thanks.THE 1st room I had smelled like smoke and had a stich really bad.More</t>
   </si>
   <si>
+    <t>Robbie2104</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r273378333-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -821,6 +899,9 @@
     <t>Very disappointed in this Extended Stay.  The rooms looked and smelled like an institution such as a hospital. Upon entering, I thought someone had been smoking in the room only to learn that it was coming from outside.  They keep a bench for smokers right outside the back door with an ashtray filled with stale, stinking butts. Not sure about front of the building rooms but don't stay in the back if you like clean smelling air. The staff were very helpful and friendly. The value for what you got was very bad.More</t>
   </si>
   <si>
+    <t>jetsetter369</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r255890762-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -848,6 +929,9 @@
     <t>Check-in was easy and the people were friendly. I personally don't care for Extended Stays because of people hanging out and living there long term. I was only there because I had a free voucher for 1 night and was traveling with my children. It did appear to be in a safe area near shopping and higher education schools; I had no problems. The room was clean but wouldn't have wanted to stay longer than I did. It's a good spot if you don't have other choices.More</t>
   </si>
   <si>
+    <t>nrnevada</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r231853617-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -866,6 +950,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>Mukesh C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r226638272-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -893,6 +980,9 @@
     <t>The hotel is peaceful and properly is located in almost a isolated area. The only saving point is that office is nearer and also, the westfield mall is at walking distance.The breakfast was not up to mark. Room was neat and clean. Internet and TV services were good.Kitchen was good but fire alarm did not allow me to cook anything Indian. :)Staff was helpful. It is not advisable to walk alone outside.More</t>
   </si>
   <si>
+    <t>surfeur34</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r220504205-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -908,6 +998,9 @@
     <t>The quality is what we pay for!! Room is okay, bathroom is clean. The table and chairs are for two even though the room is for four!!!Coffee, cereals, muffins and fruits are provided freely for a simple breakfast and that is fine. Important mall close to the hotel.</t>
   </si>
   <si>
+    <t>Ben R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r208747321-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -926,6 +1019,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>Bellaroma777</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r185193917-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -953,6 +1049,9 @@
     <t>First, let me say that this property appears to be very clean..no dust or dirt visible.  That being said, since guests can cook in their rooms the management must clean the curtains on the windows and the closet as the grease smell in the room is overpowering despite many attempts even with febreeze to rid my room of old cooking smell. Also, the trash rooms are overflowing with guest's trash (why add any additional smell to the rooms??) and not very welcoming as one has to toss trash onto mounds already there and waiting for pick up. The hallways also carry an old cooking odor and need carpet cleaning perhaps.  If these issues were addressed it would be a top notch extended stay. Staff are helpful and friendly. I am not looking forward to another three nights in my room as I feel like I am in a dirty short order kitchen.More</t>
   </si>
   <si>
+    <t>talgee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r184438510-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -971,6 +1070,9 @@
     <t>I booked this hotel via Hotwire for my father so I only knew after the booking what it was. The location is good, easy access to the freeway, nice mall close by. The "free" breakfast is a grab and go style breakfast, which was a total joke. That is not breakfast. We ended up going to a diner close by for breakfast. The room was OK, had a strange smell to it, and the nextdoor neighbors were really noisy so we asked to move to a different room. The staff was very nice!Generally, it is a very sketchy hotel. I was actually scared of leaving my dad there alone, do to the "interesting" by-passers that were hanging around the hotel. Something is very off there. I would not recommend this hotel for more than 1 night really.More</t>
   </si>
   <si>
+    <t>kjam4</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r176183162-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -995,6 +1097,9 @@
     <t>I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of...I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of the factors in my search for hotels. Now I will have to go out to eat another meal. Oh, and for being "booked" the only other people I saw downstairs were the 2 women who checked in before me. They too were complaining about the stinky room and wheres the coffee?More</t>
   </si>
   <si>
+    <t>dh0414</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r174827232-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1022,6 +1127,9 @@
     <t>Last winter during the end-of-year holiday week between 12/26 and 1/1, my wife and I stayed at the Extended Stay America near LAX.  Initially we were put off by the strongly scented cleaning supplies used in the lobby, as we use unscented products at home due to allergies.  However, the aromas were not detectable in the room.  The staff were very helpful.  The room was adequate, though basic.  Soundproofing was good.  A few times we saw cars that seemed to be inhabited by homeless people in the parking lot and reported the situation to the hotel staff.  On one occasion, we saw a police car parked directly at the entrance.  When we inquired why the car was there, it was explained that sometimes the police had to stop by to investigate and used that space.  There were some cooking aromas in the hallways.  We found a Trader Joe's nearby, where we were able to get provisions that we enjoyed at home from the same source.  As we were in LA primarily to visit family, we found the location to be very convenient--about 5 minutes from one relative and 10 to 15 minutes from another.  On our last night, we saw Lincoln in the Howard Hughes Shopping center after a pleasant dinner if Thai food.  We were delighted to be 5 to 10 minutes from LAX, making our departure very easy.More</t>
   </si>
   <si>
+    <t>tympani</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r174240282-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1043,6 +1151,9 @@
     <t>Hotels with kitchens in the rooms tend to be a little stinky. (WHAT are they cooking in there?!) Don't expect amenities like shampoo and maid service is only once a week for stays over a few days. This particular Extended Stay is in the middle of no where, but 10 minutes from the airport. I think people on housing subsidies live here.More</t>
   </si>
   <si>
+    <t>Bob_Werner1701</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r165571982-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1070,6 +1181,9 @@
     <t>This is a very good hotel to stay at if you're in town for more than a few days. The rooms have a full kitchen that includes a large refrigerator. I was able to save money by cooking breakfast in my room every morning. Exchanging dirty towels was a very easy process. If I return to the LA area I would definitely stay here again. A tip: if you need to turn left out of the parking lot, it is easier to go right and make a U-Turn at the light.More</t>
   </si>
   <si>
+    <t>Tom G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r162982768-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1094,6 +1208,9 @@
     <t>Very nice, helpful, friendly staff.  Stayed on top floor of hotel.  Top floor was a newly renovated studio with kitchenette and full refrigerator, and very nice.  Room a new leather reclining arm chair with foot rest, 2 desks with mesh back chairs, and a 32 inch LG flat screen TV.  I requested the top floor away from traffic -which increased the room price by $5 per night, but was well worth it.  I never heard the people in the rooms next to and adjacent to my room, which was a big plus, nor did I really hear any noise from the parking lot.  I ate almost all my meals at the hotel, and the Take &amp; Go breakfast of an orange (or apple), cinnamon granola bar, muffin, oatemal and coffee was a pretty good deal.  Staying a 7th day gave me the weekly rate which made it cheaper than staying 6 days at the regular rate.  The quality of the room, halls, lobby, and building was a great value.  There was even a rolling pull cart which you can use to load up your things from your car or room.More</t>
   </si>
   <si>
+    <t>Robert D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r157370809-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1121,6 +1238,9 @@
     <t>I have stayed here twice because i have a conference in the area twice a year for work.  The hotel is clean and the rooms are comfortable.  The staff is friendly and helpful.  They always try to go the extra mile for me and my co workers, so i have no complaints in that department.  Its an inexpensive place to stay and we were near the airport, the beaches, some malls and many places to eat.  The rooms do need to be updated a little but they were clean and neat and spacious and we just needed a place to sleep because most of the time we were in our conference or out sightseeing.  Overall it was a very pleasant experience. I would come back. Now if they had a pool that would be even better but the beach isnt too far.More</t>
   </si>
   <si>
+    <t>terry8330</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r156881929-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1148,6 +1268,9 @@
     <t>Daytime not bad window lighting, but awful out-dated cheap knock-off of knock-off lamps with harsh fluorescent bulbs with a green-yellow tinge. No shampoo or lotion, just bar soaps. A faint urine odor persisted near the bed, but couldn't locate it exactly. Windows were very tight and stiff and required a Herculean effort to open. Staff were all nice and friendly. At night, I had to arrange the blackout curtains perfectly so that the screechy self-storage security street lights next door didn't wake me up all night. Even then, there were at least 3 or 4 gadgets like smoke detectors and such that had little bright indicator lights that glowed through the night - they could have been placed better. Bathtub faucet dripped. Water filter on the kitchen tap was a nice touch though. Utensil drawer was scary and unevenly stocked. No closet, just a corner area with the cheapest possible wire rack with 3 (three) hangers on it! Also, many hotels should stop using the magnetic cards with the Pizza Hut ad on them, because I always think that the pointy red hat indicates the direction of the card placement on the door lock!More</t>
   </si>
   <si>
+    <t>Melanierich12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r156159290-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1170,6 +1293,9 @@
   </si>
   <si>
     <t>I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not...I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not go over $90 per night.More</t>
+  </si>
+  <si>
+    <t>fernandita4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r155111104-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1204,6 +1330,9 @@
 One more thing:...As one very unhelpful lady at the front desk said, " Uh, sorry, this is a no-frills Extended Stay." She wasn't kidding. This place is not only no frills amenities-wise. The staff has quite the no-frills, hands-off attitude as well. Upon arrival, the lobby smelled due to the adjacent trash room. The staff was very rude too. I wasn't greeted or even acknowledged when I walked up to the front desk. I arrived at 4:00, one hour after check-in begins, yet I had to wait 40 minutes while my room was being cleaned up. It's true this hotel is inexpensive compared to some other hotels in the area, but it's still costly enough where customers shouldn't be made to waste the time they are paying for.At one point, I asked the same unhelpful lady if there was any herbal tea available. She said she might have one in her purse but otherwise no--a strange and unprofessional response. The next morning, guess what, there was tea downstairs. Customer service is in the details and the staff here obviously doesn't understand that. If you are looking for a reasonably priced room with a full-sized kitchen, this is an adequate option. Be prepared when you get here though. You might start to miss those "frills" pretty quick, like, oh I don't know, eye contact from the staff. If you want good service, you'll have to pay for it elsewhere.One more thing: the facility is a bit old and I found an odd stain beneath my coffee maker.More</t>
   </si>
   <si>
+    <t>Jamielee703</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r149846163-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1229,6 +1358,9 @@
   </si>
   <si>
     <t>hotel was clean, newly remolded and a great staff.  Only about 10 minutes from the air port and close to two shopping malls Westfield Culver City and Howard Hughes. Both malls have  great restaurant 5 minutes away.   They have a grab n go breakfast with coffee, oat meal, granola bars, muffins and fruit. They have a diner next door, we had a good meal and just walked next door. Free parking  I will definitely make this my regular hotel for business or vacation when in the LA area.More</t>
+  </si>
+  <si>
+    <t>Pierce G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r147168956-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1265,6 +1397,9 @@
 Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it...I have reviewed this hotel already once before. It was a good stay then, and a good stay this past time.I recently did a large project in Beverly Hills, and the hotel was far enough from work, yet close enough to work, that it was a great location. Easy freeway access, close to the marina and water, also close enough to a lot of places to eat.As in my previous review, I really want to commend Michelle and her staff on such excellent service. This can be a very busy hotel, and the degree of personal service is just great.I have read other reviews of the place and yes, the car park can get rather full, but there is always room on the rear of the property and rather easy entry there. I do agree, the 'trash' rooms can get out of hand and perhaps some type of air freshner, and a good cleaning once a week would help.Finally, I know the grab and go breakfast is a comp, but if someone could insure that it is out by 6am as advertised that would be great.  It does help that 7-11 is close and you can get coffee there in a rush in the morning.Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it when you come out in the morning, as well as in one piece. To have a staff that greats you warmly when you come in the lobby, as well as when you leave.With all that in mind, this is not a Hilton Resort, nor does it cost like one, and you get to park for free.  However, don't expect the same perks you would get in a 5 star resort.  If you want that, go pay for it.This is a nice property, great for a long term stay.  Between my two visits I spent almost 4 months here.  One last thing, Friday night at Dinah's next door is prime rib special for under 20.00.  Good deal if you want to fill up.More</t>
   </si>
   <si>
+    <t>ulgen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r143416503-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1290,6 +1425,9 @@
   </si>
   <si>
     <t>The best thing about this place is its location. It's very close to Westfield Culver City and Howard Hughes. It's also next to a diner. However, it's 10 minutes ride to LAX, so that does not actually make it an airport hotel.Rooms are a bit outdated, Kitchenette is a plus but I didn't use it at all. My room had a full size refrigerator which is very useful during long stays. It also has ironing facilities. Air conditioning is very loud. They clean the rooms once a week on the day you agreed upon.Parking is free and there is enough parking space, never had a problem finding one. Staff is very helpful and friendly.More</t>
+  </si>
+  <si>
+    <t>cran001</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r140881680-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1360,6 +1498,9 @@
 Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and...I stay at a lot of hotels in the Extended Stay brand, they are all changing their name to Extended Stay now, which I think is a good idea.  With that in mind, here we go.The Extended Stay America - LAX, is by far the nicest ESA I have stayed in to date.The staff, excellent, they understand hospitality and that is good. Housekeeping, stellar.Room condition, very nice and comfortable. Not the Hilton, but they don't claim to be. Great beds, bedding, linens, and bath towels.The room was very clean upon arrival, no problems with my reservation and very helpful. The front desk even called me within an hour of check in to see if everything was ok with my room. I have not had that happen in a hotel in over a year, not since the Sheraton San Juan and that hotel is far more expensive.The grab and go breakfast, a nice touch, don't expect much - but it is better than nothing.Had a couple of issues with my room, microwave was not working properly and the commode ran all night, both were fixed the next day. Prompt attentative service, what a concept.Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and brand attractiveness. If all of the hotels in this brand came close to this, it would be hard to find a vacancy in the chain.  Just my opinion.So as the title says, this ESA is the best one yet.I commend the staff and management for a great product. The only thing I would change here is that I could have this staff at any ESA I stay at.More</t>
   </si>
   <si>
+    <t>John P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r135571146-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1387,6 +1528,9 @@
     <t>I guess if we would get a better room, it would not be such a bad experience. Besides the fact that in the middle at the night a fire-alarm went on, we got the room at the end of the hallway (towards the main street) and the traffic is so loud that it is hard to fall asleep. I am not sure if it was because we got a discounted rate through www.PetsCanStay.com that we got such loud room. To sum things up, it is a good place but make sure you select your room before you get there. M.More</t>
   </si>
   <si>
+    <t>Kelly C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r131931786-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1414,6 +1558,9 @@
     <t>I have stayed at some of the finest luxury hotels in the world and in fact had just spent 7 days at a Four Seasons before checking into this hotel for four days. I was impressed with the friendliness and can-do attitude of the staff as well as how spotless and fresh-smelling everything down to the trash room was at this hotel. Some guests had their pets and there was never dog poop around, unlike some other pet-friendly hotels where I've stayed. Not a speck of trash anywhere in the parking lot! As long as you read what you're getting at this hotel then you won't be disappointed. Yes, you have to make your own beds, wash your own dishes and do your own laundry but it adds to the homey feeling this hotel exudes. Comfy beds and quiet guests made for an enjoyable stay as well. I was on my computer and iPad constantly and never had a problem with the free Internet. (I didn't upgrade.) I recommend it for anyone needing a place for one night or long-term.  For the price, you can't do better in an area convenient to everything.More</t>
   </si>
   <si>
+    <t>69VAGABOND69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r130245473-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1441,6 +1588,9 @@
     <t>I found this location very convenient to a specific shopping area I wanted to visit (Fairfax Ave) it was about 20 minutes away without having to get on the freeway. I also wanted to visit the beach (Santa Monica) which was also just 20 minutes away from the hotel. My flight back home at LAX was definately convenient also! The room itself was worth the value. At check in, I was informed that if I needed more towels, shampoo, pillows, etc that they'd be happy to get those to me. Later on in my room I requested for two extra pillows and they were delivered in about 15 minutes, which to me wasn't that bad. I had easy access in and out of the hotel and the staff was very friendly. I'd definately stay here again on my next visit.More</t>
   </si>
   <si>
+    <t>William M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r130107024-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1457,6 +1607,9 @@
   </si>
   <si>
     <t>Close to airport, freeway, shops, restaurants. Staff is friendly and courteous and attentive to my needs. I would recommend it to friends and family for future stays.More</t>
+  </si>
+  <si>
+    <t>Christine S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r124928959-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1982,43 +2135,47 @@
       <c r="A2" t="n">
         <v>38329</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>146307</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2030,56 +2187,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38329</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>146308</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -2101,56 +2262,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38329</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>146309</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2162,56 +2327,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38329</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>146310</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P5" t="n">
         <v>1</v>
@@ -2233,56 +2402,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Y5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38329</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>146311</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="J6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K6" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -2294,56 +2467,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="X6" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="Y6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38329</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>146312</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="J7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="K7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="O7" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2355,56 +2532,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="X7" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="Y7" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38329</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>146313</v>
+      </c>
+      <c r="C8" t="s">
+        <v>110</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="K8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2416,56 +2597,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="X8" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="Y8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38329</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>146314</v>
+      </c>
+      <c r="C9" t="s">
+        <v>120</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="K9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -2487,56 +2672,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="X9" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="Y9" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38329</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>146315</v>
+      </c>
+      <c r="C10" t="s">
+        <v>130</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="J10" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K10" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L10" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2558,56 +2747,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="X10" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Y10" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38329</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>146316</v>
+      </c>
+      <c r="C11" t="s">
+        <v>139</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="J11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="K11" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P11" t="n">
         <v>4</v>
@@ -2623,56 +2816,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="X11" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="Y11" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38329</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>146317</v>
+      </c>
+      <c r="C12" t="s">
+        <v>149</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="K12" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
       <c r="L12" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -2690,56 +2887,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="X12" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
       <c r="Y12" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38329</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>146318</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="J13" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="K13" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="O13" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -2759,50 +2960,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38329</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>92717</v>
+      </c>
+      <c r="C14" t="s">
+        <v>165</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="J14" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="K14" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="L14" t="s">
-        <v>157</v>
+        <v>170</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>158</v>
+        <v>171</v>
       </c>
       <c r="O14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2816,50 +3021,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38329</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>146319</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="J15" t="s">
-        <v>162</v>
+        <v>176</v>
       </c>
       <c r="K15" t="s">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="L15" t="s">
-        <v>164</v>
+        <v>178</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O15" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -2877,56 +3086,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="X15" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="Y15" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38329</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>688</v>
+      </c>
+      <c r="C16" t="s">
+        <v>184</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="J16" t="s">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="K16" t="s">
-        <v>173</v>
+        <v>188</v>
       </c>
       <c r="L16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="O16" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2940,50 +3153,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>174</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38329</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>146320</v>
+      </c>
+      <c r="C17" t="s">
+        <v>190</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>176</v>
+        <v>192</v>
       </c>
       <c r="J17" t="s">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="K17" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="L17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="M17" t="n">
         <v>1</v>
       </c>
       <c r="N17" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="O17" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3001,50 +3218,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>179</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38329</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>1515</v>
+      </c>
+      <c r="C18" t="s">
+        <v>197</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>181</v>
+        <v>198</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>182</v>
+        <v>199</v>
       </c>
       <c r="J18" t="s">
-        <v>183</v>
+        <v>200</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>201</v>
       </c>
       <c r="L18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="M18" t="n">
         <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3064,50 +3285,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38329</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>146321</v>
+      </c>
+      <c r="C19" t="s">
+        <v>204</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>187</v>
+        <v>205</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="J19" t="s">
-        <v>189</v>
+        <v>207</v>
       </c>
       <c r="K19" t="s">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="L19" t="s">
-        <v>191</v>
+        <v>209</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="O19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3123,56 +3348,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>193</v>
+        <v>211</v>
       </c>
       <c r="X19" t="s">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="Y19" t="s">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38329</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>146322</v>
+      </c>
+      <c r="C20" t="s">
+        <v>214</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>217</v>
       </c>
       <c r="K20" t="s">
-        <v>199</v>
+        <v>218</v>
       </c>
       <c r="L20" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="M20" t="n">
         <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>201</v>
+        <v>220</v>
       </c>
       <c r="O20" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
@@ -3188,56 +3417,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
       <c r="X20" t="s">
-        <v>203</v>
+        <v>222</v>
       </c>
       <c r="Y20" t="s">
-        <v>204</v>
+        <v>223</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38329</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>146323</v>
+      </c>
+      <c r="C21" t="s">
+        <v>224</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>205</v>
+        <v>225</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="J21" t="s">
-        <v>207</v>
+        <v>227</v>
       </c>
       <c r="K21" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="L21" t="s">
-        <v>209</v>
+        <v>229</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="O21" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="n">
@@ -3253,56 +3486,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>211</v>
+        <v>231</v>
       </c>
       <c r="X21" t="s">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="Y21" t="s">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38329</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>57456</v>
+      </c>
+      <c r="C22" t="s">
+        <v>234</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="J22" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="L22" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O22" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3314,56 +3551,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="X22" t="s">
-        <v>221</v>
+        <v>242</v>
       </c>
       <c r="Y22" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38329</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>83</v>
+      </c>
+      <c r="C23" t="s">
+        <v>244</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="J23" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="K23" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="L23" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="O23" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3381,56 +3622,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="X23" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="Y23" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38329</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>146324</v>
+      </c>
+      <c r="C24" t="s">
+        <v>254</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>232</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>233</v>
+        <v>256</v>
       </c>
       <c r="J24" t="s">
-        <v>234</v>
+        <v>257</v>
       </c>
       <c r="K24" t="s">
-        <v>235</v>
+        <v>258</v>
       </c>
       <c r="L24" t="s">
-        <v>236</v>
+        <v>259</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
+        <v>196</v>
+      </c>
+      <c r="O24" t="s">
         <v>180</v>
-      </c>
-      <c r="O24" t="s">
-        <v>166</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3448,50 +3693,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38329</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>146325</v>
+      </c>
+      <c r="C25" t="s">
+        <v>261</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="J25" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="K25" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L25" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="O25" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3503,56 +3752,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="X25" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="Y25" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38329</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>146326</v>
+      </c>
+      <c r="C26" t="s">
+        <v>270</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="J26" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="K26" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
       <c r="L26" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
       <c r="N26" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O26" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3564,56 +3817,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>252</v>
+        <v>277</v>
       </c>
       <c r="X26" t="s">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="Y26" t="s">
-        <v>254</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38329</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>146327</v>
+      </c>
+      <c r="C27" t="s">
+        <v>280</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="J27" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="K27" t="s">
-        <v>258</v>
+        <v>284</v>
       </c>
       <c r="L27" t="s">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="M27" t="n">
         <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>251</v>
+        <v>276</v>
       </c>
       <c r="O27" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3629,56 +3886,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>260</v>
+        <v>286</v>
       </c>
       <c r="X27" t="s">
-        <v>261</v>
+        <v>287</v>
       </c>
       <c r="Y27" t="s">
-        <v>262</v>
+        <v>288</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38329</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>146328</v>
+      </c>
+      <c r="C28" t="s">
+        <v>289</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="J28" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="K28" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="L28" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="M28" t="n">
         <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P28" t="n">
         <v>3</v>
@@ -3696,56 +3957,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="X28" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="Y28" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38329</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>146329</v>
+      </c>
+      <c r="C29" t="s">
+        <v>299</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
       <c r="J29" t="s">
-        <v>274</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
-        <v>275</v>
+        <v>303</v>
       </c>
       <c r="L29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>277</v>
+        <v>305</v>
       </c>
       <c r="O29" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -3759,50 +4024,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>276</v>
+        <v>304</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38329</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>146330</v>
+      </c>
+      <c r="C30" t="s">
+        <v>306</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="J30" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="K30" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="L30" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="M30" t="n">
         <v>3</v>
       </c>
       <c r="N30" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="O30" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P30" t="n">
         <v>3</v>
@@ -3820,47 +4089,51 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="X30" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="Y30" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38329</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>146331</v>
+      </c>
+      <c r="C31" t="s">
+        <v>316</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="J31" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
       <c r="K31" t="s">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="L31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
@@ -3879,50 +4152,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>291</v>
+        <v>321</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38329</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>13144</v>
+      </c>
+      <c r="C32" t="s">
+        <v>322</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="J32" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="K32" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="L32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="M32" t="n">
         <v>4</v>
       </c>
       <c r="N32" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="O32" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -3946,50 +4223,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38329</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>146332</v>
+      </c>
+      <c r="C33" t="s">
+        <v>329</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>298</v>
+        <v>330</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="J33" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="K33" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="L33" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="M33" t="n">
         <v>3</v>
       </c>
       <c r="N33" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="O33" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P33" t="n">
         <v>3</v>
@@ -4011,56 +4292,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="X33" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="Y33" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38329</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>146333</v>
+      </c>
+      <c r="C34" t="s">
+        <v>339</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
+        <v>340</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="J34" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="K34" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="L34" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="O34" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -4084,41 +4369,45 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38329</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>146334</v>
+      </c>
+      <c r="C35" t="s">
+        <v>346</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>313</v>
+        <v>347</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>314</v>
+        <v>348</v>
       </c>
       <c r="J35" t="s">
-        <v>315</v>
+        <v>349</v>
       </c>
       <c r="K35" t="s">
-        <v>316</v>
+        <v>350</v>
       </c>
       <c r="L35" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
@@ -4145,56 +4434,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="X35" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="Y35" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38329</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>146335</v>
+      </c>
+      <c r="C36" t="s">
+        <v>355</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="J36" t="s">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="K36" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="L36" t="s">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="O36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P36" t="n">
         <v>3</v>
@@ -4216,56 +4509,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="X36" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Y36" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38329</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>146336</v>
+      </c>
+      <c r="C37" t="s">
+        <v>365</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="J37" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="K37" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="L37" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="O37" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P37" t="n">
         <v>3</v>
@@ -4287,56 +4584,60 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="X37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="Y37" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38329</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>146337</v>
+      </c>
+      <c r="C38" t="s">
+        <v>373</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="J38" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="K38" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="L38" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O38" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P38" t="n">
         <v>3</v>
@@ -4358,56 +4659,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="X38" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="Y38" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38329</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>14778</v>
+      </c>
+      <c r="C39" t="s">
+        <v>383</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>346</v>
+        <v>384</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>347</v>
+        <v>385</v>
       </c>
       <c r="J39" t="s">
-        <v>348</v>
+        <v>386</v>
       </c>
       <c r="K39" t="s">
-        <v>349</v>
+        <v>387</v>
       </c>
       <c r="L39" t="s">
-        <v>350</v>
+        <v>388</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P39" t="n">
         <v>5</v>
@@ -4429,56 +4734,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>351</v>
+        <v>389</v>
       </c>
       <c r="X39" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="Y39" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38329</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>6223</v>
+      </c>
+      <c r="C40" t="s">
+        <v>392</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="J40" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="K40" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="L40" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O40" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P40" t="n">
         <v>4</v>
@@ -4500,56 +4809,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="X40" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="Y40" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38329</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>146338</v>
+      </c>
+      <c r="C41" t="s">
+        <v>402</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>363</v>
+        <v>403</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>364</v>
+        <v>404</v>
       </c>
       <c r="J41" t="s">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="K41" t="s">
-        <v>366</v>
+        <v>406</v>
       </c>
       <c r="L41" t="s">
-        <v>367</v>
+        <v>407</v>
       </c>
       <c r="M41" t="n">
         <v>2</v>
       </c>
       <c r="N41" t="s">
-        <v>368</v>
+        <v>408</v>
       </c>
       <c r="O41" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P41" t="n">
         <v>3</v>
@@ -4571,56 +4884,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>369</v>
+        <v>409</v>
       </c>
       <c r="X41" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="Y41" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38329</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>146339</v>
+      </c>
+      <c r="C42" t="s">
+        <v>412</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>372</v>
+        <v>413</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>373</v>
+        <v>414</v>
       </c>
       <c r="J42" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="K42" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="L42" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O42" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4642,56 +4959,60 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="X42" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="Y42" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38329</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>146340</v>
+      </c>
+      <c r="C43" t="s">
+        <v>421</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>380</v>
+        <v>422</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>381</v>
+        <v>423</v>
       </c>
       <c r="J43" t="s">
-        <v>382</v>
+        <v>424</v>
       </c>
       <c r="K43" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="L43" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="M43" t="n">
         <v>2</v>
       </c>
       <c r="N43" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="O43" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P43" t="n">
         <v>3</v>
@@ -4713,56 +5034,60 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="X43" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="Y43" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38329</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>146341</v>
+      </c>
+      <c r="C44" t="s">
+        <v>430</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>431</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="J44" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="K44" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="L44" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="O44" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4784,56 +5109,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="X44" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
       <c r="Y44" t="s">
-        <v>396</v>
+        <v>439</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38329</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>14558</v>
+      </c>
+      <c r="C45" t="s">
+        <v>440</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="J45" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="K45" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="L45" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="M45" t="n">
         <v>4</v>
       </c>
       <c r="N45" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="O45" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -4855,56 +5184,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
       <c r="X45" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="Y45" t="s">
-        <v>404</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38329</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>146342</v>
+      </c>
+      <c r="C46" t="s">
+        <v>449</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="J46" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="K46" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
       <c r="L46" t="s">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>410</v>
+        <v>455</v>
       </c>
       <c r="O46" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -4926,56 +5259,60 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>411</v>
+        <v>456</v>
       </c>
       <c r="X46" t="s">
-        <v>412</v>
+        <v>457</v>
       </c>
       <c r="Y46" t="s">
-        <v>413</v>
+        <v>458</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38329</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>146343</v>
+      </c>
+      <c r="C47" t="s">
+        <v>459</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="J47" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="K47" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="L47" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
       <c r="N47" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
@@ -4987,56 +5324,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="X47" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="Y47" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38329</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>14558</v>
+      </c>
+      <c r="C48" t="s">
+        <v>440</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="J48" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="K48" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="L48" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="M48" t="n">
         <v>4</v>
       </c>
       <c r="N48" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="O48" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5058,56 +5399,60 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="X48" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="Y48" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38329</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>7638</v>
+      </c>
+      <c r="C49" t="s">
+        <v>478</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="J49" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
       <c r="K49" t="s">
-        <v>435</v>
+        <v>482</v>
       </c>
       <c r="L49" t="s">
-        <v>436</v>
+        <v>483</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
       </c>
       <c r="N49" t="s">
-        <v>437</v>
+        <v>484</v>
       </c>
       <c r="O49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="P49" t="n">
         <v>4</v>
@@ -5129,56 +5474,60 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>438</v>
+        <v>485</v>
       </c>
       <c r="X49" t="s">
-        <v>439</v>
+        <v>486</v>
       </c>
       <c r="Y49" t="s">
-        <v>440</v>
+        <v>487</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38329</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>19154</v>
+      </c>
+      <c r="C50" t="s">
+        <v>488</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="J50" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
       <c r="K50" t="s">
-        <v>444</v>
+        <v>492</v>
       </c>
       <c r="L50" t="s">
-        <v>445</v>
+        <v>493</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>446</v>
+        <v>494</v>
       </c>
       <c r="O50" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="P50" t="n">
         <v>4</v>
@@ -5200,56 +5549,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="X50" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="Y50" t="s">
-        <v>449</v>
+        <v>497</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38329</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>146344</v>
+      </c>
+      <c r="C51" t="s">
+        <v>498</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>450</v>
+        <v>499</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>451</v>
+        <v>500</v>
       </c>
       <c r="J51" t="s">
-        <v>452</v>
+        <v>501</v>
       </c>
       <c r="K51" t="s">
-        <v>453</v>
+        <v>502</v>
       </c>
       <c r="L51" t="s">
-        <v>454</v>
+        <v>503</v>
       </c>
       <c r="M51" t="n">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5271,56 +5624,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>456</v>
+        <v>505</v>
       </c>
       <c r="X51" t="s">
-        <v>457</v>
+        <v>506</v>
       </c>
       <c r="Y51" t="s">
-        <v>458</v>
+        <v>507</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38329</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>13586</v>
+      </c>
+      <c r="C52" t="s">
+        <v>508</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>459</v>
+        <v>509</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>460</v>
+        <v>510</v>
       </c>
       <c r="J52" t="s">
-        <v>461</v>
+        <v>511</v>
       </c>
       <c r="K52" t="s">
-        <v>462</v>
+        <v>512</v>
       </c>
       <c r="L52" t="s">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="M52" t="n">
         <v>4</v>
       </c>
       <c r="N52" t="s">
-        <v>455</v>
+        <v>504</v>
       </c>
       <c r="O52" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
@@ -5342,56 +5699,60 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="X52" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="Y52" t="s">
-        <v>464</v>
+        <v>514</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38329</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>19275</v>
+      </c>
+      <c r="C53" t="s">
+        <v>515</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>466</v>
+        <v>517</v>
       </c>
       <c r="J53" t="s">
-        <v>467</v>
+        <v>518</v>
       </c>
       <c r="K53" t="s">
-        <v>468</v>
+        <v>519</v>
       </c>
       <c r="L53" t="s">
-        <v>469</v>
+        <v>520</v>
       </c>
       <c r="M53" t="n">
         <v>5</v>
       </c>
       <c r="N53" t="s">
-        <v>470</v>
+        <v>521</v>
       </c>
       <c r="O53" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P53" t="n">
         <v>5</v>
@@ -5413,13 +5774,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>447</v>
+        <v>495</v>
       </c>
       <c r="X53" t="s">
-        <v>448</v>
+        <v>496</v>
       </c>
       <c r="Y53" t="s">
-        <v>471</v>
+        <v>522</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
@@ -1049,7 +1049,7 @@
     <t>First, let me say that this property appears to be very clean..no dust or dirt visible.  That being said, since guests can cook in their rooms the management must clean the curtains on the windows and the closet as the grease smell in the room is overpowering despite many attempts even with febreeze to rid my room of old cooking smell. Also, the trash rooms are overflowing with guest's trash (why add any additional smell to the rooms??) and not very welcoming as one has to toss trash onto mounds already there and waiting for pick up. The hallways also carry an old cooking odor and need carpet cleaning perhaps.  If these issues were addressed it would be a top notch extended stay. Staff are helpful and friendly. I am not looking forward to another three nights in my room as I feel like I am in a dirty short order kitchen.More</t>
   </si>
   <si>
-    <t>talgee</t>
+    <t>Tal G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r184438510-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -2136,7 +2136,7 @@
         <v>38329</v>
       </c>
       <c r="B2" t="n">
-        <v>146307</v>
+        <v>177639</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -2201,7 +2201,7 @@
         <v>38329</v>
       </c>
       <c r="B3" t="n">
-        <v>146308</v>
+        <v>177640</v>
       </c>
       <c r="C3" t="s">
         <v>58</v>
@@ -2276,7 +2276,7 @@
         <v>38329</v>
       </c>
       <c r="B4" t="n">
-        <v>146309</v>
+        <v>177641</v>
       </c>
       <c r="C4" t="s">
         <v>69</v>
@@ -2341,7 +2341,7 @@
         <v>38329</v>
       </c>
       <c r="B5" t="n">
-        <v>146310</v>
+        <v>177642</v>
       </c>
       <c r="C5" t="s">
         <v>79</v>
@@ -2416,7 +2416,7 @@
         <v>38329</v>
       </c>
       <c r="B6" t="n">
-        <v>146311</v>
+        <v>177643</v>
       </c>
       <c r="C6" t="s">
         <v>90</v>
@@ -2481,7 +2481,7 @@
         <v>38329</v>
       </c>
       <c r="B7" t="n">
-        <v>146312</v>
+        <v>177644</v>
       </c>
       <c r="C7" t="s">
         <v>100</v>
@@ -2546,7 +2546,7 @@
         <v>38329</v>
       </c>
       <c r="B8" t="n">
-        <v>146313</v>
+        <v>177645</v>
       </c>
       <c r="C8" t="s">
         <v>110</v>
@@ -2611,7 +2611,7 @@
         <v>38329</v>
       </c>
       <c r="B9" t="n">
-        <v>146314</v>
+        <v>177646</v>
       </c>
       <c r="C9" t="s">
         <v>120</v>
@@ -2686,7 +2686,7 @@
         <v>38329</v>
       </c>
       <c r="B10" t="n">
-        <v>146315</v>
+        <v>177647</v>
       </c>
       <c r="C10" t="s">
         <v>130</v>
@@ -2761,7 +2761,7 @@
         <v>38329</v>
       </c>
       <c r="B11" t="n">
-        <v>146316</v>
+        <v>177648</v>
       </c>
       <c r="C11" t="s">
         <v>139</v>
@@ -2830,7 +2830,7 @@
         <v>38329</v>
       </c>
       <c r="B12" t="n">
-        <v>146317</v>
+        <v>177649</v>
       </c>
       <c r="C12" t="s">
         <v>149</v>
@@ -2901,7 +2901,7 @@
         <v>38329</v>
       </c>
       <c r="B13" t="n">
-        <v>146318</v>
+        <v>177650</v>
       </c>
       <c r="C13" t="s">
         <v>159</v>
@@ -3029,7 +3029,7 @@
         <v>38329</v>
       </c>
       <c r="B15" t="n">
-        <v>146319</v>
+        <v>177651</v>
       </c>
       <c r="C15" t="s">
         <v>173</v>
@@ -3161,7 +3161,7 @@
         <v>38329</v>
       </c>
       <c r="B17" t="n">
-        <v>146320</v>
+        <v>177652</v>
       </c>
       <c r="C17" t="s">
         <v>190</v>
@@ -3293,7 +3293,7 @@
         <v>38329</v>
       </c>
       <c r="B19" t="n">
-        <v>146321</v>
+        <v>177653</v>
       </c>
       <c r="C19" t="s">
         <v>204</v>
@@ -3362,7 +3362,7 @@
         <v>38329</v>
       </c>
       <c r="B20" t="n">
-        <v>146322</v>
+        <v>177654</v>
       </c>
       <c r="C20" t="s">
         <v>214</v>
@@ -3431,7 +3431,7 @@
         <v>38329</v>
       </c>
       <c r="B21" t="n">
-        <v>146323</v>
+        <v>177655</v>
       </c>
       <c r="C21" t="s">
         <v>224</v>
@@ -3636,7 +3636,7 @@
         <v>38329</v>
       </c>
       <c r="B24" t="n">
-        <v>146324</v>
+        <v>177656</v>
       </c>
       <c r="C24" t="s">
         <v>254</v>
@@ -3701,7 +3701,7 @@
         <v>38329</v>
       </c>
       <c r="B25" t="n">
-        <v>146325</v>
+        <v>177657</v>
       </c>
       <c r="C25" t="s">
         <v>261</v>
@@ -3766,7 +3766,7 @@
         <v>38329</v>
       </c>
       <c r="B26" t="n">
-        <v>146326</v>
+        <v>177658</v>
       </c>
       <c r="C26" t="s">
         <v>270</v>
@@ -3831,7 +3831,7 @@
         <v>38329</v>
       </c>
       <c r="B27" t="n">
-        <v>146327</v>
+        <v>177659</v>
       </c>
       <c r="C27" t="s">
         <v>280</v>
@@ -3900,7 +3900,7 @@
         <v>38329</v>
       </c>
       <c r="B28" t="n">
-        <v>146328</v>
+        <v>177660</v>
       </c>
       <c r="C28" t="s">
         <v>289</v>
@@ -3971,7 +3971,7 @@
         <v>38329</v>
       </c>
       <c r="B29" t="n">
-        <v>146329</v>
+        <v>177661</v>
       </c>
       <c r="C29" t="s">
         <v>299</v>
@@ -4032,7 +4032,7 @@
         <v>38329</v>
       </c>
       <c r="B30" t="n">
-        <v>146330</v>
+        <v>177662</v>
       </c>
       <c r="C30" t="s">
         <v>306</v>
@@ -4103,7 +4103,7 @@
         <v>38329</v>
       </c>
       <c r="B31" t="n">
-        <v>146331</v>
+        <v>177663</v>
       </c>
       <c r="C31" t="s">
         <v>316</v>
@@ -4231,7 +4231,7 @@
         <v>38329</v>
       </c>
       <c r="B33" t="n">
-        <v>146332</v>
+        <v>177664</v>
       </c>
       <c r="C33" t="s">
         <v>329</v>
@@ -4306,7 +4306,7 @@
         <v>38329</v>
       </c>
       <c r="B34" t="n">
-        <v>146333</v>
+        <v>177665</v>
       </c>
       <c r="C34" t="s">
         <v>339</v>
@@ -4377,7 +4377,7 @@
         <v>38329</v>
       </c>
       <c r="B35" t="n">
-        <v>146334</v>
+        <v>177666</v>
       </c>
       <c r="C35" t="s">
         <v>346</v>
@@ -4448,7 +4448,7 @@
         <v>38329</v>
       </c>
       <c r="B36" t="n">
-        <v>146335</v>
+        <v>177667</v>
       </c>
       <c r="C36" t="s">
         <v>355</v>
@@ -4523,7 +4523,7 @@
         <v>38329</v>
       </c>
       <c r="B37" t="n">
-        <v>146336</v>
+        <v>177668</v>
       </c>
       <c r="C37" t="s">
         <v>365</v>
@@ -4598,7 +4598,7 @@
         <v>38329</v>
       </c>
       <c r="B38" t="n">
-        <v>146337</v>
+        <v>177669</v>
       </c>
       <c r="C38" t="s">
         <v>373</v>
@@ -4823,7 +4823,7 @@
         <v>38329</v>
       </c>
       <c r="B41" t="n">
-        <v>146338</v>
+        <v>177670</v>
       </c>
       <c r="C41" t="s">
         <v>402</v>
@@ -4898,7 +4898,7 @@
         <v>38329</v>
       </c>
       <c r="B42" t="n">
-        <v>146339</v>
+        <v>177671</v>
       </c>
       <c r="C42" t="s">
         <v>412</v>
@@ -4973,7 +4973,7 @@
         <v>38329</v>
       </c>
       <c r="B43" t="n">
-        <v>146340</v>
+        <v>177672</v>
       </c>
       <c r="C43" t="s">
         <v>421</v>
@@ -5048,7 +5048,7 @@
         <v>38329</v>
       </c>
       <c r="B44" t="n">
-        <v>146341</v>
+        <v>177673</v>
       </c>
       <c r="C44" t="s">
         <v>430</v>
@@ -5198,7 +5198,7 @@
         <v>38329</v>
       </c>
       <c r="B46" t="n">
-        <v>146342</v>
+        <v>177674</v>
       </c>
       <c r="C46" t="s">
         <v>449</v>
@@ -5273,7 +5273,7 @@
         <v>38329</v>
       </c>
       <c r="B47" t="n">
-        <v>146343</v>
+        <v>177675</v>
       </c>
       <c r="C47" t="s">
         <v>459</v>
@@ -5563,7 +5563,7 @@
         <v>38329</v>
       </c>
       <c r="B51" t="n">
-        <v>146344</v>
+        <v>177676</v>
       </c>
       <c r="C51" t="s">
         <v>498</v>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_256.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="752">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,108 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Howd11111</t>
-  </si>
-  <si>
-    <t>07/01/2018</t>
+    <t>09/09/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r608039053-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>84224</t>
+  </si>
+  <si>
+    <t>608039053</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Extended Stay Away!</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel. I cannot think of anything positive to say on this hotel. Our room key wouldn’t open the lock. We have to stay and wait for the clerk, not even maintenance to figure out what’s wrong. She figured it was the batteries.Now the key seemed to have a mind of its own. Decides when to open the door or not! That was stress already.Next, I was sanitizing the room e.g. phones, tv remote,etc. I checked my bed and there it was - I think dead bugs! I don’t have time to complain and asked the sheets be changed since I was so dead tired. It was the most uncomfortable night in a hote.The shower’s hot water takes time to set in. Also, there are 2 bottle caps stuck on the room’s ceiling. I was afraid there’s a hidden camera somewhere.All I can say is stay away from this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 3 weeks ago</t>
+  </si>
+  <si>
+    <t>Stayed in this hotel. I cannot think of anything positive to say on this hotel. Our room key wouldn’t open the lock. We have to stay and wait for the clerk, not even maintenance to figure out what’s wrong. She figured it was the batteries.Now the key seemed to have a mind of its own. Decides when to open the door or not! That was stress already.Next, I was sanitizing the room e.g. phones, tv remote,etc. I checked my bed and there it was - I think dead bugs! I don’t have time to complain and asked the sheets be changed since I was so dead tired. It was the most uncomfortable night in a hote.The shower’s hot water takes time to set in. Also, there are 2 bottle caps stuck on the room’s ceiling. I was afraid there’s a hidden camera somewhere.All I can say is stay away from this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r602781292-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>602781292</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>Horrible place with a manager that is not willing to provide a minimum amount of service:  AVOID</t>
+  </si>
+  <si>
+    <t>Arrived at the wrong Extended Stay LAX and while trying to figure the situation out (IN THE LOCKED LOBBY) someone lifted my IPAD out of my carryon bag Monday July 30.  Did not figure it out until I arrived minutes later at the other Extended Stay Lax in El Segundo.  Filed a police report and have called the front desk to pull the security camera data and asked the MGR Rick Orozco to call me 3 days in a row.  Front desk people assured me they had my message and phone and that he was not available.  NO CALL  -- NO APOLOGY --- NO HELP --- NO NOTHING.  What a truly horrible place.  Now that I am home I will also contact the head of Extended Stay Franchise.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Responded 4 weeks ago</t>
+  </si>
+  <si>
+    <t>Arrived at the wrong Extended Stay LAX and while trying to figure the situation out (IN THE LOCKED LOBBY) someone lifted my IPAD out of my carryon bag Monday July 30.  Did not figure it out until I arrived minutes later at the other Extended Stay Lax in El Segundo.  Filed a police report and have called the front desk to pull the security camera data and asked the MGR Rick Orozco to call me 3 days in a row.  Front desk people assured me they had my message and phone and that he was not available.  NO CALL  -- NO APOLOGY --- NO HELP --- NO NOTHING.  What a truly horrible place.  Now that I am home I will also contact the head of Extended Stay Franchise.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r589986227-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>589986227</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>AWESOME STAY!!!</t>
+  </si>
+  <si>
+    <t>I want to start off with my stay was PERFECT! We are in a small transition of moving from AZ to CA and the move can be stressful. When we arrived Rick was attentive in getting us checked in early and having bottom floor for our family. Anything our family needed Rick and his staff was on point! All the staff from cleaning, maintenance, to front desk was extremely accommodating and very friendly! I don’t understand how some people can not give anything better that a 10 rating! Thank you again Los Angeles Airport Location!Sincerely,Brandy S.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded June 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2018</t>
+  </si>
+  <si>
+    <t>I want to start off with my stay was PERFECT! We are in a small transition of moving from AZ to CA and the move can be stressful. When we arrived Rick was attentive in getting us checked in early and having bottom floor for our family. Anything our family needed Rick and his staff was on point! All the staff from cleaning, maintenance, to front desk was extremely accommodating and very friendly! I don’t understand how some people can not give anything better that a 10 rating! Thank you again Los Angeles Airport Location!Sincerely,Brandy S.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r579090208-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
-    <t>32655</t>
-  </si>
-  <si>
-    <t>84224</t>
-  </si>
-  <si>
     <t>579090208</t>
   </si>
   <si>
@@ -180,9 +267,6 @@
     <t>May 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 9, 2018</t>
   </si>
   <si>
@@ -192,9 +276,6 @@
     <t>Showed up at 1pm after making a booking weeks in advance, told there was no room for us, not given any real explanation. We'd been moved to a hotel without our consent in a completely different location even though we'd requested this hotel for a specific purpose. The girl behind the counter was completely indifferent. What a kick in the guts, I hope you guys go out of business for acting so unethically.More</t>
   </si>
   <si>
-    <t>Breanna H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r551399701-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -225,9 +306,6 @@
     <t>The room and bathroom were clean and the employees were friendly. The kitchenette can be supplied with dishes at an extra cost. I do love that they had a full refrigerator and microwave. Breakfast was mostly Grab-and-Go of coffee or instant oatmeal. I was only disappointed with the comfort of the beds (mostly thin), the slow free Internet, and my special request couldn't be fulfilled by a 5pm check-in. You also have to pay for parking.More</t>
   </si>
   <si>
-    <t>Rocky M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r550533044-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -255,7 +333,55 @@
     <t>The facility looks fairly new. The lobby smell like new carpet which was encouraging. The hotel was clean and neat. The decor was nice and modern. The beds were comfortable. The kitchenette was useful. More</t>
   </si>
   <si>
-    <t>H9225GMdanam</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r544350778-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>544350778</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>Extended Stay LAX</t>
+  </si>
+  <si>
+    <t>Great Hotel...Everyone should try and stay there. I enjoyed the staff. It was always clean.     And the General Manager  was always there when I needed them. I wish there was a pool there. I enjoyed the Breakfast Bar daily.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Responded December 1, 2017</t>
+  </si>
+  <si>
+    <t>Great Hotel...Everyone should try and stay there. I enjoyed the staff. It was always clean.     And the General Manager  was always there when I needed them. I wish there was a pool there. I enjoyed the Breakfast Bar daily.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r540818904-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>540818904</t>
+  </si>
+  <si>
+    <t>11/13/2017</t>
+  </si>
+  <si>
+    <t>Avoid</t>
+  </si>
+  <si>
+    <t>This hotel is a bust.  While most booking sites say the hotel has free parking, we were told at check-in that parking would be an additional $15.  On top of that, there was only one available space in the lot, and it was located 200 yards from our room.  The beds are tiny and the walls are paper thin.  Spend the extra money and stay at a reputable hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded November 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 14, 2017</t>
+  </si>
+  <si>
+    <t>This hotel is a bust.  While most booking sites say the hotel has free parking, we were told at check-in that parking would be an additional $15.  On top of that, there was only one available space in the lot, and it was located 200 yards from our room.  The beds are tiny and the walls are paper thin.  Spend the extra money and stay at a reputable hotel.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r536152903-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -276,9 +402,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>00esa, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 26, 2017</t>
   </si>
   <si>
@@ -288,9 +411,6 @@
     <t>Would not recommend..... Some of staff very unprofessional....and rude. cleanliness not the best....  more like a motel feel than a hotel. Needs a lot of upgrades. There's other hotels in the area I would definitely recommend. More</t>
   </si>
   <si>
-    <t>Javari M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r535253312-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -318,9 +438,6 @@
     <t>Stay saw something red on the comforter pulled the sheets back to see urine stains all in the bed follows by globs of hair moved rooms to find another room not up to standards pillows also had yellow stains Filthy, disgusting, nasty rooms More</t>
   </si>
   <si>
-    <t>pattyc903</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r529249153-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -348,7 +465,55 @@
     <t>Staff very friendly, courteous, and helpful. Full size fridge, stove, and microwave. We requested toaster and coffee pot and were given them free of charge. Location ok as it was close to the 405. Room was good.... clean, bed comfortable.. and it was quiet. I got exactly what I expected... was pleased.. and will stay there again. Only disappointment: TV smaller than I would expect and just the 'usual suspect' channels.  Was hoping for 'on demand' options but know next time to take laptop and watch Netflix:)More</t>
   </si>
   <si>
-    <t>Guy B</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r525029280-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>525029280</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Barren room : no coffee maker, no water </t>
+  </si>
+  <si>
+    <t>For a room that cost USD 202.27 per night, I'm surprise it has nothing to welcome a weary traveller. The refrigerator and cupboards are completely empty. At the very least, a hotel room should have 2 bottle of mineral water. Ideally, it should have a coffee maker. Remove the fridge, desk, and drawers if need be to remain cost competitive, but provide complimentary water and coffee. Come to think of it, even the gratis wifi is not as necessary as water.The only value proposition is free parking and relatively quiet neighborhood. There's also Westfield and several diners 1 km down the road on sepulveda blvd. MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded September 17, 2017</t>
+  </si>
+  <si>
+    <t>For a room that cost USD 202.27 per night, I'm surprise it has nothing to welcome a weary traveller. The refrigerator and cupboards are completely empty. At the very least, a hotel room should have 2 bottle of mineral water. Ideally, it should have a coffee maker. Remove the fridge, desk, and drawers if need be to remain cost competitive, but provide complimentary water and coffee. Come to think of it, even the gratis wifi is not as necessary as water.The only value proposition is free parking and relatively quiet neighborhood. There's also Westfield and several diners 1 km down the road on sepulveda blvd. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r508566653-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>508566653</t>
+  </si>
+  <si>
+    <t>08/03/2017</t>
+  </si>
+  <si>
+    <t>Filthy  rooms</t>
+  </si>
+  <si>
+    <t>The bad odor in the room was awfulThe bathrooms had strong urine smell.Dirty socks from previous guests!!I will not recommend this hotel to anyone. The only positive from this experience were the two young ladies at the front desk. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded August 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 4, 2017</t>
+  </si>
+  <si>
+    <t>The bad odor in the room was awfulThe bathrooms had strong urine smell.Dirty socks from previous guests!!I will not recommend this hotel to anyone. The only positive from this experience were the two young ladies at the front desk. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r507507187-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -378,9 +543,6 @@
     <t>I love the staff and the way they treat their guest...It's clean and quiet. I could stay forever! The Manager Rick was nice and the Housekeeping staff were very good. The front desk was always there to help.More</t>
   </si>
   <si>
-    <t>P8052TNcarlosc</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r499825175-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -408,7 +570,28 @@
     <t>I really liked the front desk people. They make your life easier and you feel comfortable.  I stayed for about 44 days. I slept very comfortable. The beds could be bigger but it was nice anyway.  I liked the kitchen. Very convenient and I could set up my home style in there.More</t>
   </si>
   <si>
-    <t>668percivalv</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r498087705-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>498087705</t>
+  </si>
+  <si>
+    <t>07/02/2017</t>
+  </si>
+  <si>
+    <t>Extended LAX</t>
+  </si>
+  <si>
+    <t>Everything was great except the 2 elevators inside the hotel. One was down and the other had issues. On the day of check out both were out of service and one was being worked on. A great workout if your room is on the fourth floor.MoreShow less</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded July 3, 2017</t>
+  </si>
+  <si>
+    <t>Everything was great except the 2 elevators inside the hotel. One was down and the other had issues. On the day of check out both were out of service and one was being worked on. A great workout if your room is on the fourth floor.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r496732534-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -435,7 +618,58 @@
     <t>This location was fantastic!!! The staff were all very friendly &amp; very accommodating. The GM did an excellent job in training all his team members. The rooms were very clean. A very safe place to spend vacation or long stay.More</t>
   </si>
   <si>
-    <t>Corn15</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r486355763-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>486355763</t>
+  </si>
+  <si>
+    <t>05/22/2017</t>
+  </si>
+  <si>
+    <t>Don't go there</t>
+  </si>
+  <si>
+    <t>What a dissapointment this hotel was. I booked there because I already booked before on other hotels of the same chain, but evidently they don't have the same quality standards for all of their hotels. Filthy (very), smelly, poorly managed, too few employees, and most of them very rude and disrespectful, although there were some notable exceptions in the front desk. I will never return, that's for sure.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 22, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2017</t>
+  </si>
+  <si>
+    <t>What a dissapointment this hotel was. I booked there because I already booked before on other hotels of the same chain, but evidently they don't have the same quality standards for all of their hotels. Filthy (very), smelly, poorly managed, too few employees, and most of them very rude and disrespectful, although there were some notable exceptions in the front desk. I will never return, that's for sure.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r484231676-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>484231676</t>
+  </si>
+  <si>
+    <t>05/14/2017</t>
+  </si>
+  <si>
+    <t>Review of 3 months at Extended Stay America LAX - Smelly Rooms and Filthy Carpets</t>
+  </si>
+  <si>
+    <t>Poorly maintained carpets - don't feel very clean. Smelly bathrooms (musty and fungi like things at the drain hole in the bathtub).Back breaking bed - not firm, feels more like a poorly designed hammock.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 15, 2017</t>
+  </si>
+  <si>
+    <t>Poorly maintained carpets - don't feel very clean. Smelly bathrooms (musty and fungi like things at the drain hole in the bathtub).Back breaking bed - not firm, feels more like a poorly designed hammock.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r484155971-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -444,30 +678,15 @@
     <t>484155971</t>
   </si>
   <si>
-    <t>05/14/2017</t>
-  </si>
-  <si>
     <t>Nice hotel good location</t>
   </si>
   <si>
     <t>Nice hotel. The location was good. A westfield mall is nearby. You can even walk to it. Fot the evenings you can go to a nearby movie theater. Hotel was clean. Kitchen was ok.Only the parking fee is strange at this location.Rooms are noisy.MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t>00esa, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 15, 2017</t>
-  </si>
-  <si>
-    <t>Responded May 15, 2017</t>
-  </si>
-  <si>
     <t>Nice hotel. The location was good. A westfield mall is nearby. You can even walk to it. Fot the evenings you can go to a nearby movie theater. Hotel was clean. Kitchen was ok.Only the parking fee is strange at this location.Rooms are noisy.More</t>
   </si>
   <si>
-    <t>Kizgr8</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r473711069-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -495,9 +714,6 @@
     <t>For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There...For the price this is not a good deal because you also have to pay a hefty parking fee. It's not like you can stay in LA without needing a car. But it is one of only a few places that have a kitchenette. The first room we had was on the first floor facing the parking lot so that cars were parked immediately in front of our windows. At 8 in the morning a car pulls up blasting loud music that continued until I called the desk to ask them to stop. No more than 3 minutes after the music stopped they cranked back up again. Apparently the management couldn't keep this under control. Also as this hotel  is supposed to have kitchen facilities be aware that it does not come stocked and does not have an oven nor toaster oven. Instead you have to ask for the supplies which were not delivered until the next day and was incomplete. I suspect they really don't want you to use the kitchen. In our second room, on the third floor, the windows would not open or close. The AC didn't work well in either room. The beds were adequate but certainly not comfy. During the whole time we were there only one elevator worked and the repairs were disturbing our sleep in the morning. The foyer is very dingy and not welcoming and the entrance in not ADA compliant. There are two very heavy and awkward doors that do not have any automatic features and there isn't any bellhop assistant available. Now the pluses. The staff were pleasant and the continental breakfast was acceptable. The breakfast included coffee, tea, hot chocolate, muffins, and oatmeal. Often the coffee ran out but the staff were fairly good about making more when they were asked.More</t>
   </si>
   <si>
-    <t>Wine_Venture</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r468897906-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -513,7 +729,37 @@
     <t>Maybe this place is worth it for long stays if you bring your own everything but pretty much anything is better if you just need a decent place to stay for a night.Uncomfortable bed-- cheap linens, hard mattress, flat pillows. Exactly what you don't want in a hotel.Shoddily put together. You can tell they don't care... the bathroom mirror wasn't even over the sink which made shaving very inconvenient. There wasn't even a soap dish.No comforts at all... no shampoo or conditioner. Rough towels. Only even got one disposable plastic water cup. "Breakfast" was granola bars and bad coffee. Literally nothing else.</t>
   </si>
   <si>
-    <t>Gretchen M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r442011576-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>442011576</t>
+  </si>
+  <si>
+    <t>12/04/2016</t>
+  </si>
+  <si>
+    <t>Dirty smelly room</t>
+  </si>
+  <si>
+    <t>First room I got the windows didn't close so I was worried about my safety and change to another, the next room smelled terrible and had dirty towels and coffee all over the floor. Did not want to keep changing rooms so I just took that one however it took 4 attempts of asking it to be cleaned for it to actually be cleaned 6 days after check in</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r437940761-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>437940761</t>
+  </si>
+  <si>
+    <t>11/16/2016</t>
+  </si>
+  <si>
+    <t>2 night stay 3 different rooms</t>
+  </si>
+  <si>
+    <t>1st room wasn't clean, walked into an unmade bed and dirty room. 2nd room was definitely a smoking room, and smoking floor. She said she could come and spray it for us...3rd room was OK, very hard mattress and no cups, glasses, or stocked kitchen. The front desk kept blaming the system, but they were very friendly. I did not win any points from my wife for picking this hotel.I won't be back.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r435203579-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -531,15 +777,9 @@
     <t>First of all, thank goodness we verified our reservation by phone before arriving. Our booking.com reservation was not in their system.Upon arriving there were other guests who also did not have their reservations in the system but they have not called ahead. The front desk seemed to be having difficulty getting them their rooms.Meanwhile, we were assigned to a room that had not yet been cleaned. We went back to the front desk and requested a different room and were sent to one that had been a smoking room previously. They assured us it was not a smoking room but I beg to differ. Kitchens are not stocked as a rule but dishes must be requested. We have not found this to be the case in other extended stay America hotels.Overall room condition is average at best. Nothing spectacular but a comfortable firm bed and a quiet environment. Location is excellent, walking distance to food and entertainment.Check around, there may be better choices in this area.MoreShow less</t>
   </si>
   <si>
-    <t>November 2016</t>
-  </si>
-  <si>
     <t>First of all, thank goodness we verified our reservation by phone before arriving. Our booking.com reservation was not in their system.Upon arriving there were other guests who also did not have their reservations in the system but they have not called ahead. The front desk seemed to be having difficulty getting them their rooms.Meanwhile, we were assigned to a room that had not yet been cleaned. We went back to the front desk and requested a different room and were sent to one that had been a smoking room previously. They assured us it was not a smoking room but I beg to differ. Kitchens are not stocked as a rule but dishes must be requested. We have not found this to be the case in other extended stay America hotels.Overall room condition is average at best. Nothing spectacular but a comfortable firm bed and a quiet environment. Location is excellent, walking distance to food and entertainment.Check around, there may be better choices in this area.More</t>
   </si>
   <si>
-    <t>ladyofdestiny</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r431278376-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -558,9 +798,6 @@
     <t>October 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded November 1, 2016</t>
   </si>
   <si>
@@ -570,9 +807,6 @@
     <t>had to book a last minute reservation and I can't say I was disappointed I used it for sleeping and showering as I was out most of the day!  it was a centralized location to most of my travel, nearest the airport and it was within walking distance of a movie theater and mini mall with eateries.More</t>
   </si>
   <si>
-    <t>Stephanie W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r429563806-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -588,7 +822,49 @@
     <t>The staff was super friendly - however the room just totally turned me off... the fridge was so disgusting &amp; a total eye sore. It really brought the value of the room down. It should either be replaced or thoroughly bleached &amp; cleaned (:</t>
   </si>
   <si>
-    <t>SoLady_13</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r426199513-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>426199513</t>
+  </si>
+  <si>
+    <t>10/08/2016</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Dirty, disgusting rooms. Refrigerator had huge stain on the front of it. Big burner on electric stove did not work at all. Had to beg for any utensils for 'kitchen'. Claimed that they did not have dish soap even though my coworker got some. 2 of each item was all that was given out (2 forks, 2 spoons, 2 knives), 1 pot, no frying pan, no spatula.Clean up of rooms was Wednesday according to manager at check in, didn't come until Thursday and ignored Do not disturb signs. Manager had the gall to wake me up because I had a paper trash bag outside of my room until I got dressed to take it to the trash room. Like the maids couldn't do it? 'Breakfast' is granola bars and coffee. Charged for 4 cars instead of 3. Avoid avoid avoid. Wi Fi is awful, paid for the upgraded speed, barely got more than 3 down and .7 upMoreShow less</t>
+  </si>
+  <si>
+    <t>Dirty, disgusting rooms. Refrigerator had huge stain on the front of it. Big burner on electric stove did not work at all. Had to beg for any utensils for 'kitchen'. Claimed that they did not have dish soap even though my coworker got some. 2 of each item was all that was given out (2 forks, 2 spoons, 2 knives), 1 pot, no frying pan, no spatula.Clean up of rooms was Wednesday according to manager at check in, didn't come until Thursday and ignored Do not disturb signs. Manager had the gall to wake me up because I had a paper trash bag outside of my room until I got dressed to take it to the trash room. Like the maids couldn't do it? 'Breakfast' is granola bars and coffee. Charged for 4 cars instead of 3. Avoid avoid avoid. Wi Fi is awful, paid for the upgraded speed, barely got more than 3 down and .7 upMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r413717611-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>413717611</t>
+  </si>
+  <si>
+    <t>09/01/2016</t>
+  </si>
+  <si>
+    <t>Good Stay</t>
+  </si>
+  <si>
+    <t>I stayed on the 4th floor at this hotel for one night in Aug. 2016 because I had a conference to attend nearby early the next morning. While it's not a fancy place, my experience there was good.Based on my stay: friendly, helpful staff; a clean room throughout; very quiet the entire evening and all through the night; a comfortable bed, everything was in good, working order (iron, water pressure, TV, A/C, fridge, wifi, etc.). Again, nothing was fancy about any of it, but everything was otherwise solid. The receptionist informed me that the rooms aren't stocked by default with the kitchen accessories, that I can simply request them and they'll be delivered to my room at any time. I don't see any problems with this policy. I didn't attempt to grab the provided breakfast, use the gym, or use the laundry room, so I can't comment on those.The only way I wouldn't recommend this place is if you're looking for "luxurious" or "resort" accommodations. Otherwise, my experience there was solid and I wouldn't hesitate to stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 12, 2016</t>
+  </si>
+  <si>
+    <t>I stayed on the 4th floor at this hotel for one night in Aug. 2016 because I had a conference to attend nearby early the next morning. While it's not a fancy place, my experience there was good.Based on my stay: friendly, helpful staff; a clean room throughout; very quiet the entire evening and all through the night; a comfortable bed, everything was in good, working order (iron, water pressure, TV, A/C, fridge, wifi, etc.). Again, nothing was fancy about any of it, but everything was otherwise solid. The receptionist informed me that the rooms aren't stocked by default with the kitchen accessories, that I can simply request them and they'll be delivered to my room at any time. I don't see any problems with this policy. I didn't attempt to grab the provided breakfast, use the gym, or use the laundry room, so I can't comment on those.The only way I wouldn't recommend this place is if you're looking for "luxurious" or "resort" accommodations. Otherwise, my experience there was solid and I wouldn't hesitate to stay again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r413255306-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -609,9 +885,6 @@
     <t>September 2015</t>
   </si>
   <si>
-    <t>Eric B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r405168984-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -627,12 +900,6 @@
     <t>Given LA traffic we decided to stay at an airport hotel to facilitate check-in. Others likely had similar ideas and lots of nearby hotels we checked were fully booked. Nothing exceptional about this place: "functional - and expensive" for what is provided best describes this experience. Breakfast consists of (just a) coffee and a muffin. The parking fee is ($15 a night we were told) is outrageous.</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
-    <t>640faym</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r391741955-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -660,7 +927,52 @@
     <t>I just can't believe this Extended Stay America wanted a $50 a night parking fee.  Parking should come with your stay.  This outraged me.  Don't pay the fee, get upset and let them know about it.  They finally did waive the fee for us.More</t>
   </si>
   <si>
-    <t>puremega</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r387033786-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>387033786</t>
+  </si>
+  <si>
+    <t>06/28/2016</t>
+  </si>
+  <si>
+    <t>Quick Trip</t>
+  </si>
+  <si>
+    <t>We tried to get a hotel near LAX with a reasonable price, but were unable to.  So I tried Priceline and took a chance on a hidden property, and came up with this Extended Stay Hotel.  We had never stayed at one before.The Reviews we read were not favorable.  But we were stuck because of choosing the hidden property.  Actually, this was not a bad hotel.  If you can stand not having maid service everyday, meaning your bed made and linens changed, it really wasn't bad.   The property was near a Ralphs Grocery store, IHOP and other restaurants and was10 minutes from LAX.No inroom coffee and "BREAKFAST" was muffins in plastic.  TV did not have a lot of choices, so  if you have children, don't expect Disney ChannelMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>We tried to get a hotel near LAX with a reasonable price, but were unable to.  So I tried Priceline and took a chance on a hidden property, and came up with this Extended Stay Hotel.  We had never stayed at one before.The Reviews we read were not favorable.  But we were stuck because of choosing the hidden property.  Actually, this was not a bad hotel.  If you can stand not having maid service everyday, meaning your bed made and linens changed, it really wasn't bad.   The property was near a Ralphs Grocery store, IHOP and other restaurants and was10 minutes from LAX.No inroom coffee and "BREAKFAST" was muffins in plastic.  TV did not have a lot of choices, so  if you have children, don't expect Disney ChannelMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r366069784-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>366069784</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Not up to our standards</t>
+  </si>
+  <si>
+    <t>Really, a poorly run hotel, with unprofessional staff, dirty rooms and ill equipped to meet anyone's needs in this price range. No pots or pans, cutlery or otherwise to even boil water. Bed mattress was covered in plastic sheet and most uncomfortable. Never slept well at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 23, 2016</t>
+  </si>
+  <si>
+    <t>Really, a poorly run hotel, with unprofessional staff, dirty rooms and ill equipped to meet anyone's needs in this price range. No pots or pans, cutlery or otherwise to even boil water. Bed mattress was covered in plastic sheet and most uncomfortable. Never slept well at all.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r364848586-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -678,9 +990,6 @@
     <t>Great hotel with a Ralph's, restaurants and shopping within a minute of the easy to find location. Parking was plentiful and the room was as expected. Julie was a very friendly clerk on check in. The only negative was the "grab and go breakfast" which was really just packaged muffins and granola bars plus a couple of oranges.MoreShow less</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 27, 2016</t>
   </si>
   <si>
@@ -690,9 +999,6 @@
     <t>Great hotel with a Ralph's, restaurants and shopping within a minute of the easy to find location. Parking was plentiful and the room was as expected. Julie was a very friendly clerk on check in. The only negative was the "grab and go breakfast" which was really just packaged muffins and granola bars plus a couple of oranges.More</t>
   </si>
   <si>
-    <t>babydolle</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r352160004-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -720,9 +1026,6 @@
     <t>Had a weekend recharge here. Very  clean,  friendly staff , and comfortable. Excellent value for the price, accommodations , wonderful all - around.A nice view in Culver city. I provided most of my own things, as I was well prepared for my weekend getaway.More</t>
   </si>
   <si>
-    <t>Shane G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r350626979-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -750,7 +1053,37 @@
     <t>I was on a budget and booked through Priceline for 3 nights (Sept. 25 till Sept 28). I am still here at the hotel while writing this review.  I must say that I am very happy with my room wth a small kitchen, and its cleanliness.  It is surprisingly quiet too.The staff provides excellent customer service.  Very polite, prompt, and always there to provide me with anything I need for my room. The location is tops. Access to bus lines and surrounded by malls and restaurants. The only thing they can improve on is the quality of the pillows. Wish they were larger and fluffier.  Breakfast just consists of snacks but I have no complains.  Orherwise this well managed hotel is a good deal.More</t>
   </si>
   <si>
-    <t>Richard P</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r347986596-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>347986596</t>
+  </si>
+  <si>
+    <t>02/15/2016</t>
+  </si>
+  <si>
+    <t>deception</t>
+  </si>
+  <si>
+    <t>I booked this hotel through hotels.com for 1 night for the LA Marathon.  I booked it in advance and paid for it in full as well.  Was staying the one night to run the Marathon for 31 yrs in a row.  Upon arriving to check in the hotel staff cancelled my room.  I then received an email regarding the cancellation.  No reason was given nor any refund.  Hotels.com did their best to help find another room but since it was a very busy Marathon weekend there were NO rooms available in the vicinity.  My poor husband spent hrs driving around the area looking for a vacancy, but not a room to be found.  Ended up sleeping in his car at a park before having to get up a 3am and drive around to find an open diner to get breakfast before having to arrive at dodger stadium by 5am to shuttle, stretch and mentally prepare to run 26.2 miles for the 31st year in a row!  NEVER in my lifetime have I EVER booked a hotel room and PAID for it to have it cancelled upon check in.  No one can/will provide me with an explanation from the Hotel Manager to Corporate offices.  I got empty apologies and promises of calls not returned.MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel through hotels.com for 1 night for the LA Marathon.  I booked it in advance and paid for it in full as well.  Was staying the one night to run the Marathon for 31 yrs in a row.  Upon arriving to check in the hotel staff cancelled my room.  I then received an email regarding the cancellation.  No reason was given nor any refund.  Hotels.com did their best to help find another room but since it was a very busy Marathon weekend there were NO rooms available in the vicinity.  My poor husband spent hrs driving around the area looking for a vacancy, but not a room to be found.  Ended up sleeping in his car at a park before having to get up a 3am and drive around to find an open diner to get breakfast before having to arrive at dodger stadium by 5am to shuttle, stretch and mentally prepare to run 26.2 miles for the 31st year in a row!  NEVER in my lifetime have I EVER booked a hotel room and PAID for it to have it cancelled upon check in.  No one can/will provide me with an explanation from the Hotel Manager to Corporate offices.  I got empty apologies and promises of calls not returned.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r346440582-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>346440582</t>
+  </si>
+  <si>
+    <t>02/09/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing the basics. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This place charges rates similar to other hotels, but doesn't have the basics. It has a kitchenette, but no coffee pot, dishes or silverware. There is no ice machine. When I asked for ice they said they provide ice cube trays in the freezer, but they were empty. The ice downstairs is for employees but they could give me some (clearly an inconvenience). Maybe this would be ok for a longer stay, but it's not good for a one or two night stay. Manager was rude. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r337299665-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -778,9 +1111,6 @@
   </si>
   <si>
     <t>The room was clean and in decent working order. The bathroom door did not close or lock, but it was not a major problem for us. The bed was ok, but not something to complain too much about. most importantly i felt safe and our automobile was secure. Other than that I would stay there again if needed. Would like a better breakfast with coffee.More</t>
-  </si>
-  <si>
-    <t>mannygoesplaces</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r315186585-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -815,9 +1145,6 @@
 Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were...If you take a look at my last few reviews you will see that I have recently stayed at a few ESA in the Los Angeles area. The two reasons I continue to stay at ESA's is listed in the title: Economy and Convenience.This was not unlike the others we stayed at, except for the poor maintenance of the facility when compared to the other ESA we have stayed at.I like to start positive so as far as location is concerned this ESA is very easy to get to from the 405 freeway and relatively close to LAX and Westside LA as well as Santa Monica. If you are visiting and have a car, all that is on the westside of Los Angeles is close by.Dinah's diner is literally next to this ESA. This is a great spot to get home style comfort food in Los Angeles along with their specialty: Fried Chicken:)The staff that greeted us and checked us in and out were very helpful and accommodated our much needed coffee request. Thank you Reyna for your positive attitude and helpfulness!After the good must come the bad :(We stayed on the third floor: room 336 which is on the far east end of the third floor, closest to Sepulveda Blvd and the stairway.Third floor emergency lights in the hallway: the two fixtures that we passed on the way to the room were broken. Not a good feeling if an emergency were to occur.In the room (336) the following items caught my eye as maintenance issues with the room:1. the tub constantly dripped: terrible, considering the CA drought that has been going on for 4 years now2. the sink stopper in the bathroom sink was missing: do not drop anything in the sink, you might not get it back3. one of the windows does not close: for perspective I am 6-1 240 pounds and consider myself stronger than the average guy. I struggled to close the window I was able to close and was unable to close the second one. I may not be doing something right but if so the cleaning people were also unable to close the window since it was open when we got in the room and I doubt they would knowingly leave the window open with the A/C running full blast.4. the fridge doors are on backwards: extremely inconvenient considering the tight space in the room, and a relative quick fix.5. the bed is extremely hard and uncomfortable: compared to our other recent stays at ESA brand this room had a bed that made it difficult for me to sleep.I would hope that others do not have the similar misfortune of getting a room with as many issues as we had. Compared to other ESA's this one was very disappointing but still the most economic choice given the location. However, for the poor experience I do believe it was overpriced even with the 20% discount.More</t>
   </si>
   <si>
-    <t>TonyaOnATrip</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r300932316-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -842,7 +1169,53 @@
     <t>I stayed here for a business conference. The conference hotel sold out if rooms and this was the closet available hotel. The staff that I interacted with was friendly, however there were long periods of time where there was no one at the front desk. This required several trips to the front desk for towels. The room needed a bit of maintenance...graffiti scratched into the brass lamp plate, broken shelf in the closet. It seemed fairly clean. The "grab &amp; go" breakfast was frequently cleaned out by 0745 and there was one morning the coffee wasn't out by 0730. There is no gym or pool in this hotel, if you are wanting that. I did use the laundry facilities, which were fine.More</t>
   </si>
   <si>
-    <t>Litta22</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r285925902-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>285925902</t>
+  </si>
+  <si>
+    <t>07/05/2015</t>
+  </si>
+  <si>
+    <t>Home Away from Home but Overpriced</t>
+  </si>
+  <si>
+    <t>Stayed for one week at the end of June since I needed a home away from home after selling my house. Hotel had everything I was looking for, was close to my job and very quiet. It's next door to Dinah's (fried chicken) and Viva Fresh (Mexican food, beer). If you're hungry and don't feel like driving. Westfield Culver City is 2 blocks away. More eateries and a movie theater are across the street in Howard Hughes Center--a slightly uphill walk. Beds were soft and comfortable but might give you a backache if you need a firm mattress. I liked having my own ice cube trays, fridge, microwave and gas stove. The 2nd floor windows also open so that you can get fresh air.
+Know before you go: 1) Kitchenette items such as pots, pans, dish drainer, coffee maker, utensils, dishes, etc. won't be in your room. You must request them at the front desk. 2) Wi-fi is $5/day. 3) Breakfast is "grab-n-go" so there's coffee/tea, juice, oatmeal, fresh fruit and various granola/oat bars only. 4) Housekeeping enters your room just once a week--which you'll either love or hate. If you need fresh towels or bed linens changed outside of that, you have to ask. 5) Save $$ by booking far in advance or find a special coupon/promotion. 6) No pool or gym. 7) Very convenient/close to LAX but distant enough to avoid all the airport noise and traffic.
+It...Stayed for one week at the end of June since I needed a home away from home after selling my house. Hotel had everything I was looking for, was close to my job and very quiet. It's next door to Dinah's (fried chicken) and Viva Fresh (Mexican food, beer). If you're hungry and don't feel like driving. Westfield Culver City is 2 blocks away. More eateries and a movie theater are across the street in Howard Hughes Center--a slightly uphill walk. Beds were soft and comfortable but might give you a backache if you need a firm mattress. I liked having my own ice cube trays, fridge, microwave and gas stove. The 2nd floor windows also open so that you can get fresh air.Know before you go: 1) Kitchenette items such as pots, pans, dish drainer, coffee maker, utensils, dishes, etc. won't be in your room. You must request them at the front desk. 2) Wi-fi is $5/day. 3) Breakfast is "grab-n-go" so there's coffee/tea, juice, oatmeal, fresh fruit and various granola/oat bars only. 4) Housekeeping enters your room just once a week--which you'll either love or hate. If you need fresh towels or bed linens changed outside of that, you have to ask. 5) Save $$ by booking far in advance or find a special coupon/promotion. 6) No pool or gym. 7) Very convenient/close to LAX but distant enough to avoid all the airport noise and traffic.It was clean but outdated and could definitely use some sprucing up. If you want more gloss and polish or need a pool or modern business center, there are more updated hotels in the area around the same price point. I was pleased with my quiet, restful stay overall. I could've stayed longer if it weren't so pricey.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 16, 2015</t>
+  </si>
+  <si>
+    <t>Stayed for one week at the end of June since I needed a home away from home after selling my house. Hotel had everything I was looking for, was close to my job and very quiet. It's next door to Dinah's (fried chicken) and Viva Fresh (Mexican food, beer). If you're hungry and don't feel like driving. Westfield Culver City is 2 blocks away. More eateries and a movie theater are across the street in Howard Hughes Center--a slightly uphill walk. Beds were soft and comfortable but might give you a backache if you need a firm mattress. I liked having my own ice cube trays, fridge, microwave and gas stove. The 2nd floor windows also open so that you can get fresh air.
+Know before you go: 1) Kitchenette items such as pots, pans, dish drainer, coffee maker, utensils, dishes, etc. won't be in your room. You must request them at the front desk. 2) Wi-fi is $5/day. 3) Breakfast is "grab-n-go" so there's coffee/tea, juice, oatmeal, fresh fruit and various granola/oat bars only. 4) Housekeeping enters your room just once a week--which you'll either love or hate. If you need fresh towels or bed linens changed outside of that, you have to ask. 5) Save $$ by booking far in advance or find a special coupon/promotion. 6) No pool or gym. 7) Very convenient/close to LAX but distant enough to avoid all the airport noise and traffic.
+It...Stayed for one week at the end of June since I needed a home away from home after selling my house. Hotel had everything I was looking for, was close to my job and very quiet. It's next door to Dinah's (fried chicken) and Viva Fresh (Mexican food, beer). If you're hungry and don't feel like driving. Westfield Culver City is 2 blocks away. More eateries and a movie theater are across the street in Howard Hughes Center--a slightly uphill walk. Beds were soft and comfortable but might give you a backache if you need a firm mattress. I liked having my own ice cube trays, fridge, microwave and gas stove. The 2nd floor windows also open so that you can get fresh air.Know before you go: 1) Kitchenette items such as pots, pans, dish drainer, coffee maker, utensils, dishes, etc. won't be in your room. You must request them at the front desk. 2) Wi-fi is $5/day. 3) Breakfast is "grab-n-go" so there's coffee/tea, juice, oatmeal, fresh fruit and various granola/oat bars only. 4) Housekeeping enters your room just once a week--which you'll either love or hate. If you need fresh towels or bed linens changed outside of that, you have to ask. 5) Save $$ by booking far in advance or find a special coupon/promotion. 6) No pool or gym. 7) Very convenient/close to LAX but distant enough to avoid all the airport noise and traffic.It was clean but outdated and could definitely use some sprucing up. If you want more gloss and polish or need a pool or modern business center, there are more updated hotels in the area around the same price point. I was pleased with my quiet, restful stay overall. I could've stayed longer if it weren't so pricey.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r277912668-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>277912668</t>
+  </si>
+  <si>
+    <t>06/04/2015</t>
+  </si>
+  <si>
+    <t>Not worth the new prices !</t>
+  </si>
+  <si>
+    <t>I use to love this convenient motel homestead hotel lax just near airport, starbuck coffee, ralph's and 105 freeway BUT since it became an extended stay motel, the prices just went so high that now it s too expensive for the room type and service. It is still well located, but for the same price you can have a better hotel in the same area with bigger room and better bed !!!</t>
+  </si>
+  <si>
+    <t>May 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r273959424-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -860,9 +1233,6 @@
     <t>This is filthy hotel I had bed bugs sleeping with me.Never stay in this place again...The manager was nice about it of course. I was given a free night stay to return to bed bug hotelNo thanks.THE 1st room I had smelled like smoke and had a stich really bad.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded May 29, 2015</t>
   </si>
   <si>
@@ -872,9 +1242,6 @@
     <t>This is filthy hotel I had bed bugs sleeping with me.Never stay in this place again...The manager was nice about it of course. I was given a free night stay to return to bed bug hotelNo thanks.THE 1st room I had smelled like smoke and had a stich really bad.More</t>
   </si>
   <si>
-    <t>Robbie2104</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r273378333-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -899,9 +1266,6 @@
     <t>Very disappointed in this Extended Stay.  The rooms looked and smelled like an institution such as a hospital. Upon entering, I thought someone had been smoking in the room only to learn that it was coming from outside.  They keep a bench for smokers right outside the back door with an ashtray filled with stale, stinking butts. Not sure about front of the building rooms but don't stay in the back if you like clean smelling air. The staff were very helpful and friendly. The value for what you got was very bad.More</t>
   </si>
   <si>
-    <t>jetsetter369</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r255890762-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -929,7 +1293,55 @@
     <t>Check-in was easy and the people were friendly. I personally don't care for Extended Stays because of people hanging out and living there long term. I was only there because I had a free voucher for 1 night and was traveling with my children. It did appear to be in a safe area near shopping and higher education schools; I had no problems. The room was clean but wouldn't have wanted to stay longer than I did. It's a good spot if you don't have other choices.More</t>
   </si>
   <si>
-    <t>nrnevada</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r252009736-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>252009736</t>
+  </si>
+  <si>
+    <t>01/31/2015</t>
+  </si>
+  <si>
+    <t>Best Extended Stay in America</t>
+  </si>
+  <si>
+    <t>Traveling around I have stayed at some very dirty and unsafe extended stay hotels trying to stay without spending much money. This one was very clean, safe neighborhood, and very friendly helpful staff and a good location. It also had a kitchen with pots, pans, plates, and silverware available.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded February 3, 2015</t>
+  </si>
+  <si>
+    <t>Traveling around I have stayed at some very dirty and unsafe extended stay hotels trying to stay without spending much money. This one was very clean, safe neighborhood, and very friendly helpful staff and a good location. It also had a kitchen with pots, pans, plates, and silverware available.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r233210630-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>233210630</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>A home away from home.</t>
+  </si>
+  <si>
+    <t>The service provided by staff was great! We had an F350 King cab truck, and the parking lot had plenty of room. Well lit parking lot made us feel the truck was secure. Kitchenware is delivered to your room upon check in, so we knew it was clean. Powerful shower. Within walking distance to Buffalo Wild Wings, a movie theater, and other restaurants/stores. Close to mall (can walk if desire). The beds were very comfortable. The only negative was the Internet connection IF you are needing to watch a movie for school online; otherwise, for normal use the speed was fine. We will stay here again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2014</t>
+  </si>
+  <si>
+    <t>The service provided by staff was great! We had an F350 King cab truck, and the parking lot had plenty of room. Well lit parking lot made us feel the truck was secure. Kitchenware is delivered to your room upon check in, so we knew it was clean. Powerful shower. Within walking distance to Buffalo Wild Wings, a movie theater, and other restaurants/stores. Close to mall (can walk if desire). The beds were very comfortable. The only negative was the Internet connection IF you are needing to watch a movie for school online; otherwise, for normal use the speed was fine. We will stay here again!!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r231853617-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -950,9 +1362,6 @@
     <t>September 2014</t>
   </si>
   <si>
-    <t>Mukesh C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r226638272-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -980,9 +1389,6 @@
     <t>The hotel is peaceful and properly is located in almost a isolated area. The only saving point is that office is nearer and also, the westfield mall is at walking distance.The breakfast was not up to mark. Room was neat and clean. Internet and TV services were good.Kitchen was good but fire alarm did not allow me to cook anything Indian. :)Staff was helpful. It is not advisable to walk alone outside.More</t>
   </si>
   <si>
-    <t>surfeur34</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r220504205-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -998,7 +1404,49 @@
     <t>The quality is what we pay for!! Room is okay, bathroom is clean. The table and chairs are for two even though the room is for four!!!Coffee, cereals, muffins and fruits are provided freely for a simple breakfast and that is fine. Important mall close to the hotel.</t>
   </si>
   <si>
-    <t>Ben R</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r220159136-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>220159136</t>
+  </si>
+  <si>
+    <t>08/06/2014</t>
+  </si>
+  <si>
+    <t>Clean but that's it</t>
+  </si>
+  <si>
+    <t>As we walked in the room the refrigerator was so loud we had to unplug it.  We should have turned around and left.  The bathtub faucet dripped all night.  Outlets were hanging loose from the wall. They did not supply any shampoo or a blow dryer. If the hotel was less than $100 per night I might not have been surprised, but at over $200, it was definitely not a good experience.. I will never stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 11, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 11, 2014</t>
+  </si>
+  <si>
+    <t>As we walked in the room the refrigerator was so loud we had to unplug it.  We should have turned around and left.  The bathtub faucet dripped all night.  Outlets were hanging loose from the wall. They did not supply any shampoo or a blow dryer. If the hotel was less than $100 per night I might not have been surprised, but at over $200, it was definitely not a good experience.. I will never stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r212034333-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>212034333</t>
+  </si>
+  <si>
+    <t>06/25/2014</t>
+  </si>
+  <si>
+    <t>Service is the worst!!!!!</t>
+  </si>
+  <si>
+    <t>We are at the end of multiple "Stay on us " vouchers....thank god. We received 5 free vouchers for bad service on a road trip from Arizona to Florida last year and all through this process it became clear that this company as really bad management all throughout the company. I have spent my whole life in the hospitality business so Im not just a disgruntled customer I am one with many years of experience in the business. This last stay just takes the cake, we booked two nights with a king room. We checked it and they told us we only book for 1 and......we don't have a king bed. Instead of trying to make us feel better about the issue manager " Michelle" decide to belittle us and tell us we should have checked to confirmation, and it is our responsibility......We decided it was to late to move so we stayed. The room was Extended Stays " normal ok kinda room, then we turned on the A/C.....as it cycled from cool to fan it would click....dozens of time and very loud. From experience I think this is some sort of relay problem. We were told by the same manager....I Quote" Thats what they do"...So here is my response to this company....WE ARE DONE.....don't care if you pay us to stay....TRAIN YOUR PEOPLE!!!!!  It is a LOT cheaper to keep customers than it is to get new ones!MoreShow less</t>
+  </si>
+  <si>
+    <t>We are at the end of multiple "Stay on us " vouchers....thank god. We received 5 free vouchers for bad service on a road trip from Arizona to Florida last year and all through this process it became clear that this company as really bad management all throughout the company. I have spent my whole life in the hospitality business so Im not just a disgruntled customer I am one with many years of experience in the business. This last stay just takes the cake, we booked two nights with a king room. We checked it and they told us we only book for 1 and......we don't have a king bed. Instead of trying to make us feel better about the issue manager " Michelle" decide to belittle us and tell us we should have checked to confirmation, and it is our responsibility......We decided it was to late to move so we stayed. The room was Extended Stays " normal ok kinda room, then we turned on the A/C.....as it cycled from cool to fan it would click....dozens of time and very loud. From experience I think this is some sort of relay problem. We were told by the same manager....I Quote" Thats what they do"...So here is my response to this company....WE ARE DONE.....don't care if you pay us to stay....TRAIN YOUR PEOPLE!!!!!  It is a LOT cheaper to keep customers than it is to get new ones!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r208747321-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1019,9 +1467,6 @@
     <t>April 2014</t>
   </si>
   <si>
-    <t>Bellaroma777</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r185193917-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1049,9 +1494,6 @@
     <t>First, let me say that this property appears to be very clean..no dust or dirt visible.  That being said, since guests can cook in their rooms the management must clean the curtains on the windows and the closet as the grease smell in the room is overpowering despite many attempts even with febreeze to rid my room of old cooking smell. Also, the trash rooms are overflowing with guest's trash (why add any additional smell to the rooms??) and not very welcoming as one has to toss trash onto mounds already there and waiting for pick up. The hallways also carry an old cooking odor and need carpet cleaning perhaps.  If these issues were addressed it would be a top notch extended stay. Staff are helpful and friendly. I am not looking forward to another three nights in my room as I feel like I am in a dirty short order kitchen.More</t>
   </si>
   <si>
-    <t>Tal G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r184438510-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1070,7 +1512,49 @@
     <t>I booked this hotel via Hotwire for my father so I only knew after the booking what it was. The location is good, easy access to the freeway, nice mall close by. The "free" breakfast is a grab and go style breakfast, which was a total joke. That is not breakfast. We ended up going to a diner close by for breakfast. The room was OK, had a strange smell to it, and the nextdoor neighbors were really noisy so we asked to move to a different room. The staff was very nice!Generally, it is a very sketchy hotel. I was actually scared of leaving my dad there alone, do to the "interesting" by-passers that were hanging around the hotel. Something is very off there. I would not recommend this hotel for more than 1 night really.More</t>
   </si>
   <si>
-    <t>kjam4</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r179617163-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>179617163</t>
+  </si>
+  <si>
+    <t>10/03/2013</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Booked a hotwire last minute for culver city and got this hotel.  This hotel was much better than I expected - clean, updated spacious room.Just what we needed after a 11 flight and 2 hours wait at the car rental place. Plenty of spaces to park and easy to find once you've left LAX airport We just used this hotel for a quick over night stay but definitely would of spent longer here given the fact it was better. The only negatives were - the breakfast was advised as continental but when we actually got there it was a cupboard filled with biscuits and muffins in the lobby area(most of them were gone by 9am) and not much choice with tea/coffee. Didn't really matter as Ihop is only 5 mins down the road.No hairdryer in the room but managed to get one from the reception.  Would choice this hotel againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2013</t>
+  </si>
+  <si>
+    <t>Booked a hotwire last minute for culver city and got this hotel.  This hotel was much better than I expected - clean, updated spacious room.Just what we needed after a 11 flight and 2 hours wait at the car rental place. Plenty of spaces to park and easy to find once you've left LAX airport We just used this hotel for a quick over night stay but definitely would of spent longer here given the fact it was better. The only negatives were - the breakfast was advised as continental but when we actually got there it was a cupboard filled with biscuits and muffins in the lobby area(most of them were gone by 9am) and not much choice with tea/coffee. Didn't really matter as Ihop is only 5 mins down the road.No hairdryer in the room but managed to get one from the reception.  Would choice this hotel againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r179125175-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>179125175</t>
+  </si>
+  <si>
+    <t>09/29/2013</t>
+  </si>
+  <si>
+    <t>Extended Stay America - Culver City-Fox Hills, CA</t>
+  </si>
+  <si>
+    <t>This was my first stay at this particular Extended Stay America location.  I will definitely return in the near future when I am in the area again.  Even though it is off of Sepulveda Blvd, which is very busy with traffic all the time, you cannot hear the traffic.  It is a quiet hotel, and the traffic cannot be heard, even though I opened one of the windows to let some outside air into my guestroom.  The kitchenettes are nice, and refrigerators are provided in the guestrooms also.  The air conditioning units work well, but the cooling works better than the heating.  It is a well-kept up hotel, and its value is as good as the nearby Custom Hotel in the LAX area, since you get a full kitchenette and refrigerator for the price of your stay at Extended Stay America.  This hotel is also conveniently close to the nearby Howard Hughes Center and Fox Hills Mall, which have plenty of retail stores, restaurants, and fast-food places.  This is also a safe area to walk around, even at night.  Free Wi-Fi is also offered. Travelers from out of the area can reach this hotel by riding the Culver City Line 6 bus on Sepulveda Blvd to and from LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>This was my first stay at this particular Extended Stay America location.  I will definitely return in the near future when I am in the area again.  Even though it is off of Sepulveda Blvd, which is very busy with traffic all the time, you cannot hear the traffic.  It is a quiet hotel, and the traffic cannot be heard, even though I opened one of the windows to let some outside air into my guestroom.  The kitchenettes are nice, and refrigerators are provided in the guestrooms also.  The air conditioning units work well, but the cooling works better than the heating.  It is a well-kept up hotel, and its value is as good as the nearby Custom Hotel in the LAX area, since you get a full kitchenette and refrigerator for the price of your stay at Extended Stay America.  This hotel is also conveniently close to the nearby Howard Hughes Center and Fox Hills Mall, which have plenty of retail stores, restaurants, and fast-food places.  This is also a safe area to walk around, even at night.  Free Wi-Fi is also offered. Travelers from out of the area can reach this hotel by riding the Culver City Line 6 bus on Sepulveda Blvd to and from LAX.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r176183162-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1097,9 +1581,6 @@
     <t>I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of...I booked this hotel on Hotwire. The deep deal they don't tell you the name until you book it. Joke.( Thats a whole other review) First, the location wasn't awful but pretty difficult to find. Weird streets.. I originally booked for 2 people, therfore I guess Hotwire didn't give me the option of beds. I ended up coming with 3 people, and until I got there hadn't realized I didn't choose the room option of 1 or 2 beds. The girl at the desk, who seems to be wearing every hat there, says they are booked and can't give me a 2 bd room my first night. But can on my second but it costs more. Fine. I get to my room and it reeks of cigs. Gross. The bed hasn't been finished being made. The pillows are on a table and the bedspread is in a ball in the closet.. I spend the night sleeping on the recliner. In the morning I go down to the lobby for my " breakfast on the go" to find that there is no coffee made at 8:00 am and still none 20 min later. I would not call this a breakfast, its a snack. There were breakfast bars and oranges and apples and oatmeal packets. That's it. NO COFFEE! So I had to make it in my room trying not to wake my teenage kids. The breakfast they advertised was one of the factors in my search for hotels. Now I will have to go out to eat another meal. Oh, and for being "booked" the only other people I saw downstairs were the 2 women who checked in before me. They too were complaining about the stinky room and wheres the coffee?More</t>
   </si>
   <si>
-    <t>dh0414</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r174827232-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1127,9 +1608,6 @@
     <t>Last winter during the end-of-year holiday week between 12/26 and 1/1, my wife and I stayed at the Extended Stay America near LAX.  Initially we were put off by the strongly scented cleaning supplies used in the lobby, as we use unscented products at home due to allergies.  However, the aromas were not detectable in the room.  The staff were very helpful.  The room was adequate, though basic.  Soundproofing was good.  A few times we saw cars that seemed to be inhabited by homeless people in the parking lot and reported the situation to the hotel staff.  On one occasion, we saw a police car parked directly at the entrance.  When we inquired why the car was there, it was explained that sometimes the police had to stop by to investigate and used that space.  There were some cooking aromas in the hallways.  We found a Trader Joe's nearby, where we were able to get provisions that we enjoyed at home from the same source.  As we were in LA primarily to visit family, we found the location to be very convenient--about 5 minutes from one relative and 10 to 15 minutes from another.  On our last night, we saw Lincoln in the Howard Hughes Shopping center after a pleasant dinner if Thai food.  We were delighted to be 5 to 10 minutes from LAX, making our departure very easy.More</t>
   </si>
   <si>
-    <t>tympani</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r174240282-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1151,7 +1629,43 @@
     <t>Hotels with kitchens in the rooms tend to be a little stinky. (WHAT are they cooking in there?!) Don't expect amenities like shampoo and maid service is only once a week for stays over a few days. This particular Extended Stay is in the middle of no where, but 10 minutes from the airport. I think people on housing subsidies live here.More</t>
   </si>
   <si>
-    <t>Bob_Werner1701</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r171950209-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>171950209</t>
+  </si>
+  <si>
+    <t>08/12/2013</t>
+  </si>
+  <si>
+    <t>Served It's Purpose</t>
+  </si>
+  <si>
+    <t>I stayed here for a one-day training for work. The hotel is in a great location but the clientele make it seem a little sketch. The staff was very friendly and the internet was free!!The elevators were a bit rickety and I wasn't sure if I wanted to get back on. The same elevator just didn't show up one time and I ended up just taking the stairs in frustration.Overall, it was clean and would be great for a family on a budget. Otherwise, if money isn't the issue, there's nicer hotels in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r166635531-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>166635531</t>
+  </si>
+  <si>
+    <t>07/07/2013</t>
+  </si>
+  <si>
+    <t>Excellent place if you want to save money for hotel in West LA, but the odor of the hotel makes you wish you had payed more at a</t>
+  </si>
+  <si>
+    <t>This hotel would be great if they actually considered two things that make it fail. First, is the horrible smell in the hallways and the rooms. As soon as I got to the room you wouldn't believe the odor that the hallways and the rooms have. I am a smoker and sorry to be so blunt, but I swear I wanted to light one up, so it'd at least cover the smell of foot and butter that prevailed in that room.  I bought Lysol, but I'm guessing I'm going to need industrial strength because it hasn't worked yet. MoreShow less</t>
+  </si>
+  <si>
+    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2013</t>
+  </si>
+  <si>
+    <t>This hotel would be great if they actually considered two things that make it fail. First, is the horrible smell in the hallways and the rooms. As soon as I got to the room you wouldn't believe the odor that the hallways and the rooms have. I am a smoker and sorry to be so blunt, but I swear I wanted to light one up, so it'd at least cover the smell of foot and butter that prevailed in that room.  I bought Lysol, but I'm guessing I'm going to need industrial strength because it hasn't worked yet. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r165571982-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1172,18 +1686,9 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Manager_11525, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 10, 2013</t>
-  </si>
-  <si>
-    <t>Responded July 10, 2013</t>
-  </si>
-  <si>
     <t>This is a very good hotel to stay at if you're in town for more than a few days. The rooms have a full kitchen that includes a large refrigerator. I was able to save money by cooking breakfast in my room every morning. Exchanging dirty towels was a very easy process. If I return to the LA area I would definitely stay here again. A tip: if you need to turn left out of the parking lot, it is easier to go right and make a U-Turn at the light.More</t>
   </si>
   <si>
-    <t>Tom G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r162982768-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1208,9 +1713,6 @@
     <t>Very nice, helpful, friendly staff.  Stayed on top floor of hotel.  Top floor was a newly renovated studio with kitchenette and full refrigerator, and very nice.  Room a new leather reclining arm chair with foot rest, 2 desks with mesh back chairs, and a 32 inch LG flat screen TV.  I requested the top floor away from traffic -which increased the room price by $5 per night, but was well worth it.  I never heard the people in the rooms next to and adjacent to my room, which was a big plus, nor did I really hear any noise from the parking lot.  I ate almost all my meals at the hotel, and the Take &amp; Go breakfast of an orange (or apple), cinnamon granola bar, muffin, oatemal and coffee was a pretty good deal.  Staying a 7th day gave me the weekly rate which made it cheaper than staying 6 days at the regular rate.  The quality of the room, halls, lobby, and building was a great value.  There was even a rolling pull cart which you can use to load up your things from your car or room.More</t>
   </si>
   <si>
-    <t>Robert D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r157370809-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1238,7 +1740,52 @@
     <t>I have stayed here twice because i have a conference in the area twice a year for work.  The hotel is clean and the rooms are comfortable.  The staff is friendly and helpful.  They always try to go the extra mile for me and my co workers, so i have no complaints in that department.  Its an inexpensive place to stay and we were near the airport, the beaches, some malls and many places to eat.  The rooms do need to be updated a little but they were clean and neat and spacious and we just needed a place to sleep because most of the time we were in our conference or out sightseeing.  Overall it was a very pleasant experience. I would come back. Now if they had a pool that would be even better but the beach isnt too far.More</t>
   </si>
   <si>
-    <t>terry8330</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r157366782-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157366782</t>
+  </si>
+  <si>
+    <t>Friendly Customer Service</t>
+  </si>
+  <si>
+    <t>This hotel  had 2 of the things I look for.( 1) is great customer service, my check in experience was excellent. The staff was very friendly, they made me feel welcome. (2) the cleanliness of the room, I was impressed... I thought that for being a 2-3 star hotel and the rate being so afortable I was going to get a small room, but I was pretty surprised when I checked in to my room... It was just the right size and best of all the cleanliness of the room was great. I would definitely come back:)MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel  had 2 of the things I look for.( 1) is great customer service, my check in experience was excellent. The staff was very friendly, they made me feel welcome. (2) the cleanliness of the room, I was impressed... I thought that for being a 2-3 star hotel and the rate being so afortable I was going to get a small room, but I was pretty surprised when I checked in to my room... It was just the right size and best of all the cleanliness of the room was great. I would definitely come back:)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r157190293-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>157190293</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>Mediocre experience.</t>
+  </si>
+  <si>
+    <t>Let me preface by saying that when travelling I usually stay in these types of 2-3* hotels so my review is based on comparing this Extended stay with others in the same category, even extended stays in other states.
+Pros: Room was large, neat and clean. Everything was in working order, didn't have any problems with the appliances or fixtures (except window - see cons). Location was awesome, located close to a couple of malls, close to the fwy, only 10 mins to the airport, and there was a diner next door that served good food. Wi-Fi was decent although I got the impression they throttled it down (compared to wifis in other hotels) so you would upgrade to their "hi speed" package (extra charge). Nice big window which let in lots of natural light during the day. Staff was very friendly and helpful.
+Cons: Couldn't open/close the aforementioned windows so I had 1 fully closed window and 1 1/4 opened window for my duration. Small amount of Rust and stains on the kitchen countertop and bathtub. First hotel I've been to in about 15 years that didn't offer a wakeup call service. Extension number listed on the inroom phone was incorrect, had to ask receptionist for correct one. Hotel was pet friendly so in certain hallway areas there was a distinctly animal smell.
+All in all I would rank it below average for this level of hotel, however, given...Let me preface by saying that when travelling I usually stay in these types of 2-3* hotels so my review is based on comparing this Extended stay with others in the same category, even extended stays in other states.Pros: Room was large, neat and clean. Everything was in working order, didn't have any problems with the appliances or fixtures (except window - see cons). Location was awesome, located close to a couple of malls, close to the fwy, only 10 mins to the airport, and there was a diner next door that served good food. Wi-Fi was decent although I got the impression they throttled it down (compared to wifis in other hotels) so you would upgrade to their "hi speed" package (extra charge). Nice big window which let in lots of natural light during the day. Staff was very friendly and helpful.Cons: Couldn't open/close the aforementioned windows so I had 1 fully closed window and 1 1/4 opened window for my duration. Small amount of Rust and stains on the kitchen countertop and bathtub. First hotel I've been to in about 15 years that didn't offer a wakeup call service. Extension number listed on the inroom phone was incorrect, had to ask receptionist for correct one. Hotel was pet friendly so in certain hallway areas there was a distinctly animal smell.All in all I would rank it below average for this level of hotel, however, given that all other hotels in this area are approx. $30 more per night I think this hotel represents good value if all you're looking for is a bed to stay in a decent area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Responded April 10, 2013</t>
+  </si>
+  <si>
+    <t>Let me preface by saying that when travelling I usually stay in these types of 2-3* hotels so my review is based on comparing this Extended stay with others in the same category, even extended stays in other states.
+Pros: Room was large, neat and clean. Everything was in working order, didn't have any problems with the appliances or fixtures (except window - see cons). Location was awesome, located close to a couple of malls, close to the fwy, only 10 mins to the airport, and there was a diner next door that served good food. Wi-Fi was decent although I got the impression they throttled it down (compared to wifis in other hotels) so you would upgrade to their "hi speed" package (extra charge). Nice big window which let in lots of natural light during the day. Staff was very friendly and helpful.
+Cons: Couldn't open/close the aforementioned windows so I had 1 fully closed window and 1 1/4 opened window for my duration. Small amount of Rust and stains on the kitchen countertop and bathtub. First hotel I've been to in about 15 years that didn't offer a wakeup call service. Extension number listed on the inroom phone was incorrect, had to ask receptionist for correct one. Hotel was pet friendly so in certain hallway areas there was a distinctly animal smell.
+All in all I would rank it below average for this level of hotel, however, given...Let me preface by saying that when travelling I usually stay in these types of 2-3* hotels so my review is based on comparing this Extended stay with others in the same category, even extended stays in other states.Pros: Room was large, neat and clean. Everything was in working order, didn't have any problems with the appliances or fixtures (except window - see cons). Location was awesome, located close to a couple of malls, close to the fwy, only 10 mins to the airport, and there was a diner next door that served good food. Wi-Fi was decent although I got the impression they throttled it down (compared to wifis in other hotels) so you would upgrade to their "hi speed" package (extra charge). Nice big window which let in lots of natural light during the day. Staff was very friendly and helpful.Cons: Couldn't open/close the aforementioned windows so I had 1 fully closed window and 1 1/4 opened window for my duration. Small amount of Rust and stains on the kitchen countertop and bathtub. First hotel I've been to in about 15 years that didn't offer a wakeup call service. Extension number listed on the inroom phone was incorrect, had to ask receptionist for correct one. Hotel was pet friendly so in certain hallway areas there was a distinctly animal smell.All in all I would rank it below average for this level of hotel, however, given that all other hotels in this area are approx. $30 more per night I think this hotel represents good value if all you're looking for is a bed to stay in a decent area.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r156881929-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1256,9 +1803,6 @@
     <t>Daytime not bad window lighting, but awful out-dated cheap knock-off of knock-off lamps with harsh fluorescent bulbs with a green-yellow tinge. No shampoo or lotion, just bar soaps. A faint urine odor persisted near the bed, but couldn't locate it exactly. Windows were very tight and stiff and required a Herculean effort to open. Staff were all nice and friendly. At night, I had to arrange the blackout curtains perfectly so that the screechy self-storage security street lights next door didn't wake me up all night. Even then, there were at least 3 or 4 gadgets like smoke detectors and such that had little bright indicator lights that glowed through the night - they could have been placed better. Bathtub faucet dripped. Water filter on the kitchen tap was a nice touch though. Utensil drawer was scary and unevenly stocked. No closet, just a corner area with the cheapest possible wire rack with 3 (three) hangers on it! Also, many hotels should stop using the magnetic cards with the Pizza Hut ad on them, because I always think that the pointy red hat indicates the direction of the card placement on the door lock!MoreShow less</t>
   </si>
   <si>
-    <t>April 2013</t>
-  </si>
-  <si>
     <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded April 9, 2013</t>
   </si>
   <si>
@@ -1268,9 +1812,6 @@
     <t>Daytime not bad window lighting, but awful out-dated cheap knock-off of knock-off lamps with harsh fluorescent bulbs with a green-yellow tinge. No shampoo or lotion, just bar soaps. A faint urine odor persisted near the bed, but couldn't locate it exactly. Windows were very tight and stiff and required a Herculean effort to open. Staff were all nice and friendly. At night, I had to arrange the blackout curtains perfectly so that the screechy self-storage security street lights next door didn't wake me up all night. Even then, there were at least 3 or 4 gadgets like smoke detectors and such that had little bright indicator lights that glowed through the night - they could have been placed better. Bathtub faucet dripped. Water filter on the kitchen tap was a nice touch though. Utensil drawer was scary and unevenly stocked. No closet, just a corner area with the cheapest possible wire rack with 3 (three) hangers on it! Also, many hotels should stop using the magnetic cards with the Pizza Hut ad on them, because I always think that the pointy red hat indicates the direction of the card placement on the door lock!More</t>
   </si>
   <si>
-    <t>Melanierich12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r156159290-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1293,9 +1834,6 @@
   </si>
   <si>
     <t>I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not...I wanted to book a room in the LA area for less than $75 so I went on Hotwire and booked the two star room that was $72 ($90 after taxes and Hotwire fees) despite the fact that only 50% of the people on Hotwire would recommend it.  I was expecting a dump based on the reviews and I was pleasantly surprised. Any hotel that has a full kitchen, free internet, free continental and free parking I tend to give more weight to. Most "high quality" hotels charge for parking and internet and do not offer a breakfast.  And those same "high quality" hotels charge an arm and a leg and get great reviews while the budget hotels do not over charge for these items and they get bad reviews.  This hotel does not have frills.  There is no shampoo and no body soap but there is hand soap without a soap dish.  There is a full kitchen with dishes and silverware, a very small breakfast.  I do not think they clean daily if you stay 2-6 nights but you can exchange your towels at the front.  In all I have to weight the price with the quality.  If I had paid this price in some cities I would expect full service.  Since I am in LA, I cannot expect the best if I am only paying $90. I would recommend this place as long as the total does not go over $90 per night.More</t>
-  </si>
-  <si>
-    <t>fernandita4</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r155111104-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1330,7 +1868,58 @@
 One more thing:...As one very unhelpful lady at the front desk said, " Uh, sorry, this is a no-frills Extended Stay." She wasn't kidding. This place is not only no frills amenities-wise. The staff has quite the no-frills, hands-off attitude as well. Upon arrival, the lobby smelled due to the adjacent trash room. The staff was very rude too. I wasn't greeted or even acknowledged when I walked up to the front desk. I arrived at 4:00, one hour after check-in begins, yet I had to wait 40 minutes while my room was being cleaned up. It's true this hotel is inexpensive compared to some other hotels in the area, but it's still costly enough where customers shouldn't be made to waste the time they are paying for.At one point, I asked the same unhelpful lady if there was any herbal tea available. She said she might have one in her purse but otherwise no--a strange and unprofessional response. The next morning, guess what, there was tea downstairs. Customer service is in the details and the staff here obviously doesn't understand that. If you are looking for a reasonably priced room with a full-sized kitchen, this is an adequate option. Be prepared when you get here though. You might start to miss those "frills" pretty quick, like, oh I don't know, eye contact from the staff. If you want good service, you'll have to pay for it elsewhere.One more thing: the facility is a bit old and I found an odd stain beneath my coffee maker.More</t>
   </si>
   <si>
-    <t>Jamielee703</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r152880539-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152880539</t>
+  </si>
+  <si>
+    <t>02/23/2013</t>
+  </si>
+  <si>
+    <t>Excellent Hotel!</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff.  Great room (really a studio apartment) with separate kitchen area, roomy (although open) closet, nice furniture including desk in addition to small dining table, very comfy large soft reading chair and huge ottoman, great queen size pillow top bed, perfectly placed wall lamps for all of the above mentioned places.As I write this I realize how well thought out this hotel is. I have to hand it to whoever built this place. (I know from my review it sounds like I must be that guy, but honestly I'm just a customer and paying full price - which did I mention is incredibly reasonable.)Not exactly a picturesque location. I have a room facing the 405 freeway but I can only hear it if I open the window (which actually opens wide enough to be useful!). The only other downside is the wall mounted heater / air conditioner which is a little noisy - but only in comparison to 4 and 5 star hotels.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2013</t>
+  </si>
+  <si>
+    <t>Very friendly and helpful staff.  Great room (really a studio apartment) with separate kitchen area, roomy (although open) closet, nice furniture including desk in addition to small dining table, very comfy large soft reading chair and huge ottoman, great queen size pillow top bed, perfectly placed wall lamps for all of the above mentioned places.As I write this I realize how well thought out this hotel is. I have to hand it to whoever built this place. (I know from my review it sounds like I must be that guy, but honestly I'm just a customer and paying full price - which did I mention is incredibly reasonable.)Not exactly a picturesque location. I have a room facing the 405 freeway but I can only hear it if I open the window (which actually opens wide enough to be useful!). The only other downside is the wall mounted heater / air conditioner which is a little noisy - but only in comparison to 4 and 5 star hotels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r152659121-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>152659121</t>
+  </si>
+  <si>
+    <t>02/20/2013</t>
+  </si>
+  <si>
+    <t>Excellent corporate alternative</t>
+  </si>
+  <si>
+    <t>Excellent corporate apartment alternative.  Maid service, kitchen, wifi, cable TV and on.  Staff is always pleasant and helpful.  Easy freeway access (important in Los Angeles).  Walk to next door coffee shop.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2013</t>
+  </si>
+  <si>
+    <t>Excellent corporate apartment alternative.  Maid service, kitchen, wifi, cable TV and on.  Staff is always pleasant and helpful.  Easy freeway access (important in Los Angeles).  Walk to next door coffee shop.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r149846163-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1348,9 +1937,6 @@
     <t>hotel was clean, newly remolded and a great staff.  Only about 10 minutes from the air port and close to two shopping malls Westfield Culver City and Howard Hughes. Both malls have  great restaurant 5 minutes away.   They have a grab n go breakfast with coffee, oat meal, granola bars, muffins and fruit. They have a diner next door, we had a good meal and just walked next door. Free parking  I will definitely make this my regular hotel for business or vacation when in the LA area.MoreShow less</t>
   </si>
   <si>
-    <t>January 2013</t>
-  </si>
-  <si>
     <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded January 18, 2013</t>
   </si>
   <si>
@@ -1358,9 +1944,6 @@
   </si>
   <si>
     <t>hotel was clean, newly remolded and a great staff.  Only about 10 minutes from the air port and close to two shopping malls Westfield Culver City and Howard Hughes. Both malls have  great restaurant 5 minutes away.   They have a grab n go breakfast with coffee, oat meal, granola bars, muffins and fruit. They have a diner next door, we had a good meal and just walked next door. Free parking  I will definitely make this my regular hotel for business or vacation when in the LA area.More</t>
-  </si>
-  <si>
-    <t>Pierce G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r147168956-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1397,9 +1980,6 @@
 Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it...I have reviewed this hotel already once before. It was a good stay then, and a good stay this past time.I recently did a large project in Beverly Hills, and the hotel was far enough from work, yet close enough to work, that it was a great location. Easy freeway access, close to the marina and water, also close enough to a lot of places to eat.As in my previous review, I really want to commend Michelle and her staff on such excellent service. This can be a very busy hotel, and the degree of personal service is just great.I have read other reviews of the place and yes, the car park can get rather full, but there is always room on the rear of the property and rather easy entry there. I do agree, the 'trash' rooms can get out of hand and perhaps some type of air freshner, and a good cleaning once a week would help.Finally, I know the grab and go breakfast is a comp, but if someone could insure that it is out by 6am as advertised that would be great.  It does help that 7-11 is close and you can get coffee there in a rush in the morning.Other than that, in Los Angeles, it is nice to not have to pay for parking, to have a really good feeling that your car will be where you left it when you come out in the morning, as well as in one piece. To have a staff that greats you warmly when you come in the lobby, as well as when you leave.With all that in mind, this is not a Hilton Resort, nor does it cost like one, and you get to park for free.  However, don't expect the same perks you would get in a 5 star resort.  If you want that, go pay for it.This is a nice property, great for a long term stay.  Between my two visits I spent almost 4 months here.  One last thing, Friday night at Dinah's next door is prime rib special for under 20.00.  Good deal if you want to fill up.More</t>
   </si>
   <si>
-    <t>ulgen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r143416503-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1427,7 +2007,58 @@
     <t>The best thing about this place is its location. It's very close to Westfield Culver City and Howard Hughes. It's also next to a diner. However, it's 10 minutes ride to LAX, so that does not actually make it an airport hotel.Rooms are a bit outdated, Kitchenette is a plus but I didn't use it at all. My room had a full size refrigerator which is very useful during long stays. It also has ironing facilities. Air conditioning is very loud. They clean the rooms once a week on the day you agreed upon.Parking is free and there is enough parking space, never had a problem finding one. Staff is very helpful and friendly.More</t>
   </si>
   <si>
-    <t>cran001</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r142005298-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>142005298</t>
+  </si>
+  <si>
+    <t>10/04/2012</t>
+  </si>
+  <si>
+    <t>Affordable... but there's a reason why!</t>
+  </si>
+  <si>
+    <t>Free parking, kitchen and free internet. Of course that counts... but the whole facility is old. Furniture, carpets and basically everything is old and worn out here (I'm not saying things don't work). There is a room on each floor meant for garbage disposal which is very convenient, although the whole corridor smells like garbage (it travels through air conditioning ventilation openings and the whole place ends up smelling like garbage). Internet is pretty slow and unstable (sometimes preventing you to use it). This hotel works if you looking for an affordable stay with the complimentary conveniences they offer but it is far for feeling like a Confort Inn. It worked for us, a brazilian couple who was staying in LA for a month to study, but if you are in Honey Moon mood, book earlier and find a romantic place to stay (preferably near the beach).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>Michael D, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 8, 2012</t>
+  </si>
+  <si>
+    <t>Free parking, kitchen and free internet. Of course that counts... but the whole facility is old. Furniture, carpets and basically everything is old and worn out here (I'm not saying things don't work). There is a room on each floor meant for garbage disposal which is very convenient, although the whole corridor smells like garbage (it travels through air conditioning ventilation openings and the whole place ends up smelling like garbage). Internet is pretty slow and unstable (sometimes preventing you to use it). This hotel works if you looking for an affordable stay with the complimentary conveniences they offer but it is far for feeling like a Confort Inn. It worked for us, a brazilian couple who was staying in LA for a month to study, but if you are in Honey Moon mood, book earlier and find a romantic place to stay (preferably near the beach).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r141166724-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>141166724</t>
+  </si>
+  <si>
+    <t>09/24/2012</t>
+  </si>
+  <si>
+    <t>Very Good Los Angeles Home Base</t>
+  </si>
+  <si>
+    <t>We (couple) had driven down the coast and used this motel as a home base for our visit to LA. We were going to leave from LAX. We needed a car and parking here is free with easy access. We always like to have a kitchen in the room, even though we ate meals out.  We have found Extended Stays to be great values. There was a mall about 1/4 mi. away with a Starbucks. The mall had no free parking. It was $2 to just stop for coffee, which we did not do. We walked there, but most people would not. No good views. Homeless man lived in enclosed area used for storage and obviously long term resident families lived downstairs. Nevertheless, it felt safe. Room was spacious and clean. Best shower of our 8 day trip from San Fran to LA. Friendly staff. Laundry was convenient. Would stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded October 1, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 1, 2012</t>
+  </si>
+  <si>
+    <t>We (couple) had driven down the coast and used this motel as a home base for our visit to LA. We were going to leave from LAX. We needed a car and parking here is free with easy access. We always like to have a kitchen in the room, even though we ate meals out.  We have found Extended Stays to be great values. There was a mall about 1/4 mi. away with a Starbucks. The mall had no free parking. It was $2 to just stop for coffee, which we did not do. We walked there, but most people would not. No good views. Homeless man lived in enclosed area used for storage and obviously long term resident families lived downstairs. Nevertheless, it felt safe. Room was spacious and clean. Best shower of our 8 day trip from San Fran to LA. Friendly staff. Laundry was convenient. Would stay there again.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r140881680-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1443,9 +2074,6 @@
   </si>
   <si>
     <t>My husband and I are local LA residents who stayed here a few days while we had to be out of our own house. It was a good home away from home. Clean and quiet. The extra space and the kitchen are big pluses. I brought a blender and made morning smoothies. I also brought a down comforter to replace the typical hotel bedspread, and hair products since they do not provide them. For this reasonable price, one cannot expect a five-star hotel!  The desk staff was very friendly and helpful. I recommend this place!MoreShow less</t>
-  </si>
-  <si>
-    <t>September 2012</t>
   </si>
   <si>
     <t>General Manager L, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded September 24, 2012</t>
@@ -1498,9 +2126,6 @@
 Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and...I stay at a lot of hotels in the Extended Stay brand, they are all changing their name to Extended Stay now, which I think is a good idea.  With that in mind, here we go.The Extended Stay America - LAX, is by far the nicest ESA I have stayed in to date.The staff, excellent, they understand hospitality and that is good. Housekeeping, stellar.Room condition, very nice and comfortable. Not the Hilton, but they don't claim to be. Great beds, bedding, linens, and bath towels.The room was very clean upon arrival, no problems with my reservation and very helpful. The front desk even called me within an hour of check in to see if everything was ok with my room. I have not had that happen in a hotel in over a year, not since the Sheraton San Juan and that hotel is far more expensive.The grab and go breakfast, a nice touch, don't expect much - but it is better than nothing.Had a couple of issues with my room, microwave was not working properly and the commode ran all night, both were fixed the next day. Prompt attentative service, what a concept.Usually I wait until checking out of a hotel to review it, I have been here a week and have 8 more before I leave L.A. This hotel needs to be recognized within the chain as a model of service and brand attractiveness. If all of the hotels in this brand came close to this, it would be hard to find a vacancy in the chain.  Just my opinion.So as the title says, this ESA is the best one yet.I commend the staff and management for a great product. The only thing I would change here is that I could have this staff at any ESA I stay at.More</t>
   </si>
   <si>
-    <t>John P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r135571146-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1528,7 +2153,55 @@
     <t>I guess if we would get a better room, it would not be such a bad experience. Besides the fact that in the middle at the night a fire-alarm went on, we got the room at the end of the hallway (towards the main street) and the traffic is so loud that it is hard to fall asleep. I am not sure if it was because we got a discounted rate through www.PetsCanStay.com that we got such loud room. To sum things up, it is a good place but make sure you select your room before you get there. M.More</t>
   </si>
   <si>
-    <t>Kelly C</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r133417379-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>133417379</t>
+  </si>
+  <si>
+    <t>07/04/2012</t>
+  </si>
+  <si>
+    <t>Great Stay... But got overcharged</t>
+  </si>
+  <si>
+    <t>Location was great! Easy to get in and out of. Means a lot in LA. The room was spacious and clean. Amenities were basic- but I expected that from an extended stay. But no alarm clock? Breakfast was simple but satisfying. Coffee, muffins, granola bars. Get there early or you will be left without juice. I was left without juice by 8am. I was only there a short time and was unable to really explore the property. But what I did see I was happy- BUT I was overcharged by $20! I signed up for their email promotions. Got a code for new sign ups. I used it to book to receive $10 off. When I arrived i was told it would be adjusted at check out. OK. At check out I was told there was no such discount noted, and that a manager would call me by the end of the day. It has been over a week. When I arrived home, I looked over my email confirmation and it stated a total $78 with tax. I was charged $98. What happened??? Other than that check in/out was quick and easy- except for the jerk that put his key and hair dryer next to me told me his room # and asked me to check out for him since the clerk had stepped away for a moment...MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Manager_11525, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 8, 2012</t>
+  </si>
+  <si>
+    <t>Location was great! Easy to get in and out of. Means a lot in LA. The room was spacious and clean. Amenities were basic- but I expected that from an extended stay. But no alarm clock? Breakfast was simple but satisfying. Coffee, muffins, granola bars. Get there early or you will be left without juice. I was left without juice by 8am. I was only there a short time and was unable to really explore the property. But what I did see I was happy- BUT I was overcharged by $20! I signed up for their email promotions. Got a code for new sign ups. I used it to book to receive $10 off. When I arrived i was told it would be adjusted at check out. OK. At check out I was told there was no such discount noted, and that a manager would call me by the end of the day. It has been over a week. When I arrived home, I looked over my email confirmation and it stated a total $78 with tax. I was charged $98. What happened??? Other than that check in/out was quick and easy- except for the jerk that put his key and hair dryer next to me told me his room # and asked me to check out for him since the clerk had stepped away for a moment...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r132411991-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>132411991</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>Excellent Staff and Service</t>
+  </si>
+  <si>
+    <t>I have stayed at some of the finest luxury hotels from San Francisco, L. A. South Bay and San Diego to Chandler and Glendale Arizona for my personal and business travels.  I've spent as many as 20 days and as little as a weekend and found that Extended Stay America LA - LAX Airport is by far the best in Customer Service, Attention to detail and Cleanliness.  The rooms are clean and in perfect order everytime I arrive and through my stay.  This speaks to the proffessionalism and training from Management to their Operations Staff and Housekeeping Staff.  They are my choice for all my LA travels.  Michelle and her staff have kept me returning everytime.  Great job team...MoreShow less</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at some of the finest luxury hotels from San Francisco, L. A. South Bay and San Diego to Chandler and Glendale Arizona for my personal and business travels.  I've spent as many as 20 days and as little as a weekend and found that Extended Stay America LA - LAX Airport is by far the best in Customer Service, Attention to detail and Cleanliness.  The rooms are clean and in perfect order everytime I arrive and through my stay.  This speaks to the proffessionalism and training from Management to their Operations Staff and Housekeeping Staff.  They are my choice for all my LA travels.  Michelle and her staff have kept me returning everytime.  Great job team...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r131931786-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1546,9 +2219,6 @@
     <t>I have stayed at some of the finest luxury hotels in the world and in fact had just spent 7 days at a Four Seasons before checking into this hotel for four days. I was impressed with the friendliness and can-do attitude of the staff as well as how spotless and fresh-smelling everything down to the trash room was at this hotel. Some guests had their pets and there was never dog poop around, unlike some other pet-friendly hotels where I've stayed. Not a speck of trash anywhere in the parking lot! As long as you read what you're getting at this hotel then you won't be disappointed. Yes, you have to make your own beds, wash your own dishes and do your own laundry but it adds to the homey feeling this hotel exudes. Comfy beds and quiet guests made for an enjoyable stay as well. I was on my computer and iPad constantly and never had a problem with the free Internet. (I didn't upgrade.) I recommend it for anyone needing a place for one night or long-term.  For the price, you can't do better in an area convenient to everything.MoreShow less</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
     <t>General Manager L, General Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded August 1, 2012</t>
   </si>
   <si>
@@ -1558,9 +2228,6 @@
     <t>I have stayed at some of the finest luxury hotels in the world and in fact had just spent 7 days at a Four Seasons before checking into this hotel for four days. I was impressed with the friendliness and can-do attitude of the staff as well as how spotless and fresh-smelling everything down to the trash room was at this hotel. Some guests had their pets and there was never dog poop around, unlike some other pet-friendly hotels where I've stayed. Not a speck of trash anywhere in the parking lot! As long as you read what you're getting at this hotel then you won't be disappointed. Yes, you have to make your own beds, wash your own dishes and do your own laundry but it adds to the homey feeling this hotel exudes. Comfy beds and quiet guests made for an enjoyable stay as well. I was on my computer and iPad constantly and never had a problem with the free Internet. (I didn't upgrade.) I recommend it for anyone needing a place for one night or long-term.  For the price, you can't do better in an area convenient to everything.More</t>
   </si>
   <si>
-    <t>69VAGABOND69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r130245473-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1576,21 +2243,9 @@
     <t>I found this location very convenient to a specific shopping area I wanted to visit (Fairfax Ave) it was about 20 minutes away without having to get on the freeway. I also wanted to visit the beach (Santa Monica) which was also just 20 minutes away from the hotel. My flight back home at LAX was definately convenient also! The room itself was worth the value. At check in, I was informed that if I needed more towels, shampoo, pillows, etc that they'd be happy to get those to me. Later on in my room I requested for two extra pillows and they were delivered in about 15 minutes, which to me wasn't that bad. I had easy access in and out of the hotel and the staff was very friendly. I'd definately stay here again on my next visit.MoreShow less</t>
   </si>
   <si>
-    <t>May 2012</t>
-  </si>
-  <si>
-    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded July 17, 2012</t>
-  </si>
-  <si>
-    <t>Responded July 17, 2012</t>
-  </si>
-  <si>
     <t>I found this location very convenient to a specific shopping area I wanted to visit (Fairfax Ave) it was about 20 minutes away without having to get on the freeway. I also wanted to visit the beach (Santa Monica) which was also just 20 minutes away from the hotel. My flight back home at LAX was definately convenient also! The room itself was worth the value. At check in, I was informed that if I needed more towels, shampoo, pillows, etc that they'd be happy to get those to me. Later on in my room I requested for two extra pillows and they were delivered in about 15 minutes, which to me wasn't that bad. I had easy access in and out of the hotel and the staff was very friendly. I'd definately stay here again on my next visit.More</t>
   </si>
   <si>
-    <t>William M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r130107024-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
   </si>
   <si>
@@ -1609,7 +2264,52 @@
     <t>Close to airport, freeway, shops, restaurants. Staff is friendly and courteous and attentive to my needs. I would recommend it to friends and family for future stays.More</t>
   </si>
   <si>
-    <t>Christine S</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r128869870-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>128869870</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>Wonderful Hotel with Friendly, Professional Staff</t>
+  </si>
+  <si>
+    <t>Stayed here for the last one year and six month with my wife and had a really enjoyable stay. The front desk staff and managers are wonderful, friendly, courteous and professional. The new management is making a lot of improvement to the place. I highly recommend it to anyone who wants to stay at this hotel that is conveniently located (walking distance) to shopping mall, groceries, great restaurants and Starbucks.AB &amp; BGMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>ChristopherTM, Manager at Extended Stay America - Los Angeles - LAX Airport, responded to this reviewResponded June 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 5, 2012</t>
+  </si>
+  <si>
+    <t>Stayed here for the last one year and six month with my wife and had a really enjoyable stay. The front desk staff and managers are wonderful, friendly, courteous and professional. The new management is making a lot of improvement to the place. I highly recommend it to anyone who wants to stay at this hotel that is conveniently located (walking distance) to shopping mall, groceries, great restaurants and Starbucks.AB &amp; BGMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r125758340-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
+  </si>
+  <si>
+    <t>125758340</t>
+  </si>
+  <si>
+    <t>03/07/2012</t>
+  </si>
+  <si>
+    <t>Never again...</t>
+  </si>
+  <si>
+    <t>- You can "actually" listen to people snoring in the other room.. no chance of you getting any sleep. - You can also listen to their TV, no need of turning on your own, which by the way is a pathetic 10 year old CRT based TV with grainy picture quality.- when you walk on the floor, you can feel and listen to it,  sqeaking- The ambience of the rooms is like "old" and "refurbished".. very dull atmosphere - It charges you about 5+ USD to do a run of laundry, which is not great anyway...MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>- You can "actually" listen to people snoring in the other room.. no chance of you getting any sleep. - You can also listen to their TV, no need of turning on your own, which by the way is a pathetic 10 year old CRT based TV with grainy picture quality.- when you walk on the floor, you can feel and listen to it,  sqeaking- The ambience of the rooms is like "old" and "refurbished".. very dull atmosphere - It charges you about 5+ USD to do a run of laundry, which is not great anyway...More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32655-d84224-r124928959-Extended_Stay_America_Los_Angeles_LAX_Airport-Los_Angeles_California.html</t>
@@ -1625,9 +2325,6 @@
   </si>
   <si>
     <t>This hotel is near the Westfield shopping mall,it is clean,affordable, wifi and near the airport. Ana has great customer service skills and very pleasant. I would stay here again!!MoreShow less</t>
-  </si>
-  <si>
-    <t>February 2012</t>
   </si>
   <si>
     <t>This hotel is near the Westfield shopping mall,it is clean,affordable, wifi and near the airport. Ana has great customer service skills and very pleasant. I would stay here again!!More</t>
@@ -2135,47 +2832,43 @@
       <c r="A2" t="n">
         <v>38329</v>
       </c>
-      <c r="B2" t="n">
-        <v>177639</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
-      </c>
-      <c r="L2" t="s">
-        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2187,135 +2880,119 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
         <v>55</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>56</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>38329</v>
       </c>
-      <c r="B3" t="n">
-        <v>177640</v>
-      </c>
-      <c r="C3" t="s">
-        <v>58</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
         <v>59</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>60</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>61</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
       </c>
-      <c r="L3" t="s">
+      <c r="O3" t="s">
         <v>63</v>
       </c>
-      <c r="M3" t="n">
-        <v>3</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
-      </c>
-      <c r="O3" t="s">
-        <v>65</v>
-      </c>
-      <c r="P3" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>4</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>38329</v>
       </c>
-      <c r="B4" t="n">
-        <v>177641</v>
-      </c>
-      <c r="C4" t="s">
-        <v>69</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
         <v>70</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>72</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>73</v>
-      </c>
-      <c r="L4" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>75</v>
-      </c>
-      <c r="O4" t="s">
-        <v>54</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2327,200 +3004,188 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
+        <v>74</v>
+      </c>
+      <c r="X4" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y4" t="s">
         <v>76</v>
-      </c>
-      <c r="X4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>38329</v>
       </c>
-      <c r="B5" t="n">
-        <v>177642</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J5" t="s">
         <v>79</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="K5" t="s">
         <v>80</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>81</v>
-      </c>
-      <c r="J5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" t="s">
-        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
+        <v>82</v>
+      </c>
+      <c r="O5" t="s">
+        <v>73</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>83</v>
+      </c>
+      <c r="X5" t="s">
+        <v>84</v>
+      </c>
+      <c r="Y5" t="s">
         <v>85</v>
-      </c>
-      <c r="O5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P5" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>4</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X5" t="s">
-        <v>88</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>38329</v>
       </c>
-      <c r="B6" t="n">
-        <v>177643</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>87</v>
+      </c>
+      <c r="J6" t="s">
+        <v>88</v>
+      </c>
+      <c r="K6" t="s">
+        <v>89</v>
+      </c>
+      <c r="L6" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
         <v>91</v>
       </c>
-      <c r="G6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="O6" t="s">
         <v>92</v>
       </c>
-      <c r="J6" t="s">
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>4</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
         <v>93</v>
       </c>
-      <c r="K6" t="s">
+      <c r="X6" t="s">
         <v>94</v>
       </c>
-      <c r="L6" t="s">
+      <c r="Y6" t="s">
         <v>95</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s">
-        <v>85</v>
-      </c>
-      <c r="O6" t="s">
-        <v>96</v>
-      </c>
-      <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
-      <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
-      <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="s">
-        <v>97</v>
-      </c>
-      <c r="X6" t="s">
-        <v>98</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>38329</v>
       </c>
-      <c r="B7" t="n">
-        <v>177644</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>102</v>
-      </c>
-      <c r="J7" t="s">
-        <v>103</v>
-      </c>
-      <c r="K7" t="s">
-        <v>104</v>
-      </c>
-      <c r="L7" t="s">
-        <v>105</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s">
-        <v>106</v>
-      </c>
       <c r="O7" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2532,1085 +3197,1063 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="Y7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>38329</v>
       </c>
-      <c r="B8" t="n">
-        <v>177645</v>
-      </c>
-      <c r="C8" t="s">
-        <v>110</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>106</v>
+      </c>
+      <c r="J8" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" t="s">
+        <v>108</v>
+      </c>
+      <c r="L8" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" t="n">
+        <v>5</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>73</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>110</v>
+      </c>
+      <c r="X8" t="s">
         <v>111</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="Y8" t="s">
         <v>112</v>
-      </c>
-      <c r="J8" t="s">
-        <v>113</v>
-      </c>
-      <c r="K8" t="s">
-        <v>114</v>
-      </c>
-      <c r="L8" t="s">
-        <v>115</v>
-      </c>
-      <c r="M8" t="n">
-        <v>5</v>
-      </c>
-      <c r="N8" t="s">
-        <v>116</v>
-      </c>
-      <c r="O8" t="s">
-        <v>96</v>
-      </c>
-      <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
-      <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="s">
-        <v>117</v>
-      </c>
-      <c r="X8" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>38329</v>
       </c>
-      <c r="B9" t="n">
-        <v>177646</v>
-      </c>
-      <c r="C9" t="s">
-        <v>120</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="K9" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="L9" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="O9" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
-      <c r="S9" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="X9" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="Y9" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>38329</v>
       </c>
-      <c r="B10" t="n">
-        <v>177647</v>
-      </c>
-      <c r="C10" t="s">
-        <v>130</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="G10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="J10" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="K10" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="L10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O10" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="X10" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="Y10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>38329</v>
       </c>
-      <c r="B11" t="n">
-        <v>177648</v>
-      </c>
-      <c r="C11" t="s">
-        <v>139</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="J11" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="K11" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="L11" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
       <c r="O11" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>3</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="Y11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>38329</v>
       </c>
-      <c r="B12" t="n">
-        <v>177649</v>
-      </c>
-      <c r="C12" t="s">
-        <v>149</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="J12" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="K12" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="L12" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="P12" t="s"/>
-      <c r="Q12" t="n">
-        <v>2</v>
-      </c>
-      <c r="R12" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>2</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="X12" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="Y12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>38329</v>
       </c>
-      <c r="B13" t="n">
-        <v>177650</v>
-      </c>
-      <c r="C13" t="s">
-        <v>159</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="J13" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="K13" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="L13" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N13" t="s">
+        <v>145</v>
+      </c>
+      <c r="O13" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>154</v>
+      </c>
+      <c r="X13" t="s">
         <v>155</v>
       </c>
-      <c r="O13" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>3</v>
-      </c>
-      <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>3</v>
-      </c>
-      <c r="V13" t="n">
-        <v>0</v>
-      </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>38329</v>
       </c>
-      <c r="B14" t="n">
-        <v>92717</v>
-      </c>
-      <c r="C14" t="s">
-        <v>165</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="J14" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="K14" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="L14" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="O14" t="s">
-        <v>86</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
       <c r="T14" t="s"/>
-      <c r="U14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>163</v>
+      </c>
+      <c r="X14" t="s">
+        <v>164</v>
+      </c>
       <c r="Y14" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>38329</v>
       </c>
-      <c r="B15" t="n">
-        <v>177651</v>
-      </c>
-      <c r="C15" t="s">
-        <v>173</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
+        <v>166</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+      <c r="J15" t="s">
+        <v>168</v>
+      </c>
+      <c r="K15" t="s">
+        <v>169</v>
+      </c>
+      <c r="L15" t="s">
+        <v>170</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>171</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>172</v>
+      </c>
+      <c r="X15" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y15" t="s">
         <v>174</v>
-      </c>
-      <c r="G15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" t="s">
-        <v>48</v>
-      </c>
-      <c r="I15" t="s">
-        <v>175</v>
-      </c>
-      <c r="J15" t="s">
-        <v>176</v>
-      </c>
-      <c r="K15" t="s">
-        <v>177</v>
-      </c>
-      <c r="L15" t="s">
-        <v>178</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5</v>
-      </c>
-      <c r="N15" t="s">
-        <v>179</v>
-      </c>
-      <c r="O15" t="s">
-        <v>180</v>
-      </c>
-      <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>5</v>
-      </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
-      <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>5</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0</v>
-      </c>
-      <c r="W15" t="s">
-        <v>181</v>
-      </c>
-      <c r="X15" t="s">
-        <v>182</v>
-      </c>
-      <c r="Y15" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>38329</v>
       </c>
-      <c r="B16" t="n">
-        <v>688</v>
-      </c>
-      <c r="C16" t="s">
-        <v>184</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O16" t="s">
-        <v>86</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>181</v>
+      </c>
+      <c r="X16" t="s">
+        <v>182</v>
+      </c>
       <c r="Y16" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>38329</v>
       </c>
-      <c r="B17" t="n">
-        <v>177652</v>
-      </c>
-      <c r="C17" t="s">
-        <v>190</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="K17" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="L17" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="M17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>196</v>
+        <v>171</v>
       </c>
       <c r="O17" t="s">
-        <v>96</v>
-      </c>
-      <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
-      <c r="R17" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>189</v>
+      </c>
+      <c r="X17" t="s">
+        <v>190</v>
+      </c>
       <c r="Y17" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>38329</v>
       </c>
-      <c r="B18" t="n">
-        <v>1515</v>
-      </c>
-      <c r="C18" t="s">
-        <v>197</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="J18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="K18" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="L18" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="M18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>203</v>
+        <v>171</v>
       </c>
       <c r="O18" t="s">
-        <v>54</v>
-      </c>
-      <c r="P18" t="s"/>
-      <c r="Q18" t="s"/>
+        <v>73</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
       <c r="R18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>197</v>
+      </c>
+      <c r="X18" t="s">
+        <v>198</v>
+      </c>
       <c r="Y18" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>38329</v>
       </c>
-      <c r="B19" t="n">
-        <v>177653</v>
-      </c>
-      <c r="C19" t="s">
-        <v>204</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
+        <v>200</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>201</v>
+      </c>
+      <c r="J19" t="s">
+        <v>202</v>
+      </c>
+      <c r="K19" t="s">
+        <v>203</v>
+      </c>
+      <c r="L19" t="s">
+        <v>204</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="s">
         <v>205</v>
       </c>
-      <c r="G19" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
-        <v>206</v>
-      </c>
-      <c r="J19" t="s">
-        <v>207</v>
-      </c>
-      <c r="K19" t="s">
-        <v>208</v>
-      </c>
-      <c r="L19" t="s">
-        <v>209</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>210</v>
-      </c>
       <c r="O19" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="S19" t="n">
+        <v>2</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="X19" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="Y19" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>38329</v>
       </c>
-      <c r="B20" t="n">
-        <v>177654</v>
-      </c>
-      <c r="C20" t="s">
-        <v>214</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="J20" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="K20" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L20" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="M20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="O20" t="s">
-        <v>86</v>
-      </c>
-      <c r="P20" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P20" t="n">
+        <v>1</v>
+      </c>
       <c r="Q20" t="s"/>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="X20" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="Y20" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>38329</v>
       </c>
-      <c r="B21" t="n">
-        <v>177655</v>
-      </c>
-      <c r="C21" t="s">
-        <v>224</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="J21" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="K21" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="L21" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>96</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="n">
-        <v>5</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P21" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>38329</v>
       </c>
-      <c r="B22" t="n">
-        <v>57456</v>
-      </c>
-      <c r="C22" t="s">
-        <v>234</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K22" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="L22" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="M22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="O22" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P22" t="s"/>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="s"/>
+      <c r="U22" t="n">
+        <v>2</v>
+      </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="X22" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="Y22" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>38329</v>
       </c>
-      <c r="B23" t="n">
-        <v>83</v>
-      </c>
-      <c r="C23" t="s">
-        <v>244</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="J23" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="K23" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="L23" t="s">
-        <v>249</v>
+        <v>236</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="O23" t="s">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q23" t="n">
+        <v>1</v>
+      </c>
+      <c r="R23" t="s"/>
       <c r="S23" t="n">
         <v>3</v>
       </c>
@@ -3621,71 +4264,63 @@
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>251</v>
-      </c>
-      <c r="X23" t="s">
-        <v>252</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>38329</v>
       </c>
-      <c r="B24" t="n">
-        <v>177656</v>
-      </c>
-      <c r="C24" t="s">
-        <v>254</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="K24" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="L24" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="M24" t="n">
         <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>196</v>
+        <v>242</v>
       </c>
       <c r="O24" t="s">
-        <v>180</v>
-      </c>
-      <c r="P24" t="s"/>
+        <v>136</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
-      <c r="S24" t="n">
-        <v>1</v>
-      </c>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -3693,119 +4328,113 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>260</v>
+        <v>241</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>38329</v>
       </c>
-      <c r="B25" t="n">
-        <v>177657</v>
-      </c>
-      <c r="C25" t="s">
-        <v>261</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>262</v>
+        <v>243</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>263</v>
+        <v>244</v>
       </c>
       <c r="J25" t="s">
-        <v>264</v>
+        <v>245</v>
       </c>
       <c r="K25" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="L25" t="s">
-        <v>266</v>
+        <v>247</v>
       </c>
       <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>242</v>
+      </c>
+      <c r="O25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="n">
         <v>3</v>
       </c>
-      <c r="N25" t="s">
-        <v>240</v>
-      </c>
-      <c r="O25" t="s">
-        <v>86</v>
-      </c>
-      <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>2</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>267</v>
-      </c>
-      <c r="X25" t="s">
-        <v>268</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>38329</v>
       </c>
-      <c r="B26" t="n">
-        <v>177658</v>
-      </c>
-      <c r="C26" t="s">
-        <v>270</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="G26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="J26" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="K26" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="L26" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="M26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="O26" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -3816,68 +4445,62 @@
       <c r="V26" t="n">
         <v>0</v>
       </c>
-      <c r="W26" t="s">
-        <v>277</v>
-      </c>
-      <c r="X26" t="s">
-        <v>278</v>
-      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>279</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>38329</v>
       </c>
-      <c r="B27" t="n">
-        <v>177659</v>
-      </c>
-      <c r="C27" t="s">
-        <v>280</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="G27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="J27" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="K27" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="L27" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="M27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="O27" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
-      <c r="R27" t="n">
-        <v>3</v>
-      </c>
-      <c r="S27" t="s"/>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3886,332 +4509,310 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>286</v>
+        <v>260</v>
       </c>
       <c r="X27" t="s">
-        <v>287</v>
+        <v>261</v>
       </c>
       <c r="Y27" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>38329</v>
       </c>
-      <c r="B28" t="n">
-        <v>177660</v>
-      </c>
-      <c r="C28" t="s">
-        <v>289</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="G28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="J28" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="L28" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="M28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="O28" t="s">
-        <v>54</v>
-      </c>
-      <c r="P28" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>3</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="s"/>
       <c r="T28" t="s"/>
-      <c r="U28" t="n">
-        <v>3</v>
-      </c>
+      <c r="U28" t="s"/>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>296</v>
-      </c>
-      <c r="X28" t="s">
-        <v>297</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>298</v>
+        <v>267</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>38329</v>
       </c>
-      <c r="B29" t="n">
-        <v>177661</v>
-      </c>
-      <c r="C29" t="s">
-        <v>299</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>268</v>
       </c>
       <c r="G29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>301</v>
+        <v>269</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>270</v>
       </c>
       <c r="K29" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="L29" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="O29" t="s">
-        <v>96</v>
-      </c>
-      <c r="P29" t="s"/>
+        <v>63</v>
+      </c>
+      <c r="P29" t="n">
+        <v>1</v>
+      </c>
       <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="R29" t="n">
+        <v>2</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>304</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>38329</v>
       </c>
-      <c r="B30" t="n">
-        <v>177662</v>
-      </c>
-      <c r="C30" t="s">
-        <v>306</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
+        <v>274</v>
       </c>
       <c r="G30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>308</v>
+        <v>275</v>
       </c>
       <c r="J30" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
       <c r="K30" t="s">
-        <v>310</v>
+        <v>277</v>
       </c>
       <c r="L30" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="M30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>312</v>
+        <v>279</v>
       </c>
       <c r="O30" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="P30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>3</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>313</v>
+        <v>280</v>
       </c>
       <c r="X30" t="s">
-        <v>314</v>
+        <v>281</v>
       </c>
       <c r="Y30" t="s">
-        <v>315</v>
+        <v>282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>38329</v>
       </c>
-      <c r="B31" t="n">
-        <v>177663</v>
-      </c>
-      <c r="C31" t="s">
-        <v>316</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
       <c r="J31" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="K31" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
       <c r="L31" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>288</v>
+      </c>
+      <c r="O31" t="s">
+        <v>136</v>
+      </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
-      <c r="S31" t="s"/>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
       <c r="T31" t="s"/>
-      <c r="U31" t="s"/>
+      <c r="U31" t="n">
+        <v>1</v>
+      </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>38329</v>
       </c>
-      <c r="B32" t="n">
-        <v>13144</v>
-      </c>
-      <c r="C32" t="s">
-        <v>322</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="G32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
       <c r="J32" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="K32" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
       <c r="L32" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>328</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>86</v>
-      </c>
-      <c r="P32" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
       <c r="R32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
@@ -4223,145 +4824,127 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>38329</v>
       </c>
-      <c r="B33" t="n">
-        <v>177664</v>
-      </c>
-      <c r="C33" t="s">
-        <v>329</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>330</v>
+        <v>294</v>
       </c>
       <c r="G33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>331</v>
+        <v>295</v>
       </c>
       <c r="J33" t="s">
-        <v>332</v>
+        <v>296</v>
       </c>
       <c r="K33" t="s">
-        <v>333</v>
+        <v>297</v>
       </c>
       <c r="L33" t="s">
-        <v>334</v>
+        <v>298</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="s">
-        <v>335</v>
+        <v>299</v>
       </c>
       <c r="O33" t="s">
-        <v>86</v>
-      </c>
-      <c r="P33" t="n">
-        <v>3</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P33" t="s"/>
       <c r="Q33" t="n">
-        <v>2</v>
-      </c>
-      <c r="R33" t="n">
-        <v>3</v>
-      </c>
-      <c r="S33" t="n">
-        <v>2</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>336</v>
+        <v>300</v>
       </c>
       <c r="X33" t="s">
-        <v>337</v>
+        <v>301</v>
       </c>
       <c r="Y33" t="s">
-        <v>338</v>
+        <v>302</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>38329</v>
       </c>
-      <c r="B34" t="n">
-        <v>177665</v>
-      </c>
-      <c r="C34" t="s">
-        <v>339</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="G34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="J34" t="s">
-        <v>342</v>
+        <v>305</v>
       </c>
       <c r="K34" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="L34" t="s">
-        <v>344</v>
+        <v>307</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="O34" t="s">
-        <v>96</v>
-      </c>
-      <c r="P34" t="n">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
         <v>3</v>
       </c>
-      <c r="Q34" t="n">
-        <v>4</v>
-      </c>
       <c r="R34" t="n">
-        <v>4</v>
-      </c>
-      <c r="S34" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -4369,1418 +4952,3854 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>345</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>38329</v>
       </c>
-      <c r="B35" t="n">
-        <v>177666</v>
-      </c>
-      <c r="C35" t="s">
-        <v>346</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>347</v>
+        <v>310</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>348</v>
+        <v>311</v>
       </c>
       <c r="J35" t="s">
-        <v>349</v>
+        <v>312</v>
       </c>
       <c r="K35" t="s">
-        <v>350</v>
+        <v>313</v>
       </c>
       <c r="L35" t="s">
-        <v>351</v>
+        <v>314</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="n">
         <v>2</v>
       </c>
-      <c r="Q35" t="n">
-        <v>3</v>
-      </c>
+      <c r="N35" t="s">
+        <v>315</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
       <c r="R35" t="n">
-        <v>3</v>
-      </c>
-      <c r="S35" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S35" t="s"/>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>352</v>
+        <v>316</v>
       </c>
       <c r="X35" t="s">
-        <v>353</v>
+        <v>317</v>
       </c>
       <c r="Y35" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>38329</v>
       </c>
-      <c r="B36" t="n">
-        <v>177667</v>
-      </c>
-      <c r="C36" t="s">
-        <v>355</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>356</v>
+        <v>319</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>357</v>
+        <v>320</v>
       </c>
       <c r="J36" t="s">
-        <v>358</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s">
-        <v>359</v>
+        <v>322</v>
       </c>
       <c r="L36" t="s">
-        <v>360</v>
+        <v>323</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>361</v>
+        <v>315</v>
       </c>
       <c r="O36" t="s">
-        <v>65</v>
-      </c>
-      <c r="P36" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
       <c r="R36" t="n">
-        <v>4</v>
-      </c>
-      <c r="S36" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S36" t="s"/>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="X36" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="Y36" t="s">
-        <v>364</v>
+        <v>326</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>38329</v>
       </c>
-      <c r="B37" t="n">
-        <v>177668</v>
-      </c>
-      <c r="C37" t="s">
-        <v>365</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>366</v>
+        <v>327</v>
       </c>
       <c r="G37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>367</v>
+        <v>328</v>
       </c>
       <c r="J37" t="s">
-        <v>368</v>
+        <v>329</v>
       </c>
       <c r="K37" t="s">
-        <v>369</v>
+        <v>330</v>
       </c>
       <c r="L37" t="s">
-        <v>370</v>
+        <v>331</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>371</v>
+        <v>332</v>
       </c>
       <c r="O37" t="s">
-        <v>86</v>
-      </c>
-      <c r="P37" t="n">
-        <v>3</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P37" t="s"/>
       <c r="Q37" t="n">
-        <v>3</v>
-      </c>
-      <c r="R37" t="n">
-        <v>2</v>
-      </c>
-      <c r="S37" t="n">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>362</v>
+        <v>333</v>
       </c>
       <c r="X37" t="s">
-        <v>363</v>
+        <v>334</v>
       </c>
       <c r="Y37" t="s">
-        <v>372</v>
+        <v>335</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>38329</v>
       </c>
-      <c r="B38" t="n">
-        <v>177669</v>
-      </c>
-      <c r="C38" t="s">
-        <v>373</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>374</v>
+        <v>336</v>
       </c>
       <c r="G38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>375</v>
+        <v>337</v>
       </c>
       <c r="J38" t="s">
-        <v>376</v>
+        <v>338</v>
       </c>
       <c r="K38" t="s">
-        <v>377</v>
+        <v>339</v>
       </c>
       <c r="L38" t="s">
-        <v>378</v>
+        <v>340</v>
       </c>
       <c r="M38" t="n">
         <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>379</v>
+        <v>341</v>
       </c>
       <c r="O38" t="s">
-        <v>96</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>4</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>4</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>380</v>
+        <v>342</v>
       </c>
       <c r="X38" t="s">
-        <v>381</v>
+        <v>343</v>
       </c>
       <c r="Y38" t="s">
-        <v>382</v>
+        <v>344</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>38329</v>
       </c>
-      <c r="B39" t="n">
-        <v>14778</v>
-      </c>
-      <c r="C39" t="s">
-        <v>383</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>384</v>
+        <v>345</v>
       </c>
       <c r="G39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>385</v>
+        <v>346</v>
       </c>
       <c r="J39" t="s">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="K39" t="s">
-        <v>387</v>
+        <v>348</v>
       </c>
       <c r="L39" t="s">
-        <v>388</v>
+        <v>349</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>379</v>
+        <v>332</v>
       </c>
       <c r="O39" t="s">
-        <v>86</v>
-      </c>
-      <c r="P39" t="n">
-        <v>5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P39" t="s"/>
       <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>389</v>
-      </c>
-      <c r="X39" t="s">
-        <v>390</v>
-      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>391</v>
+        <v>350</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>38329</v>
       </c>
-      <c r="B40" t="n">
-        <v>6223</v>
-      </c>
-      <c r="C40" t="s">
-        <v>392</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>393</v>
+        <v>351</v>
       </c>
       <c r="G40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>394</v>
+        <v>352</v>
       </c>
       <c r="J40" t="s">
-        <v>395</v>
+        <v>353</v>
       </c>
       <c r="K40" t="s">
-        <v>396</v>
+        <v>354</v>
       </c>
       <c r="L40" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>398</v>
+        <v>332</v>
       </c>
       <c r="O40" t="s">
-        <v>86</v>
-      </c>
-      <c r="P40" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>4</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
-      <c r="S40" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>5</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>399</v>
-      </c>
-      <c r="X40" t="s">
-        <v>400</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>38329</v>
       </c>
-      <c r="B41" t="n">
-        <v>177670</v>
-      </c>
-      <c r="C41" t="s">
-        <v>402</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>403</v>
+        <v>356</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>404</v>
+        <v>357</v>
       </c>
       <c r="J41" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="K41" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="L41" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>408</v>
+        <v>361</v>
       </c>
       <c r="O41" t="s">
-        <v>86</v>
-      </c>
-      <c r="P41" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S41" t="n">
         <v>3</v>
       </c>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>409</v>
+        <v>362</v>
       </c>
       <c r="X41" t="s">
-        <v>410</v>
+        <v>363</v>
       </c>
       <c r="Y41" t="s">
-        <v>411</v>
+        <v>364</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>38329</v>
       </c>
-      <c r="B42" t="n">
-        <v>177671</v>
-      </c>
-      <c r="C42" t="s">
-        <v>412</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>413</v>
+        <v>365</v>
       </c>
       <c r="G42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>367</v>
       </c>
       <c r="K42" t="s">
-        <v>416</v>
+        <v>368</v>
       </c>
       <c r="L42" t="s">
-        <v>417</v>
+        <v>369</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N42" t="s">
-        <v>398</v>
+        <v>288</v>
       </c>
       <c r="O42" t="s">
-        <v>65</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>418</v>
-      </c>
-      <c r="X42" t="s">
-        <v>419</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>420</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>38329</v>
       </c>
-      <c r="B43" t="n">
-        <v>177672</v>
-      </c>
-      <c r="C43" t="s">
-        <v>421</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>422</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>423</v>
+        <v>372</v>
       </c>
       <c r="J43" t="s">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="K43" t="s">
-        <v>425</v>
+        <v>374</v>
       </c>
       <c r="L43" t="s">
-        <v>426</v>
+        <v>375</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N43" t="s">
-        <v>398</v>
+        <v>341</v>
       </c>
       <c r="O43" t="s">
-        <v>65</v>
-      </c>
-      <c r="P43" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>2</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
-      <c r="U43" t="n">
-        <v>1</v>
-      </c>
+      <c r="U43" t="s"/>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>427</v>
+        <v>376</v>
       </c>
       <c r="X43" t="s">
-        <v>428</v>
+        <v>377</v>
       </c>
       <c r="Y43" t="s">
-        <v>429</v>
+        <v>378</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>38329</v>
       </c>
-      <c r="B44" t="n">
-        <v>177673</v>
-      </c>
-      <c r="C44" t="s">
-        <v>430</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>431</v>
+        <v>379</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>432</v>
+        <v>380</v>
       </c>
       <c r="J44" t="s">
-        <v>433</v>
+        <v>381</v>
       </c>
       <c r="K44" t="s">
-        <v>434</v>
+        <v>382</v>
       </c>
       <c r="L44" t="s">
-        <v>435</v>
+        <v>383</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N44" t="s">
-        <v>436</v>
+        <v>384</v>
       </c>
       <c r="O44" t="s">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
-      </c>
-      <c r="R44" t="n">
-        <v>5</v>
-      </c>
-      <c r="S44" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>437</v>
+        <v>385</v>
       </c>
       <c r="X44" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
       <c r="Y44" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>38329</v>
       </c>
-      <c r="B45" t="n">
-        <v>14558</v>
-      </c>
-      <c r="C45" t="s">
-        <v>440</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="G45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="J45" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="K45" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="L45" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>361</v>
+        <v>393</v>
       </c>
       <c r="O45" t="s">
-        <v>86</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>5</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>5</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>446</v>
-      </c>
-      <c r="X45" t="s">
-        <v>447</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>448</v>
+        <v>392</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>38329</v>
       </c>
-      <c r="B46" t="n">
-        <v>177674</v>
-      </c>
-      <c r="C46" t="s">
-        <v>449</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>450</v>
+        <v>394</v>
       </c>
       <c r="G46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>451</v>
+        <v>395</v>
       </c>
       <c r="J46" t="s">
-        <v>452</v>
+        <v>396</v>
       </c>
       <c r="K46" t="s">
-        <v>453</v>
+        <v>397</v>
       </c>
       <c r="L46" t="s">
-        <v>454</v>
+        <v>398</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N46" t="s">
-        <v>455</v>
+        <v>393</v>
       </c>
       <c r="O46" t="s">
-        <v>86</v>
-      </c>
-      <c r="P46" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>3</v>
-      </c>
-      <c r="R46" t="n">
-        <v>4</v>
-      </c>
-      <c r="S46" t="n">
-        <v>3</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>4</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>456</v>
+        <v>399</v>
       </c>
       <c r="X46" t="s">
-        <v>457</v>
+        <v>400</v>
       </c>
       <c r="Y46" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>38329</v>
       </c>
-      <c r="B47" t="n">
-        <v>177675</v>
-      </c>
-      <c r="C47" t="s">
-        <v>459</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>460</v>
+        <v>402</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>461</v>
+        <v>403</v>
       </c>
       <c r="J47" t="s">
-        <v>462</v>
+        <v>404</v>
       </c>
       <c r="K47" t="s">
-        <v>463</v>
+        <v>405</v>
       </c>
       <c r="L47" t="s">
-        <v>464</v>
+        <v>406</v>
       </c>
       <c r="M47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>465</v>
+        <v>393</v>
       </c>
       <c r="O47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P47" t="s"/>
       <c r="Q47" t="s"/>
-      <c r="R47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
       <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>466</v>
+        <v>407</v>
       </c>
       <c r="X47" t="s">
-        <v>467</v>
+        <v>408</v>
       </c>
       <c r="Y47" t="s">
-        <v>468</v>
+        <v>409</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>38329</v>
       </c>
-      <c r="B48" t="n">
-        <v>14558</v>
-      </c>
-      <c r="C48" t="s">
-        <v>440</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>469</v>
+        <v>410</v>
       </c>
       <c r="G48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>470</v>
+        <v>411</v>
       </c>
       <c r="J48" t="s">
-        <v>471</v>
+        <v>412</v>
       </c>
       <c r="K48" t="s">
-        <v>472</v>
+        <v>413</v>
       </c>
       <c r="L48" t="s">
-        <v>473</v>
+        <v>414</v>
       </c>
       <c r="M48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>474</v>
+        <v>415</v>
       </c>
       <c r="O48" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q48" t="s"/>
       <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>475</v>
+        <v>416</v>
       </c>
       <c r="X48" t="s">
-        <v>476</v>
+        <v>417</v>
       </c>
       <c r="Y48" t="s">
-        <v>477</v>
+        <v>418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>38329</v>
       </c>
-      <c r="B49" t="n">
-        <v>7638</v>
-      </c>
-      <c r="C49" t="s">
-        <v>478</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>479</v>
+        <v>419</v>
       </c>
       <c r="G49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>480</v>
+        <v>420</v>
       </c>
       <c r="J49" t="s">
-        <v>481</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>482</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s">
-        <v>483</v>
+        <v>423</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N49" t="s">
-        <v>484</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s">
-        <v>86</v>
-      </c>
-      <c r="P49" t="n">
-        <v>4</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="P49" t="s"/>
       <c r="Q49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R49" t="n">
-        <v>4</v>
-      </c>
-      <c r="S49" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>485</v>
+        <v>425</v>
       </c>
       <c r="X49" t="s">
-        <v>486</v>
+        <v>426</v>
       </c>
       <c r="Y49" t="s">
-        <v>487</v>
+        <v>427</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>38329</v>
       </c>
-      <c r="B50" t="n">
-        <v>19154</v>
-      </c>
-      <c r="C50" t="s">
-        <v>488</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="G50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>490</v>
+        <v>429</v>
       </c>
       <c r="J50" t="s">
-        <v>491</v>
+        <v>430</v>
       </c>
       <c r="K50" t="s">
-        <v>492</v>
+        <v>431</v>
       </c>
       <c r="L50" t="s">
-        <v>493</v>
+        <v>432</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
-      <c r="N50" t="s">
-        <v>494</v>
-      </c>
-      <c r="O50" t="s">
-        <v>96</v>
-      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
       <c r="P50" t="n">
         <v>4</v>
       </c>
       <c r="Q50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S50" t="n">
         <v>5</v>
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>495</v>
+        <v>433</v>
       </c>
       <c r="X50" t="s">
-        <v>496</v>
+        <v>434</v>
       </c>
       <c r="Y50" t="s">
-        <v>497</v>
+        <v>435</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>38329</v>
       </c>
-      <c r="B51" t="n">
-        <v>177676</v>
-      </c>
-      <c r="C51" t="s">
-        <v>498</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>499</v>
+        <v>436</v>
       </c>
       <c r="G51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>500</v>
+        <v>437</v>
       </c>
       <c r="J51" t="s">
-        <v>501</v>
+        <v>438</v>
       </c>
       <c r="K51" t="s">
-        <v>502</v>
+        <v>439</v>
       </c>
       <c r="L51" t="s">
-        <v>503</v>
+        <v>440</v>
       </c>
       <c r="M51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>504</v>
+        <v>441</v>
       </c>
       <c r="O51" t="s">
-        <v>54</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
-      <c r="S51" t="n">
-        <v>5</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="P51" t="s"/>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="s"/>
       <c r="T51" t="s"/>
-      <c r="U51" t="n">
-        <v>5</v>
-      </c>
+      <c r="U51" t="s"/>
       <c r="V51" t="n">
         <v>0</v>
       </c>
-      <c r="W51" t="s">
-        <v>505</v>
-      </c>
-      <c r="X51" t="s">
-        <v>506</v>
-      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>507</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>38329</v>
       </c>
-      <c r="B52" t="n">
-        <v>13586</v>
-      </c>
-      <c r="C52" t="s">
-        <v>508</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>509</v>
+        <v>442</v>
       </c>
       <c r="G52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>510</v>
+        <v>443</v>
       </c>
       <c r="J52" t="s">
-        <v>511</v>
+        <v>444</v>
       </c>
       <c r="K52" t="s">
-        <v>512</v>
+        <v>445</v>
       </c>
       <c r="L52" t="s">
-        <v>513</v>
+        <v>446</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>504</v>
+        <v>447</v>
       </c>
       <c r="O52" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P52" t="n">
         <v>3</v>
       </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q52" t="s"/>
       <c r="R52" t="n">
-        <v>5</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>495</v>
+        <v>448</v>
       </c>
       <c r="X52" t="s">
-        <v>496</v>
+        <v>449</v>
       </c>
       <c r="Y52" t="s">
-        <v>514</v>
+        <v>450</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>38329</v>
       </c>
-      <c r="B53" t="n">
-        <v>19275</v>
-      </c>
-      <c r="C53" t="s">
-        <v>515</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
+        <v>451</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>452</v>
+      </c>
+      <c r="J53" t="s">
+        <v>453</v>
+      </c>
+      <c r="K53" t="s">
+        <v>454</v>
+      </c>
+      <c r="L53" t="s">
+        <v>455</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="s"/>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="s"/>
+      <c r="T53" t="s"/>
+      <c r="U53" t="s"/>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>456</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>457</v>
+      </c>
+      <c r="J54" t="s">
+        <v>458</v>
+      </c>
+      <c r="K54" t="s">
+        <v>459</v>
+      </c>
+      <c r="L54" t="s">
+        <v>460</v>
+      </c>
+      <c r="M54" t="n">
+        <v>2</v>
+      </c>
+      <c r="N54" t="s">
+        <v>461</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>2</v>
+      </c>
+      <c r="R54" t="s"/>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>1</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>462</v>
+      </c>
+      <c r="X54" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>465</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>466</v>
+      </c>
+      <c r="J55" t="s">
+        <v>467</v>
+      </c>
+      <c r="K55" t="s">
+        <v>468</v>
+      </c>
+      <c r="L55" t="s">
+        <v>469</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="s">
+        <v>447</v>
+      </c>
+      <c r="O55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>471</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>472</v>
+      </c>
+      <c r="J56" t="s">
+        <v>473</v>
+      </c>
+      <c r="K56" t="s">
+        <v>474</v>
+      </c>
+      <c r="L56" t="s">
+        <v>475</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>476</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>477</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>478</v>
+      </c>
+      <c r="J57" t="s">
+        <v>479</v>
+      </c>
+      <c r="K57" t="s">
+        <v>480</v>
+      </c>
+      <c r="L57" t="s">
+        <v>481</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>482</v>
+      </c>
+      <c r="O57" t="s">
+        <v>63</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>2</v>
+      </c>
+      <c r="R57" t="n">
+        <v>3</v>
+      </c>
+      <c r="S57" t="n">
+        <v>2</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>4</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s">
+        <v>483</v>
+      </c>
+      <c r="X57" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y57" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>486</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>487</v>
+      </c>
+      <c r="J58" t="s">
+        <v>488</v>
+      </c>
+      <c r="K58" t="s">
+        <v>489</v>
+      </c>
+      <c r="L58" t="s">
+        <v>490</v>
+      </c>
+      <c r="M58" t="n">
+        <v>2</v>
+      </c>
+      <c r="N58" t="s">
+        <v>482</v>
+      </c>
+      <c r="O58" t="s">
+        <v>136</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>492</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>493</v>
+      </c>
+      <c r="J59" t="s">
+        <v>494</v>
+      </c>
+      <c r="K59" t="s">
+        <v>495</v>
+      </c>
+      <c r="L59" t="s">
+        <v>496</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>497</v>
+      </c>
+      <c r="O59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>498</v>
+      </c>
+      <c r="X59" t="s">
+        <v>499</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>501</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>502</v>
+      </c>
+      <c r="J60" t="s">
+        <v>503</v>
+      </c>
+      <c r="K60" t="s">
+        <v>504</v>
+      </c>
+      <c r="L60" t="s">
+        <v>505</v>
+      </c>
+      <c r="M60" t="n">
+        <v>5</v>
+      </c>
+      <c r="N60" t="s">
+        <v>497</v>
+      </c>
+      <c r="O60" t="s">
+        <v>136</v>
+      </c>
+      <c r="P60" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>5</v>
+      </c>
+      <c r="R60" t="n">
+        <v>5</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>507</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>508</v>
+      </c>
+      <c r="J61" t="s">
+        <v>509</v>
+      </c>
+      <c r="K61" t="s">
+        <v>510</v>
+      </c>
+      <c r="L61" t="s">
+        <v>511</v>
+      </c>
+      <c r="M61" t="n">
+        <v>3</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>3</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>512</v>
+      </c>
+      <c r="X61" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>515</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
         <v>516</v>
       </c>
-      <c r="G53" t="s">
-        <v>47</v>
-      </c>
-      <c r="H53" t="s">
-        <v>48</v>
-      </c>
-      <c r="I53" t="s">
+      <c r="J62" t="s">
         <v>517</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K62" t="s">
         <v>518</v>
       </c>
-      <c r="K53" t="s">
+      <c r="L62" t="s">
         <v>519</v>
       </c>
-      <c r="L53" t="s">
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
         <v>520</v>
       </c>
-      <c r="M53" t="n">
-        <v>5</v>
-      </c>
-      <c r="N53" t="s">
+      <c r="O62" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>3</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
         <v>521</v>
       </c>
-      <c r="O53" t="s">
+      <c r="X62" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>524</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>525</v>
+      </c>
+      <c r="J63" t="s">
+        <v>526</v>
+      </c>
+      <c r="K63" t="s">
+        <v>527</v>
+      </c>
+      <c r="L63" t="s">
+        <v>528</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>529</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>521</v>
+      </c>
+      <c r="X63" t="s">
+        <v>522</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>531</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>532</v>
+      </c>
+      <c r="J64" t="s">
+        <v>533</v>
+      </c>
+      <c r="K64" t="s">
+        <v>534</v>
+      </c>
+      <c r="L64" t="s">
+        <v>535</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>529</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>4</v>
+      </c>
+      <c r="R64" t="n">
+        <v>4</v>
+      </c>
+      <c r="S64" t="n">
+        <v>4</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>536</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>537</v>
+      </c>
+      <c r="J65" t="s">
+        <v>538</v>
+      </c>
+      <c r="K65" t="s">
+        <v>539</v>
+      </c>
+      <c r="L65" t="s">
+        <v>540</v>
+      </c>
+      <c r="M65" t="n">
+        <v>3</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>3</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>541</v>
+      </c>
+      <c r="X65" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
         <v>65</v>
       </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
-      <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
-      <c r="T53" t="s"/>
-      <c r="U53" t="n">
-        <v>5</v>
-      </c>
-      <c r="V53" t="n">
-        <v>0</v>
-      </c>
-      <c r="W53" t="s">
-        <v>495</v>
-      </c>
-      <c r="X53" t="s">
-        <v>496</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>522</v>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>544</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>545</v>
+      </c>
+      <c r="J66" t="s">
+        <v>546</v>
+      </c>
+      <c r="K66" t="s">
+        <v>547</v>
+      </c>
+      <c r="L66" t="s">
+        <v>548</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>549</v>
+      </c>
+      <c r="O66" t="s">
+        <v>136</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>541</v>
+      </c>
+      <c r="X66" t="s">
+        <v>542</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>551</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>552</v>
+      </c>
+      <c r="J67" t="s">
+        <v>553</v>
+      </c>
+      <c r="K67" t="s">
+        <v>554</v>
+      </c>
+      <c r="L67" t="s">
+        <v>555</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>549</v>
+      </c>
+      <c r="O67" t="s">
+        <v>63</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>556</v>
+      </c>
+      <c r="X67" t="s">
+        <v>557</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>559</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>560</v>
+      </c>
+      <c r="J68" t="s">
+        <v>561</v>
+      </c>
+      <c r="K68" t="s">
+        <v>562</v>
+      </c>
+      <c r="L68" t="s">
+        <v>563</v>
+      </c>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>564</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>4</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>565</v>
+      </c>
+      <c r="X68" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>568</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>569</v>
+      </c>
+      <c r="J69" t="s">
+        <v>561</v>
+      </c>
+      <c r="K69" t="s">
+        <v>570</v>
+      </c>
+      <c r="L69" t="s">
+        <v>571</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>564</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>565</v>
+      </c>
+      <c r="X69" t="s">
+        <v>566</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>573</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>574</v>
+      </c>
+      <c r="J70" t="s">
+        <v>575</v>
+      </c>
+      <c r="K70" t="s">
+        <v>576</v>
+      </c>
+      <c r="L70" t="s">
+        <v>577</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>578</v>
+      </c>
+      <c r="O70" t="s">
+        <v>136</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>2</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>3</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>579</v>
+      </c>
+      <c r="X70" t="s">
+        <v>580</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>582</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>583</v>
+      </c>
+      <c r="J71" t="s">
+        <v>584</v>
+      </c>
+      <c r="K71" t="s">
+        <v>585</v>
+      </c>
+      <c r="L71" t="s">
+        <v>586</v>
+      </c>
+      <c r="M71" t="n">
+        <v>2</v>
+      </c>
+      <c r="N71" t="s">
+        <v>578</v>
+      </c>
+      <c r="O71" t="s">
+        <v>63</v>
+      </c>
+      <c r="P71" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>2</v>
+      </c>
+      <c r="R71" t="n">
+        <v>3</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>587</v>
+      </c>
+      <c r="X71" t="s">
+        <v>588</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>590</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>591</v>
+      </c>
+      <c r="J72" t="s">
+        <v>592</v>
+      </c>
+      <c r="K72" t="s">
+        <v>593</v>
+      </c>
+      <c r="L72" t="s">
+        <v>594</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>564</v>
+      </c>
+      <c r="O72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P72" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>4</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s">
+        <v>595</v>
+      </c>
+      <c r="X72" t="s">
+        <v>596</v>
+      </c>
+      <c r="Y72" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>598</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>599</v>
+      </c>
+      <c r="J73" t="s">
+        <v>600</v>
+      </c>
+      <c r="K73" t="s">
+        <v>601</v>
+      </c>
+      <c r="L73" t="s">
+        <v>602</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="s">
+        <v>564</v>
+      </c>
+      <c r="O73" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>1</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>603</v>
+      </c>
+      <c r="X73" t="s">
+        <v>604</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>606</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>607</v>
+      </c>
+      <c r="J74" t="s">
+        <v>608</v>
+      </c>
+      <c r="K74" t="s">
+        <v>609</v>
+      </c>
+      <c r="L74" t="s">
+        <v>610</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>611</v>
+      </c>
+      <c r="O74" t="s">
+        <v>63</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s">
+        <v>612</v>
+      </c>
+      <c r="X74" t="s">
+        <v>613</v>
+      </c>
+      <c r="Y74" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>615</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>616</v>
+      </c>
+      <c r="J75" t="s">
+        <v>617</v>
+      </c>
+      <c r="K75" t="s">
+        <v>618</v>
+      </c>
+      <c r="L75" t="s">
+        <v>619</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>620</v>
+      </c>
+      <c r="O75" t="s">
+        <v>63</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>621</v>
+      </c>
+      <c r="X75" t="s">
+        <v>622</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>624</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>625</v>
+      </c>
+      <c r="J76" t="s">
+        <v>626</v>
+      </c>
+      <c r="K76" t="s">
+        <v>627</v>
+      </c>
+      <c r="L76" t="s">
+        <v>628</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>620</v>
+      </c>
+      <c r="O76" t="s">
+        <v>63</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>629</v>
+      </c>
+      <c r="X76" t="s">
+        <v>630</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>632</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>633</v>
+      </c>
+      <c r="J77" t="s">
+        <v>634</v>
+      </c>
+      <c r="K77" t="s">
+        <v>635</v>
+      </c>
+      <c r="L77" t="s">
+        <v>636</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>520</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>637</v>
+      </c>
+      <c r="X77" t="s">
+        <v>638</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>640</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>641</v>
+      </c>
+      <c r="J78" t="s">
+        <v>642</v>
+      </c>
+      <c r="K78" t="s">
+        <v>643</v>
+      </c>
+      <c r="L78" t="s">
+        <v>644</v>
+      </c>
+      <c r="M78" t="n">
+        <v>3</v>
+      </c>
+      <c r="N78" t="s">
+        <v>645</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>3</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>3</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>646</v>
+      </c>
+      <c r="X78" t="s">
+        <v>647</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>649</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>650</v>
+      </c>
+      <c r="J79" t="s">
+        <v>651</v>
+      </c>
+      <c r="K79" t="s">
+        <v>652</v>
+      </c>
+      <c r="L79" t="s">
+        <v>653</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>654</v>
+      </c>
+      <c r="O79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>2</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>3</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>655</v>
+      </c>
+      <c r="X79" t="s">
+        <v>656</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>658</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>659</v>
+      </c>
+      <c r="J80" t="s">
+        <v>660</v>
+      </c>
+      <c r="K80" t="s">
+        <v>661</v>
+      </c>
+      <c r="L80" t="s">
+        <v>662</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>663</v>
+      </c>
+      <c r="O80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>664</v>
+      </c>
+      <c r="X80" t="s">
+        <v>665</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>667</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>668</v>
+      </c>
+      <c r="J81" t="s">
+        <v>669</v>
+      </c>
+      <c r="K81" t="s">
+        <v>670</v>
+      </c>
+      <c r="L81" t="s">
+        <v>671</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>654</v>
+      </c>
+      <c r="O81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="s"/>
+      <c r="Q81" t="s"/>
+      <c r="R81" t="s"/>
+      <c r="S81" t="s"/>
+      <c r="T81" t="s"/>
+      <c r="U81" t="s"/>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>672</v>
+      </c>
+      <c r="X81" t="s">
+        <v>673</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>675</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>676</v>
+      </c>
+      <c r="J82" t="s">
+        <v>677</v>
+      </c>
+      <c r="K82" t="s">
+        <v>678</v>
+      </c>
+      <c r="L82" t="s">
+        <v>679</v>
+      </c>
+      <c r="M82" t="n">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>680</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>681</v>
+      </c>
+      <c r="X82" t="s">
+        <v>682</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>684</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>685</v>
+      </c>
+      <c r="J83" t="s">
+        <v>686</v>
+      </c>
+      <c r="K83" t="s">
+        <v>687</v>
+      </c>
+      <c r="L83" t="s">
+        <v>688</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>689</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>690</v>
+      </c>
+      <c r="X83" t="s">
+        <v>691</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>693</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>694</v>
+      </c>
+      <c r="J84" t="s">
+        <v>695</v>
+      </c>
+      <c r="K84" t="s">
+        <v>696</v>
+      </c>
+      <c r="L84" t="s">
+        <v>697</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>698</v>
+      </c>
+      <c r="O84" t="s">
+        <v>136</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>699</v>
+      </c>
+      <c r="X84" t="s">
+        <v>700</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>702</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>703</v>
+      </c>
+      <c r="J85" t="s">
+        <v>704</v>
+      </c>
+      <c r="K85" t="s">
+        <v>705</v>
+      </c>
+      <c r="L85" t="s">
+        <v>706</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>698</v>
+      </c>
+      <c r="O85" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>707</v>
+      </c>
+      <c r="X85" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>710</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>711</v>
+      </c>
+      <c r="J86" t="s">
+        <v>712</v>
+      </c>
+      <c r="K86" t="s">
+        <v>713</v>
+      </c>
+      <c r="L86" t="s">
+        <v>714</v>
+      </c>
+      <c r="M86" t="n">
+        <v>5</v>
+      </c>
+      <c r="N86" t="s">
+        <v>698</v>
+      </c>
+      <c r="O86" t="s">
+        <v>136</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>4</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>715</v>
+      </c>
+      <c r="X86" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>718</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>719</v>
+      </c>
+      <c r="J87" t="s">
+        <v>720</v>
+      </c>
+      <c r="K87" t="s">
+        <v>721</v>
+      </c>
+      <c r="L87" t="s">
+        <v>722</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>663</v>
+      </c>
+      <c r="O87" t="s">
+        <v>73</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>707</v>
+      </c>
+      <c r="X87" t="s">
+        <v>708</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>724</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>725</v>
+      </c>
+      <c r="J88" t="s">
+        <v>726</v>
+      </c>
+      <c r="K88" t="s">
+        <v>727</v>
+      </c>
+      <c r="L88" t="s">
+        <v>728</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>663</v>
+      </c>
+      <c r="O88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>715</v>
+      </c>
+      <c r="X88" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>730</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>731</v>
+      </c>
+      <c r="J89" t="s">
+        <v>732</v>
+      </c>
+      <c r="K89" t="s">
+        <v>733</v>
+      </c>
+      <c r="L89" t="s">
+        <v>734</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>735</v>
+      </c>
+      <c r="O89" t="s">
+        <v>92</v>
+      </c>
+      <c r="P89" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>736</v>
+      </c>
+      <c r="X89" t="s">
+        <v>737</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>739</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>740</v>
+      </c>
+      <c r="J90" t="s">
+        <v>741</v>
+      </c>
+      <c r="K90" t="s">
+        <v>742</v>
+      </c>
+      <c r="L90" t="s">
+        <v>743</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>744</v>
+      </c>
+      <c r="O90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P90" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>715</v>
+      </c>
+      <c r="X90" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>38329</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>746</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>747</v>
+      </c>
+      <c r="J91" t="s">
+        <v>748</v>
+      </c>
+      <c r="K91" t="s">
+        <v>749</v>
+      </c>
+      <c r="L91" t="s">
+        <v>750</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>744</v>
+      </c>
+      <c r="O91" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>5</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>715</v>
+      </c>
+      <c r="X91" t="s">
+        <v>716</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>751</v>
       </c>
     </row>
   </sheetData>
